--- a/油漆统计.xlsx
+++ b/油漆统计.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="2"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="福州地铁" sheetId="2" r:id="rId1"/>
-    <sheet name="义乌奥晶办公室食堂 " sheetId="3" r:id="rId2"/>
+    <sheet name="义乌奥晶办公室食堂 （完成）" sheetId="3" r:id="rId1"/>
+    <sheet name="福州地铁" sheetId="2" r:id="rId2"/>
     <sheet name="广东华丰 " sheetId="4" r:id="rId3"/>
     <sheet name="大东海 " sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">福州地铁!$A$4:$R$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'义乌奥晶办公室食堂 '!$A$4:$R$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'义乌奥晶办公室食堂 （完成）'!$A$4:$R$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">福州地铁!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'广东华丰 '!$A$4:$W$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'大东海 '!$A$4:$R$83</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">福州地铁!$A$2:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'义乌奥晶办公室食堂 '!$A$2:$H$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">福州地铁!$A$2:$H$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'义乌奥晶办公室食堂 （完成）'!$A$2:$H$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'广东华丰 '!$A$2:$H$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'大东海 '!$A$2:$H$29</definedName>
   </definedNames>
@@ -71,6 +71,51 @@
     <t>未检数量</t>
   </si>
   <si>
+    <t>GL-1</t>
+  </si>
+  <si>
+    <t>GL-2</t>
+  </si>
+  <si>
+    <t>GL-3</t>
+  </si>
+  <si>
+    <t>GL-4</t>
+  </si>
+  <si>
+    <t>GL-5</t>
+  </si>
+  <si>
+    <t>GL-6</t>
+  </si>
+  <si>
+    <t>TZ-1</t>
+  </si>
+  <si>
+    <t>TZ-2</t>
+  </si>
+  <si>
+    <t>TZ-3</t>
+  </si>
+  <si>
+    <t>TL-4</t>
+  </si>
+  <si>
+    <t>TL-5</t>
+  </si>
+  <si>
+    <t>TL-6</t>
+  </si>
+  <si>
+    <t>TL-14</t>
+  </si>
+  <si>
+    <t>TL-15</t>
+  </si>
+  <si>
+    <t>TL-16</t>
+  </si>
+  <si>
     <t>XGAL-1</t>
   </si>
   <si>
@@ -261,51 +306,6 @@
   </si>
   <si>
     <t>XGAL-63</t>
-  </si>
-  <si>
-    <t>GL-1</t>
-  </si>
-  <si>
-    <t>GL-2</t>
-  </si>
-  <si>
-    <t>GL-3</t>
-  </si>
-  <si>
-    <t>GL-4</t>
-  </si>
-  <si>
-    <t>GL-5</t>
-  </si>
-  <si>
-    <t>GL-6</t>
-  </si>
-  <si>
-    <t>TZ-1</t>
-  </si>
-  <si>
-    <t>TZ-2</t>
-  </si>
-  <si>
-    <t>TZ-3</t>
-  </si>
-  <si>
-    <t>TL-4</t>
-  </si>
-  <si>
-    <t>TL-5</t>
-  </si>
-  <si>
-    <t>TL-6</t>
-  </si>
-  <si>
-    <t>TL-14</t>
-  </si>
-  <si>
-    <t>TL-15</t>
-  </si>
-  <si>
-    <t>TL-16</t>
   </si>
   <si>
     <t>GZ1</t>
@@ -1112,8 +1112,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -1169,61 +1169,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1237,36 +1190,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1291,6 +1229,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1298,7 +1251,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1306,9 +1282,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1339,7 +1339,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,43 +1411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,13 +1429,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,31 +1483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,25 +1501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,31 +1513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,11 +1581,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1605,41 +1626,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1663,18 +1656,25 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1686,10 +1686,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1698,136 +1698,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1919,10 +1919,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2253,7 +2253,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -2367,8 +2367,12 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="I4" s="12">
+        <v>1.19</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1.17</v>
+      </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -2389,39 +2393,37 @@
         <v>14</v>
       </c>
       <c r="C5" s="27">
-        <v>2</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D5" s="27"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="27">
-        <v>14000</v>
-      </c>
+      <c r="F5" s="27"/>
       <c r="G5" s="27">
-        <v>4354.295</v>
-      </c>
-      <c r="H5" s="12">
+        <v>2493.1</v>
+      </c>
+      <c r="H5" s="29">
         <f t="shared" ref="H5:H67" si="0">G5*C5</f>
-        <v>8708.59</v>
+        <v>2493.1</v>
       </c>
       <c r="I5" s="17"/>
-      <c r="J5" s="12"/>
+      <c r="J5" s="27">
+        <v>1</v>
+      </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="18">
         <f t="shared" ref="O5:O67" si="1">SUM(I5:N5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="18">
         <f t="shared" ref="P5:P67" si="2">C5-O5</f>
-        <v>2</v>
-      </c>
-      <c r="Q5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19" t="str">
         <f t="shared" ref="Q5:Q67" si="3">IF(SUM(I5:N5)=C5,"完成",SUM(I5:N5))</f>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:17">
@@ -2429,42 +2431,40 @@
         <v>2</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="27">
-        <v>2</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D6" s="27"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="27">
-        <v>14000</v>
-      </c>
+      <c r="F6" s="27"/>
       <c r="G6" s="27">
-        <v>4354.295</v>
-      </c>
-      <c r="H6" s="12">
-        <f t="shared" si="0"/>
-        <v>8708.59</v>
+        <v>2496</v>
+      </c>
+      <c r="H6" s="29">
+        <f t="shared" si="0"/>
+        <v>2496</v>
       </c>
       <c r="I6" s="17"/>
-      <c r="J6" s="12"/>
+      <c r="J6" s="27">
+        <v>1</v>
+      </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="18">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q6" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:17">
@@ -2472,42 +2472,40 @@
         <v>3</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="27">
-        <v>3</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>15</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D7" s="27"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="27">
-        <v>7750</v>
-      </c>
+      <c r="F7" s="27"/>
       <c r="G7" s="27">
-        <v>2397.53</v>
-      </c>
-      <c r="H7" s="12">
-        <f t="shared" si="0"/>
-        <v>7192.59</v>
+        <v>2483.1</v>
+      </c>
+      <c r="H7" s="29">
+        <f t="shared" si="0"/>
+        <v>9932.4</v>
       </c>
       <c r="I7" s="17"/>
-      <c r="J7" s="12"/>
+      <c r="J7" s="27">
+        <v>4</v>
+      </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P7" s="18">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Q7" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:17">
@@ -2515,42 +2513,40 @@
         <v>4</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="27">
-        <v>1</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>15</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D8" s="27"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="27">
-        <v>16000</v>
-      </c>
+      <c r="F8" s="27"/>
       <c r="G8" s="27">
-        <v>4946.374</v>
-      </c>
-      <c r="H8" s="12">
-        <f t="shared" si="0"/>
-        <v>4946.374</v>
+        <v>2486</v>
+      </c>
+      <c r="H8" s="29">
+        <f t="shared" si="0"/>
+        <v>9944</v>
       </c>
       <c r="I8" s="17"/>
-      <c r="J8" s="12"/>
+      <c r="J8" s="27">
+        <v>4</v>
+      </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P8" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:17">
@@ -2558,42 +2554,40 @@
         <v>5</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="27">
-        <v>2</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="27"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="27">
-        <v>9300</v>
-      </c>
-      <c r="G9" s="27">
-        <v>2867.172</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="0"/>
-        <v>5734.344</v>
+      <c r="F9" s="27"/>
+      <c r="G9" s="12">
+        <v>2496</v>
+      </c>
+      <c r="H9" s="29">
+        <f t="shared" si="0"/>
+        <v>2496</v>
       </c>
       <c r="I9" s="17"/>
-      <c r="J9" s="12"/>
+      <c r="J9" s="27">
+        <v>1</v>
+      </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="18">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q9" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
@@ -2601,42 +2595,40 @@
         <v>6</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="27">
         <v>1</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="D10" s="27"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="27">
-        <v>5750</v>
-      </c>
-      <c r="G10" s="27">
-        <v>1805.451</v>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" si="0"/>
-        <v>1805.451</v>
+      <c r="F10" s="27"/>
+      <c r="G10" s="12">
+        <v>2493.1</v>
+      </c>
+      <c r="H10" s="29">
+        <f t="shared" si="0"/>
+        <v>2493.1</v>
       </c>
       <c r="I10" s="17"/>
-      <c r="J10" s="12"/>
+      <c r="J10" s="27">
+        <v>1</v>
+      </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q10" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:17">
@@ -2644,42 +2636,40 @@
         <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="27">
-        <v>6</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D11" s="27"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="27">
-        <v>16700</v>
-      </c>
-      <c r="G11" s="27">
-        <v>5112.863</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="0"/>
-        <v>30677.178</v>
+      <c r="F11" s="27"/>
+      <c r="G11" s="12">
+        <v>1277.7</v>
+      </c>
+      <c r="H11" s="29">
+        <f t="shared" si="0"/>
+        <v>1277.7</v>
       </c>
       <c r="I11" s="17"/>
-      <c r="J11" s="12"/>
+      <c r="J11" s="27">
+        <v>1</v>
+      </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="18">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="Q11" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:17">
@@ -2687,42 +2677,40 @@
         <v>8</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="27">
         <v>1</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="D12" s="27"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="27">
-        <v>6400</v>
-      </c>
-      <c r="G12" s="27">
-        <v>1997.877</v>
-      </c>
-      <c r="H12" s="12">
-        <f t="shared" si="0"/>
-        <v>1997.877</v>
+      <c r="F12" s="27"/>
+      <c r="G12" s="12">
+        <v>1479.6</v>
+      </c>
+      <c r="H12" s="29">
+        <f t="shared" si="0"/>
+        <v>1479.6</v>
       </c>
       <c r="I12" s="17"/>
-      <c r="J12" s="12"/>
+      <c r="J12" s="27">
+        <v>1</v>
+      </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:17">
@@ -2730,42 +2718,40 @@
         <v>9</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="27">
         <v>1</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="D13" s="27"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="27">
-        <v>11950</v>
-      </c>
-      <c r="G13" s="27">
-        <v>3664.915</v>
-      </c>
-      <c r="H13" s="12">
-        <f t="shared" si="0"/>
-        <v>3664.915</v>
+      <c r="F13" s="27"/>
+      <c r="G13" s="12">
+        <v>1476.1</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" si="0"/>
+        <v>1476.1</v>
       </c>
       <c r="I13" s="17"/>
-      <c r="J13" s="12"/>
+      <c r="J13" s="27">
+        <v>1</v>
+      </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:17">
@@ -2773,42 +2759,40 @@
         <v>10</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="27">
         <v>1</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="D14" s="27"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="27">
-        <v>14350</v>
-      </c>
+      <c r="F14" s="27"/>
       <c r="G14" s="27">
-        <v>4389.67</v>
-      </c>
-      <c r="H14" s="12">
-        <f t="shared" si="0"/>
-        <v>4389.67</v>
-      </c>
-      <c r="I14" s="17"/>
+        <v>113.1</v>
+      </c>
+      <c r="H14" s="29">
+        <f t="shared" si="0"/>
+        <v>113.1</v>
+      </c>
+      <c r="I14" s="27">
+        <v>1</v>
+      </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:17">
@@ -2816,42 +2800,40 @@
         <v>11</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="27">
-        <v>1</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D15" s="27"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="27">
-        <v>11300</v>
-      </c>
+      <c r="F15" s="27"/>
       <c r="G15" s="27">
-        <v>3472.489</v>
-      </c>
-      <c r="H15" s="12">
-        <f t="shared" si="0"/>
-        <v>3472.489</v>
-      </c>
-      <c r="I15" s="17"/>
+        <v>113.1</v>
+      </c>
+      <c r="H15" s="29">
+        <f t="shared" si="0"/>
+        <v>226.2</v>
+      </c>
+      <c r="I15" s="27">
+        <v>2</v>
+      </c>
       <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:17">
@@ -2859,42 +2841,40 @@
         <v>12</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="27">
-        <v>3</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D16" s="27"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="27">
-        <v>8150</v>
-      </c>
+      <c r="F16" s="27"/>
       <c r="G16" s="27">
-        <v>2570.946</v>
-      </c>
-      <c r="H16" s="12">
-        <f t="shared" si="0"/>
-        <v>7712.838</v>
-      </c>
-      <c r="I16" s="17"/>
+        <v>89.5</v>
+      </c>
+      <c r="H16" s="29">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="I16" s="27">
+        <v>2</v>
+      </c>
       <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="K16" s="27"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" s="18">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Q16" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:17">
@@ -2902,42 +2882,40 @@
         <v>13</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="27">
-        <v>1</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D17" s="27"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="27">
-        <v>10500</v>
-      </c>
+      <c r="F17" s="27"/>
       <c r="G17" s="27">
-        <v>3235.658</v>
-      </c>
-      <c r="H17" s="12">
-        <f t="shared" si="0"/>
-        <v>3235.658</v>
-      </c>
-      <c r="I17" s="17"/>
+        <v>61.5</v>
+      </c>
+      <c r="H17" s="29">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="I17" s="27">
+        <v>2</v>
+      </c>
       <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="K17" s="27"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:17">
@@ -2945,42 +2923,40 @@
         <v>14</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="27">
-        <v>1</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D18" s="27"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="27">
-        <v>17400</v>
-      </c>
+      <c r="F18" s="27"/>
       <c r="G18" s="27">
-        <v>5402.59</v>
-      </c>
-      <c r="H18" s="12">
-        <f t="shared" si="0"/>
-        <v>5402.59</v>
-      </c>
-      <c r="I18" s="17"/>
+        <v>105.4</v>
+      </c>
+      <c r="H18" s="29">
+        <f t="shared" si="0"/>
+        <v>210.8</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
       <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="27"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q18" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:17">
@@ -2988,67 +2964,55 @@
         <v>15</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="27">
         <v>1</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="D19" s="27"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="27">
-        <v>12000</v>
-      </c>
+      <c r="F19" s="27"/>
       <c r="G19" s="27">
-        <v>3721.479</v>
-      </c>
-      <c r="H19" s="12">
-        <f t="shared" si="0"/>
-        <v>3721.479</v>
-      </c>
-      <c r="I19" s="17"/>
+        <v>113.1</v>
+      </c>
+      <c r="H19" s="29">
+        <f t="shared" si="0"/>
+        <v>113.1</v>
+      </c>
+      <c r="I19" s="27">
+        <v>1</v>
+      </c>
       <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="27"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q19" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:17">
       <c r="A20" s="12">
         <v>16</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="27">
-        <v>1</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="27">
-        <v>14850</v>
-      </c>
-      <c r="G20" s="27">
-        <v>4647.179</v>
-      </c>
-      <c r="H20" s="12">
-        <f t="shared" si="0"/>
-        <v>4647.179</v>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="12"/>
@@ -3062,36 +3026,26 @@
       </c>
       <c r="P20" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q20" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:17">
       <c r="A21" s="12">
         <v>17</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="27">
-        <v>1</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="27">
-        <v>17250</v>
-      </c>
-      <c r="G21" s="27">
-        <v>5303.184</v>
-      </c>
-      <c r="H21" s="12">
-        <f t="shared" si="0"/>
-        <v>5303.184</v>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="12"/>
@@ -3105,36 +3059,26 @@
       </c>
       <c r="P21" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q21" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:18">
       <c r="A22" s="12">
         <v>18</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="27">
-        <v>1</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="27">
-        <v>15050</v>
-      </c>
-      <c r="G22" s="27">
-        <v>4706.387</v>
-      </c>
-      <c r="H22" s="12">
-        <f t="shared" si="0"/>
-        <v>4706.387</v>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="12"/>
@@ -3148,11 +3092,11 @@
       </c>
       <c r="P22" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q22" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
       <c r="R22" s="20"/>
     </row>
@@ -3160,25 +3104,15 @@
       <c r="A23" s="12">
         <v>19</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="27">
-        <v>1</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="27">
-        <v>15950</v>
-      </c>
-      <c r="G23" s="27">
-        <v>4945.322</v>
-      </c>
-      <c r="H23" s="12">
-        <f t="shared" si="0"/>
-        <v>4945.322</v>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="12"/>
@@ -3192,36 +3126,26 @@
       </c>
       <c r="P23" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q23" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:17">
       <c r="A24" s="12">
         <v>20</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="27">
-        <v>1</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="27">
-        <v>11150</v>
-      </c>
-      <c r="G24" s="27">
-        <v>3469.845</v>
-      </c>
-      <c r="H24" s="12">
-        <f t="shared" si="0"/>
-        <v>3469.845</v>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="12"/>
@@ -3235,36 +3159,26 @@
       </c>
       <c r="P24" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q24" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:17">
       <c r="A25" s="12">
         <v>21</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="27">
-        <v>1</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="27">
-        <v>6150</v>
-      </c>
-      <c r="G25" s="27">
-        <v>1937.617</v>
-      </c>
-      <c r="H25" s="12">
-        <f t="shared" si="0"/>
-        <v>1937.617</v>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="12"/>
@@ -3278,36 +3192,26 @@
       </c>
       <c r="P25" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:17">
       <c r="A26" s="12">
         <v>22</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="27">
-        <v>5</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="27">
-        <v>15900</v>
-      </c>
-      <c r="G26" s="27">
-        <v>4876.031</v>
-      </c>
-      <c r="H26" s="12">
-        <f t="shared" si="0"/>
-        <v>24380.155</v>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="12"/>
@@ -3321,36 +3225,26 @@
       </c>
       <c r="P26" s="18">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Q26" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:17">
       <c r="A27" s="12">
         <v>23</v>
       </c>
-      <c r="B27" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="27">
-        <v>15200</v>
-      </c>
-      <c r="G27" s="27">
-        <v>4750.793</v>
-      </c>
-      <c r="H27" s="12">
-        <f t="shared" si="0"/>
-        <v>4750.793</v>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="12"/>
@@ -3364,36 +3258,26 @@
       </c>
       <c r="P27" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q27" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:17">
       <c r="A28" s="12">
         <v>24</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="27">
-        <v>1</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="27">
-        <v>7800</v>
-      </c>
-      <c r="G28" s="27">
-        <v>2426.082</v>
-      </c>
-      <c r="H28" s="12">
-        <f t="shared" si="0"/>
-        <v>2426.082</v>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="12"/>
@@ -3407,36 +3291,26 @@
       </c>
       <c r="P28" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:17">
       <c r="A29" s="12">
         <v>25</v>
       </c>
-      <c r="B29" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="27">
-        <v>1</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="27">
-        <v>6050</v>
-      </c>
-      <c r="G29" s="27">
-        <v>1908.013</v>
-      </c>
-      <c r="H29" s="12">
-        <f t="shared" si="0"/>
-        <v>1908.013</v>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="12"/>
@@ -3450,36 +3324,26 @@
       </c>
       <c r="P29" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q29" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:17">
       <c r="A30" s="12">
         <v>26</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="27">
-        <v>1</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="27">
-        <v>11000</v>
-      </c>
-      <c r="G30" s="27">
-        <v>3425.439</v>
-      </c>
-      <c r="H30" s="12">
-        <f t="shared" si="0"/>
-        <v>3425.439</v>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="12"/>
@@ -3493,36 +3357,26 @@
       </c>
       <c r="P30" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q30" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:17">
       <c r="A31" s="12">
         <v>27</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="27">
-        <v>1</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="27">
-        <v>11000</v>
-      </c>
-      <c r="G31" s="27">
-        <v>3342.427</v>
-      </c>
-      <c r="H31" s="12">
-        <f t="shared" si="0"/>
-        <v>3342.427</v>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="12"/>
@@ -3536,36 +3390,26 @@
       </c>
       <c r="P31" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q31" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:17">
       <c r="A32" s="12">
         <v>28</v>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="27">
-        <v>1</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="27">
-        <v>11910</v>
-      </c>
-      <c r="G32" s="27">
-        <v>3755.771</v>
-      </c>
-      <c r="H32" s="12">
-        <f t="shared" si="0"/>
-        <v>3755.771</v>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="12"/>
@@ -3579,36 +3423,26 @@
       </c>
       <c r="P32" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q32" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:17">
       <c r="A33" s="12">
         <v>29</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="27">
-        <v>1</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="27">
-        <v>17255</v>
-      </c>
-      <c r="G33" s="27">
-        <v>5386.653</v>
-      </c>
-      <c r="H33" s="12">
-        <f t="shared" si="0"/>
-        <v>5386.653</v>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="12"/>
@@ -3622,36 +3456,26 @@
       </c>
       <c r="P33" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q33" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:17">
       <c r="A34" s="12">
         <v>30</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="27">
-        <v>1</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="27">
-        <v>11950</v>
-      </c>
-      <c r="G34" s="27">
-        <v>3706.677</v>
-      </c>
-      <c r="H34" s="12">
-        <f t="shared" si="0"/>
-        <v>3706.677</v>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="12"/>
@@ -3665,36 +3489,26 @@
       </c>
       <c r="P34" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q34" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:17">
       <c r="A35" s="12">
         <v>31</v>
       </c>
-      <c r="B35" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="27">
-        <v>1</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="27">
-        <v>12700</v>
-      </c>
-      <c r="G35" s="27">
-        <v>3956.206</v>
-      </c>
-      <c r="H35" s="12">
-        <f t="shared" si="0"/>
-        <v>3956.206</v>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="12"/>
@@ -3708,36 +3522,26 @@
       </c>
       <c r="P35" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q35" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:17">
       <c r="A36" s="12">
         <v>32</v>
       </c>
-      <c r="B36" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="27">
-        <v>1</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="27">
-        <v>7450</v>
-      </c>
-      <c r="G36" s="27">
-        <v>2322.468</v>
-      </c>
-      <c r="H36" s="12">
-        <f t="shared" si="0"/>
-        <v>2322.468</v>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="12"/>
@@ -3751,36 +3555,26 @@
       </c>
       <c r="P36" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q36" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:17">
       <c r="A37" s="12">
         <v>33</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="27">
-        <v>1</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="27">
-        <v>13450</v>
-      </c>
-      <c r="G37" s="27">
-        <v>4178.235</v>
-      </c>
-      <c r="H37" s="12">
-        <f t="shared" si="0"/>
-        <v>4178.235</v>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="12"/>
@@ -3794,36 +3588,26 @@
       </c>
       <c r="P37" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q37" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:17">
       <c r="A38" s="12">
         <v>34</v>
       </c>
-      <c r="B38" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="27">
-        <v>1</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="27">
-        <v>16366</v>
-      </c>
-      <c r="G38" s="27">
-        <v>5094.653</v>
-      </c>
-      <c r="H38" s="12">
-        <f t="shared" si="0"/>
-        <v>5094.653</v>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="12"/>
@@ -3837,36 +3621,26 @@
       </c>
       <c r="P38" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q38" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:17">
       <c r="A39" s="12">
         <v>35</v>
       </c>
-      <c r="B39" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="27">
-        <v>2</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="27">
-        <v>11650</v>
-      </c>
-      <c r="G39" s="27">
-        <v>3617.865</v>
-      </c>
-      <c r="H39" s="12">
-        <f t="shared" si="0"/>
-        <v>7235.73</v>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="12"/>
@@ -3880,36 +3654,26 @@
       </c>
       <c r="P39" s="18">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q39" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:17">
       <c r="A40" s="12">
         <v>36</v>
       </c>
-      <c r="B40" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="27">
-        <v>1</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="27">
-        <v>14400</v>
-      </c>
-      <c r="G40" s="27">
-        <v>4486.973</v>
-      </c>
-      <c r="H40" s="12">
-        <f t="shared" si="0"/>
-        <v>4486.973</v>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="12"/>
@@ -3923,36 +3687,26 @@
       </c>
       <c r="P40" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q40" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:17">
       <c r="A41" s="12">
         <v>37</v>
       </c>
-      <c r="B41" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="27">
-        <v>3</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="12"/>
-      <c r="F41" s="27">
-        <v>13216</v>
-      </c>
-      <c r="G41" s="27">
-        <v>4049.161</v>
-      </c>
-      <c r="H41" s="12">
-        <f t="shared" si="0"/>
-        <v>12147.483</v>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="12"/>
@@ -3966,36 +3720,26 @@
       </c>
       <c r="P41" s="18">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Q41" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:17">
       <c r="A42" s="12">
         <v>38</v>
       </c>
-      <c r="B42" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="27">
-        <v>1</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="27">
-        <v>12400</v>
-      </c>
-      <c r="G42" s="27">
-        <v>3880.632</v>
-      </c>
-      <c r="H42" s="12">
-        <f t="shared" si="0"/>
-        <v>3880.632</v>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="12"/>
@@ -4009,36 +3753,26 @@
       </c>
       <c r="P42" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q42" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:17">
       <c r="A43" s="12">
         <v>39</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="27">
-        <v>1</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="27">
-        <v>15500</v>
-      </c>
-      <c r="G43" s="27">
-        <v>4812.616</v>
-      </c>
-      <c r="H43" s="12">
-        <f t="shared" si="0"/>
-        <v>4812.616</v>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="12"/>
@@ -4052,36 +3786,26 @@
       </c>
       <c r="P43" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q43" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:17">
       <c r="A44" s="12">
         <v>40</v>
       </c>
-      <c r="B44" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="27">
-        <v>1</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="27">
-        <v>11500</v>
-      </c>
-      <c r="G44" s="27">
-        <v>3587.505</v>
-      </c>
-      <c r="H44" s="12">
-        <f t="shared" si="0"/>
-        <v>3587.505</v>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="12"/>
@@ -4095,36 +3819,26 @@
       </c>
       <c r="P44" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q44" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:17">
       <c r="A45" s="12">
         <v>41</v>
       </c>
-      <c r="B45" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="27">
-        <v>1</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="27">
-        <v>13350</v>
-      </c>
-      <c r="G45" s="27">
-        <v>4161.87</v>
-      </c>
-      <c r="H45" s="12">
-        <f t="shared" si="0"/>
-        <v>4161.87</v>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="12"/>
@@ -4138,36 +3852,26 @@
       </c>
       <c r="P45" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q45" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:17">
       <c r="A46" s="12">
         <v>42</v>
       </c>
-      <c r="B46" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="27">
-        <v>4</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="27">
-        <v>11850</v>
-      </c>
-      <c r="G46" s="27">
-        <v>3621.561</v>
-      </c>
-      <c r="H46" s="12">
-        <f t="shared" si="0"/>
-        <v>14486.244</v>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="12"/>
@@ -4181,36 +3885,26 @@
       </c>
       <c r="P46" s="18">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Q46" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:17">
       <c r="A47" s="12">
         <v>43</v>
       </c>
-      <c r="B47" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="27">
-        <v>1</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="12"/>
-      <c r="F47" s="27">
-        <v>6750</v>
-      </c>
-      <c r="G47" s="27">
-        <v>2101.49</v>
-      </c>
-      <c r="H47" s="12">
-        <f t="shared" si="0"/>
-        <v>2101.49</v>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="12"/>
@@ -4224,36 +3918,26 @@
       </c>
       <c r="P47" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q47" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:17">
       <c r="A48" s="12">
         <v>44</v>
       </c>
-      <c r="B48" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="27">
-        <v>1</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="27">
-        <v>17100</v>
-      </c>
-      <c r="G48" s="27">
-        <v>5299.517</v>
-      </c>
-      <c r="H48" s="12">
-        <f t="shared" si="0"/>
-        <v>5299.517</v>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="12"/>
@@ -4267,36 +3951,26 @@
       </c>
       <c r="P48" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q48" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:17">
       <c r="A49" s="12">
         <v>45</v>
       </c>
-      <c r="B49" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="27">
-        <v>1</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="27">
-        <v>7050</v>
-      </c>
-      <c r="G49" s="27">
-        <v>2190.302</v>
-      </c>
-      <c r="H49" s="12">
-        <f t="shared" si="0"/>
-        <v>2190.302</v>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="12"/>
@@ -4310,36 +3984,26 @@
       </c>
       <c r="P49" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q49" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:17">
       <c r="A50" s="12">
         <v>46</v>
       </c>
-      <c r="B50" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="27">
-        <v>4</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
       <c r="E50" s="12"/>
-      <c r="F50" s="27">
-        <v>11905</v>
-      </c>
-      <c r="G50" s="27">
-        <v>3768.041</v>
-      </c>
-      <c r="H50" s="12">
-        <f t="shared" si="0"/>
-        <v>15072.164</v>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I50" s="17"/>
       <c r="J50" s="12"/>
@@ -4353,36 +4017,26 @@
       </c>
       <c r="P50" s="18">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Q50" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:17">
       <c r="A51" s="12">
         <v>47</v>
       </c>
-      <c r="B51" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="27">
-        <v>1</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="27">
-        <v>17000</v>
-      </c>
-      <c r="G51" s="27">
-        <v>5256.163</v>
-      </c>
-      <c r="H51" s="12">
-        <f t="shared" si="0"/>
-        <v>5256.163</v>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="12"/>
@@ -4396,36 +4050,26 @@
       </c>
       <c r="P51" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q51" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:17">
       <c r="A52" s="12">
         <v>48</v>
       </c>
-      <c r="B52" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="27">
-        <v>1</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="27">
-        <v>5050</v>
-      </c>
-      <c r="G52" s="27">
-        <v>1611.974</v>
-      </c>
-      <c r="H52" s="12">
-        <f t="shared" si="0"/>
-        <v>1611.974</v>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I52" s="17"/>
       <c r="J52" s="12"/>
@@ -4439,36 +4083,26 @@
       </c>
       <c r="P52" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q52" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:17">
       <c r="A53" s="12">
         <v>49</v>
       </c>
-      <c r="B53" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="27">
-        <v>1</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="27">
-        <v>15250</v>
-      </c>
-      <c r="G53" s="27">
-        <v>4710.594</v>
-      </c>
-      <c r="H53" s="12">
-        <f t="shared" si="0"/>
-        <v>4710.594</v>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="12"/>
@@ -4482,36 +4116,26 @@
       </c>
       <c r="P53" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q53" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:17">
       <c r="A54" s="12">
         <v>50</v>
       </c>
-      <c r="B54" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="27">
-        <v>1</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="27">
-        <v>4450</v>
-      </c>
-      <c r="G54" s="27">
-        <v>1420.6</v>
-      </c>
-      <c r="H54" s="12">
-        <f t="shared" si="0"/>
-        <v>1420.6</v>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="12"/>
@@ -4525,36 +4149,26 @@
       </c>
       <c r="P54" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q54" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:17">
       <c r="A55" s="12">
         <v>51</v>
       </c>
-      <c r="B55" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="27">
-        <v>4</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="27">
-        <v>7395</v>
-      </c>
-      <c r="G55" s="27">
-        <v>2261.456</v>
-      </c>
-      <c r="H55" s="12">
-        <f t="shared" si="0"/>
-        <v>9045.824</v>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="12"/>
@@ -4568,36 +4182,26 @@
       </c>
       <c r="P55" s="18">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Q55" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:17">
       <c r="A56" s="12">
         <v>52</v>
       </c>
-      <c r="B56" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="27">
-        <v>1</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="27">
-        <v>5350</v>
-      </c>
-      <c r="G56" s="27">
-        <v>1673.286</v>
-      </c>
-      <c r="H56" s="12">
-        <f t="shared" si="0"/>
-        <v>1673.286</v>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="12"/>
@@ -4611,36 +4215,26 @@
       </c>
       <c r="P56" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q56" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:17">
       <c r="A57" s="12">
         <v>53</v>
       </c>
-      <c r="B57" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="27">
-        <v>1</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="12"/>
-      <c r="F57" s="27">
-        <v>16550</v>
-      </c>
-      <c r="G57" s="27">
-        <v>5205.446</v>
-      </c>
-      <c r="H57" s="12">
-        <f t="shared" si="0"/>
-        <v>5205.446</v>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="12"/>
@@ -4654,36 +4248,26 @@
       </c>
       <c r="P57" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q57" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:17">
       <c r="A58" s="12">
         <v>54</v>
       </c>
-      <c r="B58" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="27">
-        <v>1</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="12"/>
-      <c r="F58" s="27">
-        <v>7150</v>
-      </c>
-      <c r="G58" s="27">
-        <v>2219.906</v>
-      </c>
-      <c r="H58" s="12">
-        <f t="shared" si="0"/>
-        <v>2219.906</v>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="12"/>
@@ -4697,36 +4281,26 @@
       </c>
       <c r="P58" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q58" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:17">
       <c r="A59" s="12">
         <v>55</v>
       </c>
-      <c r="B59" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="27">
-        <v>1</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="27">
-        <v>12100</v>
-      </c>
-      <c r="G59" s="27">
-        <v>3751.082</v>
-      </c>
-      <c r="H59" s="12">
-        <f t="shared" si="0"/>
-        <v>3751.082</v>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="12"/>
@@ -4740,36 +4314,26 @@
       </c>
       <c r="P59" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q59" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:17">
       <c r="A60" s="12">
         <v>56</v>
       </c>
-      <c r="B60" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="27">
-        <v>1</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="12"/>
-      <c r="F60" s="27">
-        <v>14550</v>
-      </c>
-      <c r="G60" s="27">
-        <v>4531.378</v>
-      </c>
-      <c r="H60" s="12">
-        <f t="shared" si="0"/>
-        <v>4531.378</v>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I60" s="17"/>
       <c r="J60" s="12"/>
@@ -4783,36 +4347,26 @@
       </c>
       <c r="P60" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q60" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:17">
       <c r="A61" s="12">
         <v>57</v>
       </c>
-      <c r="B61" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="27">
-        <v>1</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="27">
-        <v>15450</v>
-      </c>
-      <c r="G61" s="27">
-        <v>4797.814</v>
-      </c>
-      <c r="H61" s="12">
-        <f t="shared" si="0"/>
-        <v>4797.814</v>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="12"/>
@@ -4826,36 +4380,26 @@
       </c>
       <c r="P61" s="26">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q61" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:17">
       <c r="A62" s="12">
         <v>58</v>
       </c>
-      <c r="B62" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="27">
-        <v>3</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="27">
-        <v>14300</v>
-      </c>
-      <c r="G62" s="27">
-        <v>4374.868</v>
-      </c>
-      <c r="H62" s="12">
-        <f t="shared" si="0"/>
-        <v>13124.604</v>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="12"/>
@@ -4869,36 +4413,26 @@
       </c>
       <c r="P62" s="18">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Q62" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:17">
       <c r="A63" s="12">
         <v>59</v>
       </c>
-      <c r="B63" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="27">
-        <v>1</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
       <c r="E63" s="12"/>
-      <c r="F63" s="27">
-        <v>15950</v>
-      </c>
-      <c r="G63" s="27">
-        <v>4945.833</v>
-      </c>
-      <c r="H63" s="12">
-        <f t="shared" si="0"/>
-        <v>4945.833</v>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="12"/>
@@ -4912,36 +4446,26 @@
       </c>
       <c r="P63" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q63" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:17">
       <c r="A64" s="12">
         <v>60</v>
       </c>
-      <c r="B64" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="27">
-        <v>1</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
       <c r="E64" s="12"/>
-      <c r="F64" s="27">
-        <v>18300</v>
-      </c>
-      <c r="G64" s="27">
-        <v>5696.526</v>
-      </c>
-      <c r="H64" s="12">
-        <f t="shared" si="0"/>
-        <v>5696.526</v>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="12"/>
@@ -4955,36 +4479,26 @@
       </c>
       <c r="P64" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q64" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:17">
       <c r="A65" s="12">
         <v>61</v>
       </c>
-      <c r="B65" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="27">
-        <v>1</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
       <c r="E65" s="12"/>
-      <c r="F65" s="27">
-        <v>4650</v>
-      </c>
-      <c r="G65" s="27">
-        <v>1479.808</v>
-      </c>
-      <c r="H65" s="12">
-        <f t="shared" si="0"/>
-        <v>1479.808</v>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I65" s="17"/>
       <c r="J65" s="12"/>
@@ -4998,36 +4512,26 @@
       </c>
       <c r="P65" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q65" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:17">
       <c r="A66" s="12">
         <v>62</v>
       </c>
-      <c r="B66" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="27">
-        <v>1</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
       <c r="E66" s="12"/>
-      <c r="F66" s="27">
-        <v>14600</v>
-      </c>
-      <c r="G66" s="27">
-        <v>4531.919</v>
-      </c>
-      <c r="H66" s="12">
-        <f t="shared" si="0"/>
-        <v>4531.919</v>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="12"/>
@@ -5041,36 +4545,26 @@
       </c>
       <c r="P66" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q66" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:17">
       <c r="A67" s="12">
         <v>63</v>
       </c>
-      <c r="B67" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="27">
-        <v>1</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
       <c r="E67" s="12"/>
-      <c r="F67" s="27">
-        <v>7295</v>
-      </c>
-      <c r="G67" s="27">
-        <v>2245.602</v>
-      </c>
-      <c r="H67" s="12">
-        <f t="shared" si="0"/>
-        <v>2245.602</v>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="12"/>
@@ -5084,25 +4578,25 @@
       </c>
       <c r="P67" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q67" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="9:10">
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
     </row>
     <row r="70" customHeight="1" spans="10:10">
-      <c r="J70" s="29"/>
+      <c r="J70" s="28"/>
     </row>
     <row r="71" customHeight="1" spans="11:11">
-      <c r="K71" s="29"/>
+      <c r="K71" s="28"/>
     </row>
     <row r="72" customHeight="1" spans="12:12">
-      <c r="L72" s="29"/>
+      <c r="L72" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:R75">
@@ -5136,12 +4630,12 @@
   <sheetPr/>
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -5255,12 +4749,8 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="12">
-        <v>1.19</v>
-      </c>
-      <c r="J4" s="12">
-        <v>1.17</v>
-      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -5278,40 +4768,42 @@
         <v>1</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C5" s="27">
-        <v>1</v>
-      </c>
-      <c r="D5" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="23"/>
-      <c r="F5" s="27"/>
+      <c r="F5" s="27">
+        <v>14000</v>
+      </c>
       <c r="G5" s="27">
-        <v>2493.1</v>
-      </c>
-      <c r="H5" s="28">
+        <v>4354.295</v>
+      </c>
+      <c r="H5" s="12">
         <f t="shared" ref="H5:H67" si="0">G5*C5</f>
-        <v>2493.1</v>
+        <v>8708.59</v>
       </c>
       <c r="I5" s="17"/>
-      <c r="J5" s="27">
-        <v>1</v>
-      </c>
+      <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="18">
         <f t="shared" ref="O5:O67" si="1">SUM(I5:N5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="18">
         <f t="shared" ref="P5:P67" si="2">C5-O5</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="19" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="19">
         <f t="shared" ref="Q5:Q67" si="3">IF(SUM(I5:N5)=C5,"完成",SUM(I5:N5))</f>
-        <v>完成</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:17">
@@ -5319,40 +4811,42 @@
         <v>2</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="C6" s="27">
-        <v>1</v>
-      </c>
-      <c r="D6" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="23"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="27">
+        <v>14000</v>
+      </c>
       <c r="G6" s="27">
-        <v>2496</v>
-      </c>
-      <c r="H6" s="28">
-        <f t="shared" si="0"/>
-        <v>2496</v>
+        <v>4354.295</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="0"/>
+        <v>8708.59</v>
       </c>
       <c r="I6" s="17"/>
-      <c r="J6" s="27">
-        <v>1</v>
-      </c>
+      <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>2</v>
+      </c>
+      <c r="Q6" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:17">
@@ -5360,40 +4854,42 @@
         <v>3</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C7" s="27">
-        <v>4</v>
-      </c>
-      <c r="D7" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="23"/>
-      <c r="F7" s="27"/>
+      <c r="F7" s="27">
+        <v>7750</v>
+      </c>
       <c r="G7" s="27">
-        <v>2483.1</v>
-      </c>
-      <c r="H7" s="28">
-        <f t="shared" si="0"/>
-        <v>9932.4</v>
+        <v>2397.53</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="0"/>
+        <v>7192.59</v>
       </c>
       <c r="I7" s="17"/>
-      <c r="J7" s="27">
-        <v>4</v>
-      </c>
+      <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P7" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>3</v>
+      </c>
+      <c r="Q7" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:17">
@@ -5401,40 +4897,42 @@
         <v>4</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C8" s="27">
-        <v>4</v>
-      </c>
-      <c r="D8" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="23"/>
-      <c r="F8" s="27"/>
+      <c r="F8" s="27">
+        <v>16000</v>
+      </c>
       <c r="G8" s="27">
-        <v>2486</v>
-      </c>
-      <c r="H8" s="28">
-        <f t="shared" si="0"/>
-        <v>9944</v>
+        <v>4946.374</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>4946.374</v>
       </c>
       <c r="I8" s="17"/>
-      <c r="J8" s="27">
-        <v>4</v>
-      </c>
+      <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P8" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:17">
@@ -5442,40 +4940,42 @@
         <v>5</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C9" s="27">
-        <v>1</v>
-      </c>
-      <c r="D9" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="12">
-        <v>2496</v>
-      </c>
-      <c r="H9" s="28">
-        <f t="shared" si="0"/>
-        <v>2496</v>
+      <c r="F9" s="27">
+        <v>9300</v>
+      </c>
+      <c r="G9" s="27">
+        <v>2867.172</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
+        <v>5734.344</v>
       </c>
       <c r="I9" s="17"/>
-      <c r="J9" s="27">
-        <v>1</v>
-      </c>
+      <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>2</v>
+      </c>
+      <c r="Q9" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
@@ -5483,40 +4983,42 @@
         <v>6</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C10" s="27">
         <v>1</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="12">
-        <v>2493.1</v>
-      </c>
-      <c r="H10" s="28">
-        <f t="shared" si="0"/>
-        <v>2493.1</v>
+      <c r="F10" s="27">
+        <v>5750</v>
+      </c>
+      <c r="G10" s="27">
+        <v>1805.451</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="0"/>
+        <v>1805.451</v>
       </c>
       <c r="I10" s="17"/>
-      <c r="J10" s="27">
-        <v>1</v>
-      </c>
+      <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:17">
@@ -5524,40 +5026,42 @@
         <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="C11" s="27">
-        <v>1</v>
-      </c>
-      <c r="D11" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="12">
-        <v>1277.7</v>
-      </c>
-      <c r="H11" s="28">
-        <f t="shared" si="0"/>
-        <v>1277.7</v>
+      <c r="F11" s="27">
+        <v>16700</v>
+      </c>
+      <c r="G11" s="27">
+        <v>5112.863</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="0"/>
+        <v>30677.178</v>
       </c>
       <c r="I11" s="17"/>
-      <c r="J11" s="27">
-        <v>1</v>
-      </c>
+      <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>6</v>
+      </c>
+      <c r="Q11" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:17">
@@ -5565,40 +5069,42 @@
         <v>8</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C12" s="27">
         <v>1</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="12">
-        <v>1479.6</v>
-      </c>
-      <c r="H12" s="28">
-        <f t="shared" si="0"/>
-        <v>1479.6</v>
+      <c r="F12" s="27">
+        <v>6400</v>
+      </c>
+      <c r="G12" s="27">
+        <v>1997.877</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
+        <v>1997.877</v>
       </c>
       <c r="I12" s="17"/>
-      <c r="J12" s="27">
-        <v>1</v>
-      </c>
+      <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:17">
@@ -5606,40 +5112,42 @@
         <v>9</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C13" s="27">
         <v>1</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="12">
-        <v>1476.1</v>
-      </c>
-      <c r="H13" s="28">
-        <f t="shared" si="0"/>
-        <v>1476.1</v>
+      <c r="F13" s="27">
+        <v>11950</v>
+      </c>
+      <c r="G13" s="27">
+        <v>3664.915</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="0"/>
+        <v>3664.915</v>
       </c>
       <c r="I13" s="17"/>
-      <c r="J13" s="27">
-        <v>1</v>
-      </c>
+      <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:17">
@@ -5647,40 +5155,42 @@
         <v>10</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C14" s="27">
         <v>1</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="27"/>
+      <c r="F14" s="27">
+        <v>14350</v>
+      </c>
       <c r="G14" s="27">
-        <v>113.1</v>
-      </c>
-      <c r="H14" s="28">
-        <f t="shared" si="0"/>
-        <v>113.1</v>
-      </c>
-      <c r="I14" s="27">
-        <v>1</v>
-      </c>
+        <v>4389.67</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="0"/>
+        <v>4389.67</v>
+      </c>
+      <c r="I14" s="17"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="27"/>
+      <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:17">
@@ -5688,40 +5198,42 @@
         <v>11</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C15" s="27">
-        <v>2</v>
-      </c>
-      <c r="D15" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="27"/>
+      <c r="F15" s="27">
+        <v>11300</v>
+      </c>
       <c r="G15" s="27">
-        <v>113.1</v>
-      </c>
-      <c r="H15" s="28">
-        <f t="shared" si="0"/>
-        <v>226.2</v>
-      </c>
-      <c r="I15" s="27">
-        <v>2</v>
-      </c>
+        <v>3472.489</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="0"/>
+        <v>3472.489</v>
+      </c>
+      <c r="I15" s="17"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="27"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="18">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:17">
@@ -5729,40 +5241,42 @@
         <v>12</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C16" s="27">
-        <v>2</v>
-      </c>
-      <c r="D16" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="27"/>
+      <c r="F16" s="27">
+        <v>8150</v>
+      </c>
       <c r="G16" s="27">
-        <v>89.5</v>
-      </c>
-      <c r="H16" s="28">
-        <f t="shared" si="0"/>
-        <v>179</v>
-      </c>
-      <c r="I16" s="27">
-        <v>2</v>
-      </c>
+        <v>2570.946</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="0"/>
+        <v>7712.838</v>
+      </c>
+      <c r="I16" s="17"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="27"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="18">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>3</v>
+      </c>
+      <c r="Q16" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:17">
@@ -5770,40 +5284,42 @@
         <v>13</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C17" s="27">
-        <v>2</v>
-      </c>
-      <c r="D17" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="27"/>
+      <c r="F17" s="27">
+        <v>10500</v>
+      </c>
       <c r="G17" s="27">
-        <v>61.5</v>
-      </c>
-      <c r="H17" s="28">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="I17" s="27">
-        <v>2</v>
-      </c>
+        <v>3235.658</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="0"/>
+        <v>3235.658</v>
+      </c>
+      <c r="I17" s="17"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="27"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="18">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:17">
@@ -5811,40 +5327,42 @@
         <v>14</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C18" s="27">
-        <v>2</v>
-      </c>
-      <c r="D18" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="27"/>
+      <c r="F18" s="27">
+        <v>17400</v>
+      </c>
       <c r="G18" s="27">
-        <v>105.4</v>
-      </c>
-      <c r="H18" s="28">
-        <f t="shared" si="0"/>
-        <v>210.8</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+        <v>5402.59</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="0"/>
+        <v>5402.59</v>
+      </c>
+      <c r="I18" s="17"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="27"/>
+      <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="18">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:17">
@@ -5852,55 +5370,67 @@
         <v>15</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C19" s="27">
         <v>1</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="27"/>
+      <c r="F19" s="27">
+        <v>12000</v>
+      </c>
       <c r="G19" s="27">
-        <v>113.1</v>
-      </c>
-      <c r="H19" s="28">
-        <f t="shared" si="0"/>
-        <v>113.1</v>
-      </c>
-      <c r="I19" s="27">
-        <v>1</v>
-      </c>
+        <v>3721.479</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="0"/>
+        <v>3721.479</v>
+      </c>
+      <c r="I19" s="17"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="27"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:17">
       <c r="A20" s="12">
         <v>16</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="27">
+        <v>1</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F20" s="27">
+        <v>14850</v>
+      </c>
+      <c r="G20" s="27">
+        <v>4647.179</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" si="0"/>
+        <v>4647.179</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="12"/>
@@ -5914,26 +5444,36 @@
       </c>
       <c r="P20" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:17">
       <c r="A21" s="12">
         <v>17</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="27">
+        <v>1</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F21" s="27">
+        <v>17250</v>
+      </c>
+      <c r="G21" s="27">
+        <v>5303.184</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="0"/>
+        <v>5303.184</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="12"/>
@@ -5947,26 +5487,36 @@
       </c>
       <c r="P21" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:18">
       <c r="A22" s="12">
         <v>18</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="27">
+        <v>1</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E22" s="12"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F22" s="27">
+        <v>15050</v>
+      </c>
+      <c r="G22" s="27">
+        <v>4706.387</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="0"/>
+        <v>4706.387</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="12"/>
@@ -5980,11 +5530,11 @@
       </c>
       <c r="P22" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="R22" s="20"/>
     </row>
@@ -5992,15 +5542,25 @@
       <c r="A23" s="12">
         <v>19</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="B23" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="27">
+        <v>1</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F23" s="27">
+        <v>15950</v>
+      </c>
+      <c r="G23" s="27">
+        <v>4945.322</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="0"/>
+        <v>4945.322</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="12"/>
@@ -6014,26 +5574,36 @@
       </c>
       <c r="P23" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:17">
       <c r="A24" s="12">
         <v>20</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="B24" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="27">
+        <v>1</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F24" s="27">
+        <v>11150</v>
+      </c>
+      <c r="G24" s="27">
+        <v>3469.845</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="0"/>
+        <v>3469.845</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="12"/>
@@ -6047,26 +5617,36 @@
       </c>
       <c r="P24" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:17">
       <c r="A25" s="12">
         <v>21</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="27">
+        <v>1</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F25" s="27">
+        <v>6150</v>
+      </c>
+      <c r="G25" s="27">
+        <v>1937.617</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="0"/>
+        <v>1937.617</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="12"/>
@@ -6080,26 +5660,36 @@
       </c>
       <c r="P25" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:17">
       <c r="A26" s="12">
         <v>22</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="27">
+        <v>5</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E26" s="12"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F26" s="27">
+        <v>15900</v>
+      </c>
+      <c r="G26" s="27">
+        <v>4876.031</v>
+      </c>
+      <c r="H26" s="12">
+        <f t="shared" si="0"/>
+        <v>24380.155</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="12"/>
@@ -6113,26 +5703,36 @@
       </c>
       <c r="P26" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>5</v>
+      </c>
+      <c r="Q26" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:17">
       <c r="A27" s="12">
         <v>23</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="B27" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E27" s="12"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F27" s="27">
+        <v>15200</v>
+      </c>
+      <c r="G27" s="27">
+        <v>4750.793</v>
+      </c>
+      <c r="H27" s="12">
+        <f t="shared" si="0"/>
+        <v>4750.793</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="12"/>
@@ -6146,26 +5746,36 @@
       </c>
       <c r="P27" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:17">
       <c r="A28" s="12">
         <v>24</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="27">
+        <v>1</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F28" s="27">
+        <v>7800</v>
+      </c>
+      <c r="G28" s="27">
+        <v>2426.082</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" si="0"/>
+        <v>2426.082</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="12"/>
@@ -6179,26 +5789,36 @@
       </c>
       <c r="P28" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:17">
       <c r="A29" s="12">
         <v>25</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="27">
+        <v>1</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E29" s="12"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F29" s="27">
+        <v>6050</v>
+      </c>
+      <c r="G29" s="27">
+        <v>1908.013</v>
+      </c>
+      <c r="H29" s="12">
+        <f t="shared" si="0"/>
+        <v>1908.013</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="12"/>
@@ -6212,26 +5832,36 @@
       </c>
       <c r="P29" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:17">
       <c r="A30" s="12">
         <v>26</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="B30" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="27">
+        <v>1</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F30" s="27">
+        <v>11000</v>
+      </c>
+      <c r="G30" s="27">
+        <v>3425.439</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" si="0"/>
+        <v>3425.439</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="12"/>
@@ -6245,26 +5875,36 @@
       </c>
       <c r="P30" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:17">
       <c r="A31" s="12">
         <v>27</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="B31" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="27">
+        <v>1</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F31" s="27">
+        <v>11000</v>
+      </c>
+      <c r="G31" s="27">
+        <v>3342.427</v>
+      </c>
+      <c r="H31" s="12">
+        <f t="shared" si="0"/>
+        <v>3342.427</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="12"/>
@@ -6278,26 +5918,36 @@
       </c>
       <c r="P31" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:17">
       <c r="A32" s="12">
         <v>28</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="B32" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="27">
+        <v>1</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F32" s="27">
+        <v>11910</v>
+      </c>
+      <c r="G32" s="27">
+        <v>3755.771</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" si="0"/>
+        <v>3755.771</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="12"/>
@@ -6311,26 +5961,36 @@
       </c>
       <c r="P32" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:17">
       <c r="A33" s="12">
         <v>29</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="B33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="27">
+        <v>1</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F33" s="27">
+        <v>17255</v>
+      </c>
+      <c r="G33" s="27">
+        <v>5386.653</v>
+      </c>
+      <c r="H33" s="12">
+        <f t="shared" si="0"/>
+        <v>5386.653</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="12"/>
@@ -6344,26 +6004,36 @@
       </c>
       <c r="P33" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:17">
       <c r="A34" s="12">
         <v>30</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="27">
+        <v>1</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F34" s="27">
+        <v>11950</v>
+      </c>
+      <c r="G34" s="27">
+        <v>3706.677</v>
+      </c>
+      <c r="H34" s="12">
+        <f t="shared" si="0"/>
+        <v>3706.677</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="12"/>
@@ -6377,26 +6047,36 @@
       </c>
       <c r="P34" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:17">
       <c r="A35" s="12">
         <v>31</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="B35" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="27">
+        <v>1</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F35" s="27">
+        <v>12700</v>
+      </c>
+      <c r="G35" s="27">
+        <v>3956.206</v>
+      </c>
+      <c r="H35" s="12">
+        <f t="shared" si="0"/>
+        <v>3956.206</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="12"/>
@@ -6410,26 +6090,36 @@
       </c>
       <c r="P35" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:17">
       <c r="A36" s="12">
         <v>32</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="B36" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="27">
+        <v>1</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F36" s="27">
+        <v>7450</v>
+      </c>
+      <c r="G36" s="27">
+        <v>2322.468</v>
+      </c>
+      <c r="H36" s="12">
+        <f t="shared" si="0"/>
+        <v>2322.468</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="12"/>
@@ -6443,26 +6133,36 @@
       </c>
       <c r="P36" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q36" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:17">
       <c r="A37" s="12">
         <v>33</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="27">
+        <v>1</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F37" s="27">
+        <v>13450</v>
+      </c>
+      <c r="G37" s="27">
+        <v>4178.235</v>
+      </c>
+      <c r="H37" s="12">
+        <f t="shared" si="0"/>
+        <v>4178.235</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="12"/>
@@ -6476,26 +6176,36 @@
       </c>
       <c r="P37" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q37" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:17">
       <c r="A38" s="12">
         <v>34</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="27">
+        <v>1</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F38" s="27">
+        <v>16366</v>
+      </c>
+      <c r="G38" s="27">
+        <v>5094.653</v>
+      </c>
+      <c r="H38" s="12">
+        <f t="shared" si="0"/>
+        <v>5094.653</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="12"/>
@@ -6509,26 +6219,36 @@
       </c>
       <c r="P38" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:17">
       <c r="A39" s="12">
         <v>35</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
+      <c r="B39" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="27">
+        <v>2</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E39" s="12"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F39" s="27">
+        <v>11650</v>
+      </c>
+      <c r="G39" s="27">
+        <v>3617.865</v>
+      </c>
+      <c r="H39" s="12">
+        <f t="shared" si="0"/>
+        <v>7235.73</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="12"/>
@@ -6542,26 +6262,36 @@
       </c>
       <c r="P39" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>2</v>
+      </c>
+      <c r="Q39" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:17">
       <c r="A40" s="12">
         <v>36</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="B40" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="27">
+        <v>1</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F40" s="27">
+        <v>14400</v>
+      </c>
+      <c r="G40" s="27">
+        <v>4486.973</v>
+      </c>
+      <c r="H40" s="12">
+        <f t="shared" si="0"/>
+        <v>4486.973</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="12"/>
@@ -6575,26 +6305,36 @@
       </c>
       <c r="P40" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q40" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:17">
       <c r="A41" s="12">
         <v>37</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
+      <c r="B41" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="27">
+        <v>3</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F41" s="27">
+        <v>13216</v>
+      </c>
+      <c r="G41" s="27">
+        <v>4049.161</v>
+      </c>
+      <c r="H41" s="12">
+        <f t="shared" si="0"/>
+        <v>12147.483</v>
       </c>
       <c r="I41" s="17"/>
       <c r="J41" s="12"/>
@@ -6608,26 +6348,36 @@
       </c>
       <c r="P41" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>3</v>
+      </c>
+      <c r="Q41" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:17">
       <c r="A42" s="12">
         <v>38</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="B42" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="27">
+        <v>1</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E42" s="12"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F42" s="27">
+        <v>12400</v>
+      </c>
+      <c r="G42" s="27">
+        <v>3880.632</v>
+      </c>
+      <c r="H42" s="12">
+        <f t="shared" si="0"/>
+        <v>3880.632</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="12"/>
@@ -6641,26 +6391,36 @@
       </c>
       <c r="P42" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:17">
       <c r="A43" s="12">
         <v>39</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="B43" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="27">
+        <v>1</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E43" s="12"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F43" s="27">
+        <v>15500</v>
+      </c>
+      <c r="G43" s="27">
+        <v>4812.616</v>
+      </c>
+      <c r="H43" s="12">
+        <f t="shared" si="0"/>
+        <v>4812.616</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="12"/>
@@ -6674,26 +6434,36 @@
       </c>
       <c r="P43" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:17">
       <c r="A44" s="12">
         <v>40</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="B44" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="27">
+        <v>1</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E44" s="12"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F44" s="27">
+        <v>11500</v>
+      </c>
+      <c r="G44" s="27">
+        <v>3587.505</v>
+      </c>
+      <c r="H44" s="12">
+        <f t="shared" si="0"/>
+        <v>3587.505</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="12"/>
@@ -6707,26 +6477,36 @@
       </c>
       <c r="P44" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:17">
       <c r="A45" s="12">
         <v>41</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="B45" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="27">
+        <v>1</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E45" s="12"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F45" s="27">
+        <v>13350</v>
+      </c>
+      <c r="G45" s="27">
+        <v>4161.87</v>
+      </c>
+      <c r="H45" s="12">
+        <f t="shared" si="0"/>
+        <v>4161.87</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="12"/>
@@ -6740,26 +6520,36 @@
       </c>
       <c r="P45" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:17">
       <c r="A46" s="12">
         <v>42</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="B46" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="27">
+        <v>4</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E46" s="12"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F46" s="27">
+        <v>11850</v>
+      </c>
+      <c r="G46" s="27">
+        <v>3621.561</v>
+      </c>
+      <c r="H46" s="12">
+        <f t="shared" si="0"/>
+        <v>14486.244</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="12"/>
@@ -6773,26 +6563,36 @@
       </c>
       <c r="P46" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>4</v>
+      </c>
+      <c r="Q46" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:17">
       <c r="A47" s="12">
         <v>43</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
+      <c r="B47" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="27">
+        <v>1</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E47" s="12"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F47" s="27">
+        <v>6750</v>
+      </c>
+      <c r="G47" s="27">
+        <v>2101.49</v>
+      </c>
+      <c r="H47" s="12">
+        <f t="shared" si="0"/>
+        <v>2101.49</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="12"/>
@@ -6806,26 +6606,36 @@
       </c>
       <c r="P47" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:17">
       <c r="A48" s="12">
         <v>44</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="B48" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="27">
+        <v>1</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E48" s="12"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F48" s="27">
+        <v>17100</v>
+      </c>
+      <c r="G48" s="27">
+        <v>5299.517</v>
+      </c>
+      <c r="H48" s="12">
+        <f t="shared" si="0"/>
+        <v>5299.517</v>
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="12"/>
@@ -6839,26 +6649,36 @@
       </c>
       <c r="P48" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q48" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:17">
       <c r="A49" s="12">
         <v>45</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
+      <c r="B49" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="27">
+        <v>1</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E49" s="12"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F49" s="27">
+        <v>7050</v>
+      </c>
+      <c r="G49" s="27">
+        <v>2190.302</v>
+      </c>
+      <c r="H49" s="12">
+        <f t="shared" si="0"/>
+        <v>2190.302</v>
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="12"/>
@@ -6872,26 +6692,36 @@
       </c>
       <c r="P49" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q49" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:17">
       <c r="A50" s="12">
         <v>46</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
+      <c r="B50" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="27">
+        <v>4</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E50" s="12"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F50" s="27">
+        <v>11905</v>
+      </c>
+      <c r="G50" s="27">
+        <v>3768.041</v>
+      </c>
+      <c r="H50" s="12">
+        <f t="shared" si="0"/>
+        <v>15072.164</v>
       </c>
       <c r="I50" s="17"/>
       <c r="J50" s="12"/>
@@ -6905,26 +6735,36 @@
       </c>
       <c r="P50" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>4</v>
+      </c>
+      <c r="Q50" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:17">
       <c r="A51" s="12">
         <v>47</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="B51" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="27">
+        <v>1</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E51" s="12"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F51" s="27">
+        <v>17000</v>
+      </c>
+      <c r="G51" s="27">
+        <v>5256.163</v>
+      </c>
+      <c r="H51" s="12">
+        <f t="shared" si="0"/>
+        <v>5256.163</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="12"/>
@@ -6938,26 +6778,36 @@
       </c>
       <c r="P51" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q51" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:17">
       <c r="A52" s="12">
         <v>48</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="B52" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="27">
+        <v>1</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E52" s="12"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F52" s="27">
+        <v>5050</v>
+      </c>
+      <c r="G52" s="27">
+        <v>1611.974</v>
+      </c>
+      <c r="H52" s="12">
+        <f t="shared" si="0"/>
+        <v>1611.974</v>
       </c>
       <c r="I52" s="17"/>
       <c r="J52" s="12"/>
@@ -6971,26 +6821,36 @@
       </c>
       <c r="P52" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q52" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:17">
       <c r="A53" s="12">
         <v>49</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
+      <c r="B53" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="27">
+        <v>1</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E53" s="12"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F53" s="27">
+        <v>15250</v>
+      </c>
+      <c r="G53" s="27">
+        <v>4710.594</v>
+      </c>
+      <c r="H53" s="12">
+        <f t="shared" si="0"/>
+        <v>4710.594</v>
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="12"/>
@@ -7004,26 +6864,36 @@
       </c>
       <c r="P53" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q53" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:17">
       <c r="A54" s="12">
         <v>50</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
+      <c r="B54" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="27">
+        <v>1</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E54" s="12"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F54" s="27">
+        <v>4450</v>
+      </c>
+      <c r="G54" s="27">
+        <v>1420.6</v>
+      </c>
+      <c r="H54" s="12">
+        <f t="shared" si="0"/>
+        <v>1420.6</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="12"/>
@@ -7037,26 +6907,36 @@
       </c>
       <c r="P54" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q54" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:17">
       <c r="A55" s="12">
         <v>51</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="B55" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="27">
+        <v>4</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E55" s="12"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F55" s="27">
+        <v>7395</v>
+      </c>
+      <c r="G55" s="27">
+        <v>2261.456</v>
+      </c>
+      <c r="H55" s="12">
+        <f t="shared" si="0"/>
+        <v>9045.824</v>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="12"/>
@@ -7070,26 +6950,36 @@
       </c>
       <c r="P55" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>4</v>
+      </c>
+      <c r="Q55" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:17">
       <c r="A56" s="12">
         <v>52</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="B56" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="27">
+        <v>1</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E56" s="12"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F56" s="27">
+        <v>5350</v>
+      </c>
+      <c r="G56" s="27">
+        <v>1673.286</v>
+      </c>
+      <c r="H56" s="12">
+        <f t="shared" si="0"/>
+        <v>1673.286</v>
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="12"/>
@@ -7103,26 +6993,36 @@
       </c>
       <c r="P56" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q56" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:17">
       <c r="A57" s="12">
         <v>53</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="B57" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="27">
+        <v>1</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E57" s="12"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F57" s="27">
+        <v>16550</v>
+      </c>
+      <c r="G57" s="27">
+        <v>5205.446</v>
+      </c>
+      <c r="H57" s="12">
+        <f t="shared" si="0"/>
+        <v>5205.446</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="12"/>
@@ -7136,26 +7036,36 @@
       </c>
       <c r="P57" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q57" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:17">
       <c r="A58" s="12">
         <v>54</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
+      <c r="B58" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="27">
+        <v>1</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E58" s="12"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F58" s="27">
+        <v>7150</v>
+      </c>
+      <c r="G58" s="27">
+        <v>2219.906</v>
+      </c>
+      <c r="H58" s="12">
+        <f t="shared" si="0"/>
+        <v>2219.906</v>
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="12"/>
@@ -7169,26 +7079,36 @@
       </c>
       <c r="P58" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q58" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:17">
       <c r="A59" s="12">
         <v>55</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
+      <c r="B59" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="27">
+        <v>1</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E59" s="12"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F59" s="27">
+        <v>12100</v>
+      </c>
+      <c r="G59" s="27">
+        <v>3751.082</v>
+      </c>
+      <c r="H59" s="12">
+        <f t="shared" si="0"/>
+        <v>3751.082</v>
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="12"/>
@@ -7202,26 +7122,36 @@
       </c>
       <c r="P59" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q59" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:17">
       <c r="A60" s="12">
         <v>56</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
+      <c r="B60" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="27">
+        <v>1</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E60" s="12"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F60" s="27">
+        <v>14550</v>
+      </c>
+      <c r="G60" s="27">
+        <v>4531.378</v>
+      </c>
+      <c r="H60" s="12">
+        <f t="shared" si="0"/>
+        <v>4531.378</v>
       </c>
       <c r="I60" s="17"/>
       <c r="J60" s="12"/>
@@ -7235,26 +7165,36 @@
       </c>
       <c r="P60" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q60" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:17">
       <c r="A61" s="12">
         <v>57</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
+      <c r="B61" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="27">
+        <v>1</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E61" s="12"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F61" s="27">
+        <v>15450</v>
+      </c>
+      <c r="G61" s="27">
+        <v>4797.814</v>
+      </c>
+      <c r="H61" s="12">
+        <f t="shared" si="0"/>
+        <v>4797.814</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="12"/>
@@ -7268,26 +7208,36 @@
       </c>
       <c r="P61" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q61" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:17">
       <c r="A62" s="12">
         <v>58</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
+      <c r="B62" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="27">
+        <v>3</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E62" s="12"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F62" s="27">
+        <v>14300</v>
+      </c>
+      <c r="G62" s="27">
+        <v>4374.868</v>
+      </c>
+      <c r="H62" s="12">
+        <f t="shared" si="0"/>
+        <v>13124.604</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="12"/>
@@ -7301,26 +7251,36 @@
       </c>
       <c r="P62" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>3</v>
+      </c>
+      <c r="Q62" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:17">
       <c r="A63" s="12">
         <v>59</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="B63" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="27">
+        <v>1</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E63" s="12"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F63" s="27">
+        <v>15950</v>
+      </c>
+      <c r="G63" s="27">
+        <v>4945.833</v>
+      </c>
+      <c r="H63" s="12">
+        <f t="shared" si="0"/>
+        <v>4945.833</v>
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="12"/>
@@ -7334,26 +7294,36 @@
       </c>
       <c r="P63" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q63" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:17">
       <c r="A64" s="12">
         <v>60</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
+      <c r="B64" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="27">
+        <v>1</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E64" s="12"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F64" s="27">
+        <v>18300</v>
+      </c>
+      <c r="G64" s="27">
+        <v>5696.526</v>
+      </c>
+      <c r="H64" s="12">
+        <f t="shared" si="0"/>
+        <v>5696.526</v>
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="12"/>
@@ -7367,26 +7337,36 @@
       </c>
       <c r="P64" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q64" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:17">
       <c r="A65" s="12">
         <v>61</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
+      <c r="B65" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="27">
+        <v>1</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E65" s="12"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F65" s="27">
+        <v>4650</v>
+      </c>
+      <c r="G65" s="27">
+        <v>1479.808</v>
+      </c>
+      <c r="H65" s="12">
+        <f t="shared" si="0"/>
+        <v>1479.808</v>
       </c>
       <c r="I65" s="17"/>
       <c r="J65" s="12"/>
@@ -7400,26 +7380,36 @@
       </c>
       <c r="P65" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q65" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:17">
       <c r="A66" s="12">
         <v>62</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
+      <c r="B66" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="27">
+        <v>1</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E66" s="12"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F66" s="27">
+        <v>14600</v>
+      </c>
+      <c r="G66" s="27">
+        <v>4531.919</v>
+      </c>
+      <c r="H66" s="12">
+        <f t="shared" si="0"/>
+        <v>4531.919</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="12"/>
@@ -7433,26 +7423,36 @@
       </c>
       <c r="P66" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q66" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:17">
       <c r="A67" s="12">
         <v>63</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
+      <c r="B67" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="27">
+        <v>1</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E67" s="12"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F67" s="27">
+        <v>7295</v>
+      </c>
+      <c r="G67" s="27">
+        <v>2245.602</v>
+      </c>
+      <c r="H67" s="12">
+        <f t="shared" si="0"/>
+        <v>2245.602</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="12"/>
@@ -7466,25 +7466,25 @@
       </c>
       <c r="P67" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q67" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <v>1</v>
+      </c>
+      <c r="Q67" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="9:10">
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
     </row>
     <row r="70" customHeight="1" spans="10:10">
-      <c r="J70" s="29"/>
+      <c r="J70" s="28"/>
     </row>
     <row r="71" customHeight="1" spans="11:11">
-      <c r="K71" s="29"/>
+      <c r="K71" s="28"/>
     </row>
     <row r="72" customHeight="1" spans="12:12">
-      <c r="L72" s="29"/>
+      <c r="L72" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:R75">
@@ -7518,12 +7518,12 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G120" sqref="G120"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -8261,7 +8261,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="17" hidden="1" customHeight="1" spans="1:22">
+    <row r="17" customHeight="1" spans="1:22">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" hidden="1" customHeight="1" spans="1:22">
+    <row r="18" customHeight="1" spans="1:22">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="26" hidden="1" customHeight="1" spans="1:22">
+    <row r="26" customHeight="1" spans="1:22">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="28" hidden="1" customHeight="1" spans="1:22">
+    <row r="28" customHeight="1" spans="1:22">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" hidden="1" customHeight="1" spans="1:22">
+    <row r="29" customHeight="1" spans="1:22">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" hidden="1" customHeight="1" spans="1:22">
+    <row r="38" customHeight="1" spans="1:22">
       <c r="A38" s="12">
         <v>34</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" hidden="1" customHeight="1" spans="1:22">
+    <row r="39" customHeight="1" spans="1:22">
       <c r="A39" s="12">
         <v>35</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" hidden="1" customHeight="1" spans="1:22">
+    <row r="40" customHeight="1" spans="1:22">
       <c r="A40" s="12">
         <v>36</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" hidden="1" customHeight="1" spans="1:22">
+    <row r="41" customHeight="1" spans="1:22">
       <c r="A41" s="12">
         <v>37</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" hidden="1" customHeight="1" spans="1:22">
+    <row r="42" customHeight="1" spans="1:22">
       <c r="A42" s="12">
         <v>38</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" hidden="1" customHeight="1" spans="1:22">
+    <row r="43" customHeight="1" spans="1:22">
       <c r="A43" s="12">
         <v>39</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="48" hidden="1" customHeight="1" spans="1:22">
+    <row r="48" customHeight="1" spans="1:22">
       <c r="A48" s="12">
         <v>44</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" hidden="1" customHeight="1" spans="1:22">
+    <row r="49" customHeight="1" spans="1:22">
       <c r="A49" s="12">
         <v>45</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" hidden="1" customHeight="1" spans="1:22">
+    <row r="50" customHeight="1" spans="1:22">
       <c r="A50" s="12">
         <v>46</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" hidden="1" customHeight="1" spans="1:22">
+    <row r="51" customHeight="1" spans="1:22">
       <c r="A51" s="12">
         <v>47</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" hidden="1" customHeight="1" spans="1:22">
+    <row r="52" customHeight="1" spans="1:22">
       <c r="A52" s="12">
         <v>48</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" hidden="1" customHeight="1" spans="1:22">
+    <row r="53" customHeight="1" spans="1:22">
       <c r="A53" s="12">
         <v>49</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" hidden="1" customHeight="1" spans="1:22">
+    <row r="54" customHeight="1" spans="1:22">
       <c r="A54" s="12">
         <v>50</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" hidden="1" customHeight="1" spans="1:22">
+    <row r="55" customHeight="1" spans="1:22">
       <c r="A55" s="12">
         <v>51</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" hidden="1" customHeight="1" spans="1:22">
+    <row r="56" customHeight="1" spans="1:22">
       <c r="A56" s="12">
         <v>52</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" hidden="1" customHeight="1" spans="1:22">
+    <row r="57" customHeight="1" spans="1:22">
       <c r="A57" s="12">
         <v>53</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" hidden="1" customHeight="1" spans="1:22">
+    <row r="58" customHeight="1" spans="1:22">
       <c r="A58" s="12">
         <v>54</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="64" hidden="1" customHeight="1" spans="1:22">
+    <row r="64" customHeight="1" spans="1:22">
       <c r="A64" s="12">
         <v>60</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" hidden="1" customHeight="1" spans="1:22">
+    <row r="65" customHeight="1" spans="1:22">
       <c r="A65" s="12">
         <v>61</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" hidden="1" customHeight="1" spans="1:22">
+    <row r="66" customHeight="1" spans="1:22">
       <c r="A66" s="12">
         <v>62</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" hidden="1" customHeight="1" spans="1:22">
+    <row r="67" customHeight="1" spans="1:22">
       <c r="A67" s="12">
         <v>63</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" hidden="1" customHeight="1" spans="1:22">
+    <row r="68" customHeight="1" spans="1:22">
       <c r="A68" s="12">
         <v>64</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" hidden="1" customHeight="1" spans="1:22">
+    <row r="69" customHeight="1" spans="1:22">
       <c r="A69" s="12">
         <v>65</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" hidden="1" customHeight="1" spans="1:22">
+    <row r="70" customHeight="1" spans="1:22">
       <c r="A70" s="12">
         <v>66</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" hidden="1" customHeight="1" spans="1:22">
+    <row r="71" customHeight="1" spans="1:22">
       <c r="A71" s="12">
         <v>67</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" hidden="1" customHeight="1" spans="1:22">
+    <row r="72" customHeight="1" spans="1:22">
       <c r="A72" s="12">
         <v>68</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" hidden="1" customHeight="1" spans="1:22">
+    <row r="73" customHeight="1" spans="1:22">
       <c r="A73" s="12">
         <v>69</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="75" hidden="1" customHeight="1" spans="1:22">
+    <row r="75" customHeight="1" spans="1:22">
       <c r="A75" s="12">
         <v>71</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="77" hidden="1" customHeight="1" spans="1:22">
+    <row r="77" customHeight="1" spans="1:22">
       <c r="A77" s="12">
         <v>73</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" hidden="1" customHeight="1" spans="1:22">
+    <row r="78" customHeight="1" spans="1:22">
       <c r="A78" s="12">
         <v>74</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" hidden="1" customHeight="1" spans="1:22">
+    <row r="79" customHeight="1" spans="1:22">
       <c r="A79" s="12">
         <v>75</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" hidden="1" customHeight="1" spans="1:22">
+    <row r="80" customHeight="1" spans="1:22">
       <c r="A80" s="12">
         <v>76</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" hidden="1" customHeight="1" spans="1:22">
+    <row r="81" customHeight="1" spans="1:22">
       <c r="A81" s="12">
         <v>77</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" hidden="1" customHeight="1" spans="1:22">
+    <row r="82" customHeight="1" spans="1:22">
       <c r="A82" s="12">
         <v>78</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" hidden="1" customHeight="1" spans="1:22">
+    <row r="83" customHeight="1" spans="1:22">
       <c r="A83" s="12">
         <v>79</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" hidden="1" customHeight="1" spans="1:22">
+    <row r="84" customHeight="1" spans="1:22">
       <c r="A84" s="12">
         <v>80</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" hidden="1" customHeight="1" spans="1:22">
+    <row r="85" customHeight="1" spans="1:22">
       <c r="A85" s="12">
         <v>81</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" hidden="1" customHeight="1" spans="1:22">
+    <row r="86" customHeight="1" spans="1:22">
       <c r="A86" s="12">
         <v>82</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" hidden="1" customHeight="1" spans="1:22">
+    <row r="87" customHeight="1" spans="1:22">
       <c r="A87" s="12">
         <v>83</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" hidden="1" customHeight="1" spans="1:22">
+    <row r="88" customHeight="1" spans="1:22">
       <c r="A88" s="12">
         <v>84</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" hidden="1" customHeight="1" spans="1:22">
+    <row r="89" customHeight="1" spans="1:22">
       <c r="A89" s="12">
         <v>85</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" hidden="1" customHeight="1" spans="1:22">
+    <row r="92" customHeight="1" spans="1:22">
       <c r="A92" s="12">
         <v>88</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" hidden="1" customHeight="1" spans="1:22">
+    <row r="94" customHeight="1" spans="1:22">
       <c r="A94" s="12">
         <v>90</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" hidden="1" customHeight="1" spans="1:22">
+    <row r="95" customHeight="1" spans="1:22">
       <c r="A95" s="12">
         <v>91</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" hidden="1" customHeight="1" spans="1:22">
+    <row r="96" customHeight="1" spans="1:22">
       <c r="A96" s="12">
         <v>92</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" hidden="1" customHeight="1" spans="1:22">
+    <row r="97" customHeight="1" spans="1:22">
       <c r="A97" s="12">
         <v>93</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" hidden="1" customHeight="1" spans="1:22">
+    <row r="98" customHeight="1" spans="1:22">
       <c r="A98" s="12">
         <v>94</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" hidden="1" customHeight="1" spans="1:22">
+    <row r="99" customHeight="1" spans="1:22">
       <c r="A99" s="12">
         <v>95</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" hidden="1" customHeight="1" spans="1:22">
+    <row r="100" customHeight="1" spans="1:22">
       <c r="A100" s="12">
         <v>96</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" hidden="1" customHeight="1" spans="1:22">
+    <row r="101" customHeight="1" spans="1:22">
       <c r="A101" s="12">
         <v>97</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" hidden="1" customHeight="1" spans="1:22">
+    <row r="102" customHeight="1" spans="1:22">
       <c r="A102" s="12">
         <v>98</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" hidden="1" customHeight="1" spans="1:22">
+    <row r="103" customHeight="1" spans="1:22">
       <c r="A103" s="12">
         <v>99</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" hidden="1" customHeight="1" spans="1:22">
+    <row r="104" customHeight="1" spans="1:22">
       <c r="A104" s="12">
         <v>100</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" hidden="1" customHeight="1" spans="1:22">
+    <row r="105" customHeight="1" spans="1:22">
       <c r="A105" s="12">
         <v>101</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" hidden="1" customHeight="1" spans="1:22">
+    <row r="106" customHeight="1" spans="1:22">
       <c r="A106" s="12">
         <v>102</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" hidden="1" customHeight="1" spans="1:22">
+    <row r="107" customHeight="1" spans="1:22">
       <c r="A107" s="12">
         <v>103</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" hidden="1" customHeight="1" spans="1:22">
+    <row r="108" customHeight="1" spans="1:22">
       <c r="A108" s="12">
         <v>104</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" hidden="1" customHeight="1" spans="1:22">
+    <row r="109" customHeight="1" spans="1:22">
       <c r="A109" s="12">
         <v>105</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:22">
+    <row r="111" hidden="1" customHeight="1" spans="1:22">
       <c r="A111" s="12">
         <v>107</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="112" hidden="1" customHeight="1" spans="1:22">
+    <row r="112" customHeight="1" spans="1:22">
       <c r="A112" s="12">
         <v>108</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:22">
+    <row r="113" hidden="1" customHeight="1" spans="1:22">
       <c r="A113" s="12">
         <v>109</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:22">
+    <row r="114" hidden="1" customHeight="1" spans="1:22">
       <c r="A114" s="12">
         <v>110</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:22">
+    <row r="115" hidden="1" customHeight="1" spans="1:22">
       <c r="A115" s="12">
         <v>111</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:22">
+    <row r="116" hidden="1" customHeight="1" spans="1:22">
       <c r="A116" s="12">
         <v>112</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="117" hidden="1" customHeight="1" spans="1:22">
+    <row r="117" customHeight="1" spans="1:22">
       <c r="A117" s="12">
         <v>113</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" hidden="1" customHeight="1" spans="1:22">
+    <row r="118" customHeight="1" spans="1:22">
       <c r="A118" s="12">
         <v>114</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:22">
+    <row r="120" hidden="1" customHeight="1" spans="1:22">
       <c r="A120" s="12">
         <v>116</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="121" hidden="1" customHeight="1" spans="1:22">
+    <row r="121" customHeight="1" spans="1:22">
       <c r="A121" s="12">
         <v>117</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:22">
+    <row r="122" hidden="1" customHeight="1" spans="1:22">
       <c r="A122" s="12">
         <v>118</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="123" hidden="1" customHeight="1" spans="1:22">
+    <row r="123" customHeight="1" spans="1:22">
       <c r="A123" s="12">
         <v>119</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:22">
+    <row r="124" hidden="1" customHeight="1" spans="1:22">
       <c r="A124" s="12">
         <v>120</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="125" hidden="1" customHeight="1" spans="1:22">
+    <row r="125" customHeight="1" spans="1:22">
       <c r="A125" s="12">
         <v>121</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" hidden="1" customHeight="1" spans="1:22">
+    <row r="126" customHeight="1" spans="1:22">
       <c r="A126" s="12">
         <v>122</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" hidden="1" customHeight="1" spans="1:22">
+    <row r="127" customHeight="1" spans="1:22">
       <c r="A127" s="12">
         <v>123</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" hidden="1" customHeight="1" spans="1:22">
+    <row r="128" customHeight="1" spans="1:22">
       <c r="A128" s="12">
         <v>124</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" hidden="1" customHeight="1" spans="1:22">
+    <row r="129" customHeight="1" spans="1:22">
       <c r="A129" s="12">
         <v>125</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" hidden="1" customHeight="1" spans="1:22">
+    <row r="130" customHeight="1" spans="1:22">
       <c r="A130" s="12">
         <v>126</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" hidden="1" customHeight="1" spans="1:22">
+    <row r="131" customHeight="1" spans="1:22">
       <c r="A131" s="12">
         <v>127</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" hidden="1" customHeight="1" spans="1:22">
+    <row r="132" customHeight="1" spans="1:22">
       <c r="A132" s="12">
         <v>128</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" hidden="1" customHeight="1" spans="1:22">
+    <row r="133" customHeight="1" spans="1:22">
       <c r="A133" s="12">
         <v>129</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" hidden="1" customHeight="1" spans="1:22">
+    <row r="134" customHeight="1" spans="1:22">
       <c r="A134" s="12">
         <v>130</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" hidden="1" customHeight="1" spans="1:22">
+    <row r="135" customHeight="1" spans="1:22">
       <c r="A135" s="12">
         <v>131</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" hidden="1" customHeight="1" spans="1:22">
+    <row r="136" customHeight="1" spans="1:22">
       <c r="A136" s="12">
         <v>132</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" hidden="1" customHeight="1" spans="1:22">
+    <row r="137" customHeight="1" spans="1:22">
       <c r="A137" s="12">
         <v>133</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" hidden="1" customHeight="1" spans="1:22">
+    <row r="138" customHeight="1" spans="1:22">
       <c r="A138" s="12">
         <v>134</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" hidden="1" customHeight="1" spans="1:22">
+    <row r="139" customHeight="1" spans="1:22">
       <c r="A139" s="12">
         <v>135</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" hidden="1" customHeight="1" spans="1:22">
+    <row r="140" customHeight="1" spans="1:22">
       <c r="A140" s="12">
         <v>136</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" hidden="1" customHeight="1" spans="1:22">
+    <row r="141" customHeight="1" spans="1:22">
       <c r="A141" s="12">
         <v>137</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" hidden="1" customHeight="1" spans="1:22">
+    <row r="142" customHeight="1" spans="1:22">
       <c r="A142" s="12">
         <v>138</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" hidden="1" customHeight="1" spans="1:22">
+    <row r="143" customHeight="1" spans="1:22">
       <c r="A143" s="12">
         <v>139</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" hidden="1" customHeight="1" spans="1:22">
+    <row r="144" customHeight="1" spans="1:22">
       <c r="A144" s="12">
         <v>140</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" hidden="1" customHeight="1" spans="1:22">
+    <row r="145" customHeight="1" spans="1:22">
       <c r="A145" s="12">
         <v>141</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" hidden="1" customHeight="1" spans="1:22">
+    <row r="146" customHeight="1" spans="1:22">
       <c r="A146" s="12">
         <v>142</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" hidden="1" customHeight="1" spans="1:22">
+    <row r="147" customHeight="1" spans="1:22">
       <c r="A147" s="12">
         <v>143</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" hidden="1" customHeight="1" spans="1:22">
+    <row r="148" customHeight="1" spans="1:22">
       <c r="A148" s="12">
         <v>144</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" hidden="1" customHeight="1" spans="1:22">
+    <row r="149" customHeight="1" spans="1:22">
       <c r="A149" s="12">
         <v>145</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" hidden="1" customHeight="1" spans="1:22">
+    <row r="150" customHeight="1" spans="1:22">
       <c r="A150" s="12">
         <v>146</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" hidden="1" customHeight="1" spans="1:22">
+    <row r="151" customHeight="1" spans="1:22">
       <c r="A151" s="12">
         <v>147</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" hidden="1" customHeight="1" spans="1:22">
+    <row r="152" customHeight="1" spans="1:22">
       <c r="A152" s="12">
         <v>148</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" hidden="1" customHeight="1" spans="1:22">
+    <row r="153" customHeight="1" spans="1:22">
       <c r="A153" s="12">
         <v>149</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" hidden="1" customHeight="1" spans="1:22">
+    <row r="154" customHeight="1" spans="1:22">
       <c r="A154" s="12">
         <v>150</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" hidden="1" customHeight="1" spans="1:22">
+    <row r="155" customHeight="1" spans="1:22">
       <c r="A155" s="12">
         <v>151</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" hidden="1" customHeight="1" spans="1:22">
+    <row r="156" customHeight="1" spans="1:22">
       <c r="A156" s="12">
         <v>152</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" hidden="1" customHeight="1" spans="1:22">
+    <row r="157" customHeight="1" spans="1:22">
       <c r="A157" s="12">
         <v>153</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" hidden="1" customHeight="1" spans="1:22">
+    <row r="158" customHeight="1" spans="1:22">
       <c r="A158" s="12">
         <v>154</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" hidden="1" customHeight="1" spans="1:22">
+    <row r="159" customHeight="1" spans="1:22">
       <c r="A159" s="12">
         <v>155</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" hidden="1" customHeight="1" spans="1:22">
+    <row r="160" customHeight="1" spans="1:22">
       <c r="A160" s="12">
         <v>156</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" hidden="1" customHeight="1" spans="1:22">
+    <row r="161" customHeight="1" spans="1:22">
       <c r="A161" s="12">
         <v>157</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" hidden="1" customHeight="1" spans="1:22">
+    <row r="162" customHeight="1" spans="1:22">
       <c r="A162" s="12">
         <v>158</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" hidden="1" customHeight="1" spans="1:22">
+    <row r="163" customHeight="1" spans="1:22">
       <c r="A163" s="12">
         <v>159</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" hidden="1" customHeight="1" spans="1:22">
+    <row r="164" customHeight="1" spans="1:22">
       <c r="A164" s="12">
         <v>160</v>
       </c>
@@ -15158,15 +15158,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:W164">
-    <filterColumn colId="14">
+    <filterColumn colId="21">
       <filters>
+        <filter val="0"/>
         <filter val="1"/>
         <filter val="2"/>
         <filter val="4"/>
         <filter val="5"/>
         <filter val="25"/>
-        <filter val="6"/>
-        <filter val="9"/>
+        <filter val="18"/>
       </filters>
     </filterColumn>
     <sortState ref="A4:W164">

--- a/油漆统计.xlsx
+++ b/油漆统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="1"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="义乌奥晶办公室食堂 （完成）" sheetId="3" r:id="rId1"/>
@@ -1111,9 +1111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -1168,20 +1168,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1190,8 +1176,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1206,7 +1208,89 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1220,95 +1304,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1339,55 +1339,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,7 +1381,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,19 +1441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,37 +1465,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,37 +1513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,17 +1596,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1626,6 +1620,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1633,6 +1651,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1651,33 +1678,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1686,10 +1686,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1698,136 +1698,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4630,7 +4630,7 @@
   <sheetPr/>
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -7515,15 +7515,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:W164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="V4" s="8"/>
     </row>
-    <row r="5" hidden="1" customHeight="1" spans="1:22">
+    <row r="5" customHeight="1" spans="1:22">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>2992.2</v>
       </c>
       <c r="H5" s="12">
-        <f t="shared" ref="H5:H68" si="0">G5*C5</f>
+        <f>G5*C5</f>
         <v>8976.6</v>
       </c>
       <c r="I5" s="17"/>
@@ -7733,7 +7733,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="6" hidden="1" customHeight="1" spans="1:22">
+    <row r="6" customHeight="1" spans="1:22">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>3056.5</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" si="0"/>
+        <f>G6*C6</f>
         <v>3056.5</v>
       </c>
       <c r="I6" s="17"/>
@@ -7769,19 +7769,19 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="18">
-        <f t="shared" ref="T6:T37" si="1">SUM(I6:S6)</f>
+        <f t="shared" ref="T6:T37" si="0">SUM(I6:S6)</f>
         <v>1</v>
       </c>
       <c r="U6" s="18">
-        <f t="shared" ref="U5:U68" si="2">C6-T6</f>
+        <f t="shared" ref="U5:U68" si="1">C6-T6</f>
         <v>0</v>
       </c>
       <c r="V6" s="19" t="str">
-        <f t="shared" ref="V6:V37" si="3">IF(SUM(I6:S6)=C6,"完成",SUM(I6:S6))</f>
+        <f t="shared" ref="V6:V37" si="2">IF(SUM(I6:S6)=C6,"完成",SUM(I6:S6))</f>
         <v>完成</v>
       </c>
     </row>
-    <row r="7" hidden="1" customHeight="1" spans="1:22">
+    <row r="7" customHeight="1" spans="1:22">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>3057.8</v>
       </c>
       <c r="H7" s="12">
-        <f t="shared" si="0"/>
+        <f>G7*C7</f>
         <v>3057.8</v>
       </c>
       <c r="I7" s="17"/>
@@ -7817,19 +7817,19 @@
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U7" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V7" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="8" hidden="1" customHeight="1" spans="1:22">
+    <row r="8" customHeight="1" spans="1:22">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>3081.3</v>
       </c>
       <c r="H8" s="12">
-        <f t="shared" si="0"/>
+        <f>G8*C8</f>
         <v>3081.3</v>
       </c>
       <c r="I8" s="17"/>
@@ -7865,19 +7865,19 @@
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U8" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V8" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="9" hidden="1" customHeight="1" spans="1:22">
+    <row r="9" customHeight="1" spans="1:22">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>3070.2</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" si="0"/>
+        <f>G9*C9</f>
         <v>3070.2</v>
       </c>
       <c r="I9" s="17"/>
@@ -7913,19 +7913,19 @@
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V9" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="10" hidden="1" customHeight="1" spans="1:22">
+    <row r="10" customHeight="1" spans="1:22">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>2983.1</v>
       </c>
       <c r="H10" s="12">
-        <f t="shared" si="0"/>
+        <f>G10*C10</f>
         <v>2983.1</v>
       </c>
       <c r="I10" s="17"/>
@@ -7961,19 +7961,19 @@
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
       <c r="T10" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U10" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V10" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="11" hidden="1" customHeight="1" spans="1:22">
+    <row r="11" customHeight="1" spans="1:22">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>2417.9</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" si="0"/>
+        <f>G11*C11</f>
         <v>7253.7</v>
       </c>
       <c r="I11" s="17">
@@ -8009,19 +8009,19 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="U11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V11" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="12" hidden="1" customHeight="1" spans="1:22">
+    <row r="12" customHeight="1" spans="1:22">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>2471.4</v>
       </c>
       <c r="H12" s="12">
-        <f t="shared" si="0"/>
+        <f>G12*C12</f>
         <v>2471.4</v>
       </c>
       <c r="I12" s="17">
@@ -8057,19 +8057,19 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
       <c r="T12" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V12" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="13" hidden="1" customHeight="1" spans="1:22">
+    <row r="13" customHeight="1" spans="1:22">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>2473.3</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="0"/>
+        <f>G13*C13</f>
         <v>2473.3</v>
       </c>
       <c r="I13" s="17">
@@ -8105,19 +8105,19 @@
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
       <c r="T13" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U13" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V13" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="14" hidden="1" customHeight="1" spans="1:22">
+    <row r="14" customHeight="1" spans="1:22">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>2461.8</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="0"/>
+        <f>G14*C14</f>
         <v>2461.8</v>
       </c>
       <c r="I14" s="17">
@@ -8153,19 +8153,19 @@
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
       <c r="T14" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U14" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V14" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="15" hidden="1" customHeight="1" spans="1:22">
+    <row r="15" customHeight="1" spans="1:22">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>2501.8</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="0"/>
+        <f>G15*C15</f>
         <v>2501.8</v>
       </c>
       <c r="I15" s="17">
@@ -8201,19 +8201,19 @@
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
       <c r="T15" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U15" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V15" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="16" hidden="1" customHeight="1" spans="1:22">
+    <row r="16" customHeight="1" spans="1:22">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>2408.2</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" si="0"/>
+        <f>G16*C16</f>
         <v>2408.2</v>
       </c>
       <c r="I16" s="17">
@@ -8249,15 +8249,15 @@
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
       <c r="T16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U16" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V16" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
@@ -8280,7 +8280,7 @@
         <v>1239.6</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="0"/>
+        <f>G17*C17</f>
         <v>3718.8</v>
       </c>
       <c r="I17" s="17"/>
@@ -8295,15 +8295,15 @@
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
       <c r="T17" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U17" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="V17" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8326,7 +8326,7 @@
         <v>1253.9</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="0"/>
+        <f>G18*C18</f>
         <v>1253.9</v>
       </c>
       <c r="I18" s="17"/>
@@ -8341,19 +8341,19 @@
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
       <c r="T18" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U18" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V18" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" hidden="1" customHeight="1" spans="1:22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:22">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>1252</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" si="0"/>
+        <f>G19*C19</f>
         <v>1252</v>
       </c>
       <c r="I19" s="17"/>
@@ -8389,19 +8389,19 @@
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
       <c r="T19" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U19" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V19" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="20" hidden="1" customHeight="1" spans="1:22">
+    <row r="20" customHeight="1" spans="1:22">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>1252</v>
       </c>
       <c r="H20" s="12">
-        <f t="shared" si="0"/>
+        <f>G20*C20</f>
         <v>1252</v>
       </c>
       <c r="I20" s="17"/>
@@ -8437,19 +8437,19 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
       <c r="T20" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U20" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V20" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="21" hidden="1" customHeight="1" spans="1:22">
+    <row r="21" customHeight="1" spans="1:22">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>1247.5</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="0"/>
+        <f>G21*C21</f>
         <v>1247.5</v>
       </c>
       <c r="I21" s="17"/>
@@ -8485,19 +8485,19 @@
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
       <c r="T21" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U21" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V21" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="22" hidden="1" customHeight="1" spans="1:23">
+    <row r="22" customHeight="1" spans="1:23">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>1214.4</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="0"/>
+        <f>G22*C22</f>
         <v>1214.4</v>
       </c>
       <c r="I22" s="17"/>
@@ -8533,20 +8533,20 @@
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
       <c r="T22" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U22" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V22" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
       <c r="W22" s="20"/>
     </row>
-    <row r="23" hidden="1" customHeight="1" spans="1:22">
+    <row r="23" customHeight="1" spans="1:22">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>2367.9</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="0"/>
+        <f>G23*C23</f>
         <v>4735.8</v>
       </c>
       <c r="I23" s="25">
@@ -8582,19 +8582,19 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="U23" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V23" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="24" hidden="1" customHeight="1" spans="1:22">
+    <row r="24" customHeight="1" spans="1:22">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>2380.9</v>
       </c>
       <c r="H24" s="12">
-        <f t="shared" si="0"/>
+        <f>G24*C24</f>
         <v>2380.9</v>
       </c>
       <c r="I24" s="25">
@@ -8630,19 +8630,19 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U24" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V24" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="25" hidden="1" customHeight="1" spans="1:22">
+    <row r="25" customHeight="1" spans="1:22">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>2723.6</v>
       </c>
       <c r="H25" s="12">
-        <f t="shared" si="0"/>
+        <f>G25*C25</f>
         <v>2723.6</v>
       </c>
       <c r="I25" s="17"/>
@@ -8678,15 +8678,15 @@
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
       <c r="T25" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U25" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V25" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
@@ -8705,14 +8705,16 @@
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="22"/>
-      <c r="G26" s="22">
+      <c r="G26" s="12">
         <v>2744.4</v>
       </c>
       <c r="H26" s="12">
-        <f t="shared" si="0"/>
+        <f>G26*C26</f>
         <v>2744.4</v>
       </c>
-      <c r="I26" s="17"/>
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
@@ -8724,19 +8726,19 @@
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
       <c r="T26" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="U26" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V26" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" hidden="1" customHeight="1" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:22">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -8755,7 +8757,7 @@
         <v>2423.2</v>
       </c>
       <c r="H27" s="12">
-        <f t="shared" si="0"/>
+        <f>G27*C27</f>
         <v>2423.2</v>
       </c>
       <c r="I27" s="17"/>
@@ -8772,15 +8774,15 @@
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
       <c r="T27" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U27" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V27" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
@@ -8803,11 +8805,13 @@
         <v>2423.2</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" si="0"/>
+        <f>G28*C28</f>
         <v>2423.2</v>
       </c>
       <c r="I28" s="17"/>
-      <c r="J28" s="12"/>
+      <c r="J28" s="12">
+        <v>1</v>
+      </c>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
@@ -8818,16 +8822,16 @@
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
       <c r="T28" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="U28" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V28" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:22">
@@ -8849,11 +8853,13 @@
         <v>2358.2</v>
       </c>
       <c r="H29" s="12">
-        <f t="shared" si="0"/>
+        <f>G29*C29</f>
         <v>2358.2</v>
       </c>
       <c r="I29" s="17"/>
-      <c r="J29" s="12"/>
+      <c r="J29" s="12">
+        <v>1</v>
+      </c>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
@@ -8864,19 +8870,19 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
       <c r="T29" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="U29" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V29" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" customHeight="1" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:22">
       <c r="A30" s="12">
         <v>26</v>
       </c>
@@ -8895,7 +8901,7 @@
         <v>1588.3</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="0"/>
+        <f>G30*C30</f>
         <v>3176.6</v>
       </c>
       <c r="I30" s="17"/>
@@ -8914,19 +8920,19 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
       <c r="T30" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="U30" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V30" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="31" hidden="1" customHeight="1" spans="1:22">
+    <row r="31" customHeight="1" spans="1:22">
       <c r="A31" s="12">
         <v>27</v>
       </c>
@@ -8945,7 +8951,7 @@
         <v>1599.9</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="0"/>
+        <f>G31*C31</f>
         <v>1599.9</v>
       </c>
       <c r="I31" s="17"/>
@@ -8962,19 +8968,19 @@
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
       <c r="T31" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U31" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V31" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="32" hidden="1" customHeight="1" spans="1:22">
+    <row r="32" customHeight="1" spans="1:22">
       <c r="A32" s="12">
         <v>28</v>
       </c>
@@ -8993,7 +8999,7 @@
         <v>1559.9</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="0"/>
+        <f>G32*C32</f>
         <v>1559.9</v>
       </c>
       <c r="I32" s="17"/>
@@ -9010,19 +9016,19 @@
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
       <c r="T32" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U32" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V32" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="33" hidden="1" customHeight="1" spans="1:22">
+    <row r="33" customHeight="1" spans="1:22">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -9041,7 +9047,7 @@
         <v>1573.2</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" si="0"/>
+        <f>G33*C33</f>
         <v>1573.2</v>
       </c>
       <c r="I33" s="17"/>
@@ -9058,19 +9064,19 @@
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
       <c r="T33" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U33" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V33" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="34" hidden="1" customHeight="1" spans="1:22">
+    <row r="34" customHeight="1" spans="1:22">
       <c r="A34" s="12">
         <v>30</v>
       </c>
@@ -9089,7 +9095,7 @@
         <v>1602.8</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="0"/>
+        <f>G34*C34</f>
         <v>1602.8</v>
       </c>
       <c r="I34" s="17"/>
@@ -9106,19 +9112,19 @@
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U34" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V34" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="35" hidden="1" customHeight="1" spans="1:22">
+    <row r="35" customHeight="1" spans="1:22">
       <c r="A35" s="12">
         <v>31</v>
       </c>
@@ -9137,7 +9143,7 @@
         <v>1602.8</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" si="0"/>
+        <f>G35*C35</f>
         <v>1602.8</v>
       </c>
       <c r="I35" s="17"/>
@@ -9154,19 +9160,19 @@
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
       <c r="T35" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U35" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V35" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="36" hidden="1" customHeight="1" spans="1:22">
+    <row r="36" customHeight="1" spans="1:22">
       <c r="A36" s="12">
         <v>32</v>
       </c>
@@ -9185,7 +9191,7 @@
         <v>1576.7</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="0"/>
+        <f>G36*C36</f>
         <v>1576.7</v>
       </c>
       <c r="I36" s="17"/>
@@ -9202,15 +9208,15 @@
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
       <c r="T36" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V36" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>完成</v>
       </c>
     </row>
@@ -9233,7 +9239,7 @@
         <v>1368.7</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="0"/>
+        <f>G37*C37</f>
         <v>9580.9</v>
       </c>
       <c r="I37" s="17"/>
@@ -9250,15 +9256,15 @@
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
       <c r="T37" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="U37" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="V37" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -9281,7 +9287,7 @@
         <v>454.8</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="0"/>
+        <f>G38*C38</f>
         <v>454.8</v>
       </c>
       <c r="I38" s="17"/>
@@ -9296,15 +9302,15 @@
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
       <c r="T38" s="18">
-        <f t="shared" ref="T38:T69" si="4">SUM(I38:S38)</f>
+        <f t="shared" ref="T38:T69" si="3">SUM(I38:S38)</f>
         <v>0</v>
       </c>
       <c r="U38" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V38" s="19">
-        <f t="shared" ref="V38:V69" si="5">IF(SUM(I38:S38)=C38,"完成",SUM(I38:S38))</f>
+        <f t="shared" ref="V38:V69" si="4">IF(SUM(I38:S38)=C38,"完成",SUM(I38:S38))</f>
         <v>0</v>
       </c>
     </row>
@@ -9327,7 +9333,7 @@
         <v>514.8</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="0"/>
+        <f>G39*C39</f>
         <v>514.8</v>
       </c>
       <c r="I39" s="17"/>
@@ -9342,15 +9348,15 @@
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
       <c r="T39" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V39" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V39" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9373,7 +9379,7 @@
         <v>630.1</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" si="0"/>
+        <f>G40*C40</f>
         <v>630.1</v>
       </c>
       <c r="I40" s="17"/>
@@ -9388,15 +9394,15 @@
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
       <c r="T40" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V40" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V40" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9419,7 +9425,7 @@
         <v>699.2</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="0"/>
+        <f>G41*C41</f>
         <v>699.2</v>
       </c>
       <c r="I41" s="17"/>
@@ -9434,15 +9440,15 @@
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
       <c r="T41" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V41" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V41" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9465,7 +9471,7 @@
         <v>752.4</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" si="0"/>
+        <f>G42*C42</f>
         <v>752.4</v>
       </c>
       <c r="I42" s="17"/>
@@ -9480,15 +9486,15 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
       <c r="T42" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V42" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V42" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9511,7 +9517,7 @@
         <v>866.2</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" si="0"/>
+        <f>G43*C43</f>
         <v>866.2</v>
       </c>
       <c r="I43" s="17"/>
@@ -9526,19 +9532,19 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
       <c r="T43" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V43" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U43" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V43" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" hidden="1" customHeight="1" spans="1:22">
+    </row>
+    <row r="44" customHeight="1" spans="1:22">
       <c r="A44" s="12">
         <v>40</v>
       </c>
@@ -9557,7 +9563,7 @@
         <v>899.5</v>
       </c>
       <c r="H44" s="12">
-        <f t="shared" si="0"/>
+        <f>G44*C44</f>
         <v>3598</v>
       </c>
       <c r="I44" s="17"/>
@@ -9574,19 +9580,19 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
       <c r="T44" s="18">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="U44" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="U44" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="19" t="str">
-        <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="45" hidden="1" customHeight="1" spans="1:22">
+    <row r="45" customHeight="1" spans="1:22">
       <c r="A45" s="12">
         <v>41</v>
       </c>
@@ -9605,7 +9611,7 @@
         <v>908</v>
       </c>
       <c r="H45" s="12">
-        <f t="shared" si="0"/>
+        <f>G45*C45</f>
         <v>908</v>
       </c>
       <c r="I45" s="17"/>
@@ -9622,19 +9628,19 @@
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
       <c r="T45" s="18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U45" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U45" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V45" s="19" t="str">
-        <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="46" hidden="1" customHeight="1" spans="1:22">
+    <row r="46" customHeight="1" spans="1:22">
       <c r="A46" s="12">
         <v>42</v>
       </c>
@@ -9653,7 +9659,7 @@
         <v>908</v>
       </c>
       <c r="H46" s="12">
-        <f t="shared" si="0"/>
+        <f>G46*C46</f>
         <v>908</v>
       </c>
       <c r="I46" s="17"/>
@@ -9670,19 +9676,19 @@
       <c r="R46" s="12"/>
       <c r="S46" s="12"/>
       <c r="T46" s="18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U46" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U46" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="19" t="str">
-        <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="47" hidden="1" customHeight="1" spans="1:22">
+    <row r="47" customHeight="1" spans="1:22">
       <c r="A47" s="12">
         <v>43</v>
       </c>
@@ -9701,7 +9707,7 @@
         <v>908.8</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="0"/>
+        <f>G47*C47</f>
         <v>908.8</v>
       </c>
       <c r="I47" s="17"/>
@@ -9718,15 +9724,15 @@
       <c r="R47" s="12"/>
       <c r="S47" s="12"/>
       <c r="T47" s="18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U47" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U47" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V47" s="19" t="str">
-        <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
@@ -9749,7 +9755,7 @@
         <v>876.4</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" si="0"/>
+        <f>G48*C48</f>
         <v>876.4</v>
       </c>
       <c r="I48" s="17"/>
@@ -9764,15 +9770,15 @@
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
       <c r="T48" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V48" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V48" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9795,7 +9801,7 @@
         <v>1092.1</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" si="0"/>
+        <f>G49*C49</f>
         <v>4368.4</v>
       </c>
       <c r="I49" s="17"/>
@@ -9810,15 +9816,15 @@
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
       <c r="T49" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V49" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="18">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="V49" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9841,7 +9847,7 @@
         <v>1096.8</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" si="0"/>
+        <f>G50*C50</f>
         <v>1096.8</v>
       </c>
       <c r="I50" s="17"/>
@@ -9856,15 +9862,15 @@
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
       <c r="T50" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V50" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V50" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9887,7 +9893,7 @@
         <v>1096.8</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="0"/>
+        <f>G51*C51</f>
         <v>1096.8</v>
       </c>
       <c r="I51" s="17"/>
@@ -9902,15 +9908,15 @@
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
       <c r="T51" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V51" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V51" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9933,7 +9939,7 @@
         <v>1097.4</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" si="0"/>
+        <f>G52*C52</f>
         <v>1097.4</v>
       </c>
       <c r="I52" s="17"/>
@@ -9948,15 +9954,15 @@
       <c r="R52" s="12"/>
       <c r="S52" s="12"/>
       <c r="T52" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V52" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U52" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V52" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9979,7 +9985,7 @@
         <v>1095.3</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="0"/>
+        <f>G53*C53</f>
         <v>1095.3</v>
       </c>
       <c r="I53" s="17"/>
@@ -9994,15 +10000,15 @@
       <c r="R53" s="12"/>
       <c r="S53" s="12"/>
       <c r="T53" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V53" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V53" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10025,7 +10031,7 @@
         <v>898.9</v>
       </c>
       <c r="H54" s="12">
-        <f t="shared" si="0"/>
+        <f>G54*C54</f>
         <v>3595.6</v>
       </c>
       <c r="I54" s="17"/>
@@ -10040,15 +10046,15 @@
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
       <c r="T54" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V54" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="18">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="V54" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10071,7 +10077,7 @@
         <v>907.4</v>
       </c>
       <c r="H55" s="12">
-        <f t="shared" si="0"/>
+        <f>G55*C55</f>
         <v>907.4</v>
       </c>
       <c r="I55" s="17"/>
@@ -10086,15 +10092,15 @@
       <c r="R55" s="12"/>
       <c r="S55" s="12"/>
       <c r="T55" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V55" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U55" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V55" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10117,7 +10123,7 @@
         <v>907.4</v>
       </c>
       <c r="H56" s="12">
-        <f t="shared" si="0"/>
+        <f>G56*C56</f>
         <v>907.4</v>
       </c>
       <c r="I56" s="17"/>
@@ -10132,15 +10138,15 @@
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
       <c r="T56" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V56" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U56" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V56" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10163,7 +10169,7 @@
         <v>908.5</v>
       </c>
       <c r="H57" s="12">
-        <f t="shared" si="0"/>
+        <f>G57*C57</f>
         <v>908.5</v>
       </c>
       <c r="I57" s="17"/>
@@ -10178,15 +10184,15 @@
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
       <c r="T57" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V57" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V57" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10209,7 +10215,7 @@
         <v>906.5</v>
       </c>
       <c r="H58" s="12">
-        <f t="shared" si="0"/>
+        <f>G58*C58</f>
         <v>906.5</v>
       </c>
       <c r="I58" s="17"/>
@@ -10224,19 +10230,19 @@
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
       <c r="T58" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V58" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U58" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V58" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" hidden="1" customHeight="1" spans="1:22">
+    </row>
+    <row r="59" customHeight="1" spans="1:22">
       <c r="A59" s="12">
         <v>55</v>
       </c>
@@ -10255,7 +10261,7 @@
         <v>899.5</v>
       </c>
       <c r="H59" s="12">
-        <f t="shared" si="0"/>
+        <f>G59*C59</f>
         <v>3598</v>
       </c>
       <c r="I59" s="17"/>
@@ -10272,19 +10278,19 @@
       <c r="R59" s="12"/>
       <c r="S59" s="12"/>
       <c r="T59" s="18">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="U59" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="U59" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V59" s="19" t="str">
-        <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="60" hidden="1" customHeight="1" spans="1:22">
+    <row r="60" customHeight="1" spans="1:22">
       <c r="A60" s="12">
         <v>56</v>
       </c>
@@ -10303,7 +10309,7 @@
         <v>908</v>
       </c>
       <c r="H60" s="12">
-        <f t="shared" si="0"/>
+        <f>G60*C60</f>
         <v>908</v>
       </c>
       <c r="I60" s="17"/>
@@ -10320,19 +10326,19 @@
       <c r="R60" s="12"/>
       <c r="S60" s="12"/>
       <c r="T60" s="18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U60" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U60" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V60" s="19" t="str">
-        <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="61" hidden="1" customHeight="1" spans="1:22">
+    <row r="61" customHeight="1" spans="1:22">
       <c r="A61" s="12">
         <v>57</v>
       </c>
@@ -10351,7 +10357,7 @@
         <v>908</v>
       </c>
       <c r="H61" s="12">
-        <f t="shared" si="0"/>
+        <f>G61*C61</f>
         <v>908</v>
       </c>
       <c r="I61" s="17"/>
@@ -10368,19 +10374,19 @@
       <c r="R61" s="12"/>
       <c r="S61" s="12"/>
       <c r="T61" s="18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U61" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U61" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V61" s="19" t="str">
-        <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="62" hidden="1" customHeight="1" spans="1:22">
+    <row r="62" customHeight="1" spans="1:22">
       <c r="A62" s="12">
         <v>58</v>
       </c>
@@ -10399,7 +10405,7 @@
         <v>908.8</v>
       </c>
       <c r="H62" s="12">
-        <f t="shared" si="0"/>
+        <f>G62*C62</f>
         <v>908.8</v>
       </c>
       <c r="I62" s="17"/>
@@ -10416,19 +10422,19 @@
       <c r="R62" s="12"/>
       <c r="S62" s="12"/>
       <c r="T62" s="18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U62" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V62" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U62" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V62" s="19" t="str">
-        <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="63" hidden="1" customHeight="1" spans="1:22">
+    <row r="63" customHeight="1" spans="1:22">
       <c r="A63" s="12">
         <v>59</v>
       </c>
@@ -10447,7 +10453,7 @@
         <v>906.8</v>
       </c>
       <c r="H63" s="12">
-        <f t="shared" si="0"/>
+        <f>G63*C63</f>
         <v>906.8</v>
       </c>
       <c r="I63" s="17"/>
@@ -10464,15 +10470,15 @@
       <c r="R63" s="12"/>
       <c r="S63" s="12"/>
       <c r="T63" s="18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U63" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U63" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V63" s="19" t="str">
-        <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
@@ -10495,7 +10501,7 @@
         <v>1092.1</v>
       </c>
       <c r="H64" s="12">
-        <f t="shared" si="0"/>
+        <f>G64*C64</f>
         <v>4368.4</v>
       </c>
       <c r="I64" s="17"/>
@@ -10510,15 +10516,15 @@
       <c r="R64" s="12"/>
       <c r="S64" s="12"/>
       <c r="T64" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V64" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U64" s="18">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="V64" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10541,7 +10547,7 @@
         <v>1096.8</v>
       </c>
       <c r="H65" s="12">
-        <f t="shared" si="0"/>
+        <f>G65*C65</f>
         <v>1096.8</v>
       </c>
       <c r="I65" s="17"/>
@@ -10556,15 +10562,15 @@
       <c r="R65" s="12"/>
       <c r="S65" s="12"/>
       <c r="T65" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V65" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V65" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10587,7 +10593,7 @@
         <v>1096.8</v>
       </c>
       <c r="H66" s="12">
-        <f t="shared" si="0"/>
+        <f>G66*C66</f>
         <v>1096.8</v>
       </c>
       <c r="I66" s="17"/>
@@ -10602,15 +10608,15 @@
       <c r="R66" s="12"/>
       <c r="S66" s="12"/>
       <c r="T66" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V66" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U66" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V66" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10633,7 +10639,7 @@
         <v>1097.4</v>
       </c>
       <c r="H67" s="12">
-        <f t="shared" si="0"/>
+        <f>G67*C67</f>
         <v>1097.4</v>
       </c>
       <c r="I67" s="17"/>
@@ -10648,15 +10654,15 @@
       <c r="R67" s="12"/>
       <c r="S67" s="12"/>
       <c r="T67" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U67" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V67" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U67" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V67" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10679,7 +10685,7 @@
         <v>1095.3</v>
       </c>
       <c r="H68" s="12">
-        <f t="shared" si="0"/>
+        <f>G68*C68</f>
         <v>1095.3</v>
       </c>
       <c r="I68" s="17"/>
@@ -10694,15 +10700,15 @@
       <c r="R68" s="12"/>
       <c r="S68" s="12"/>
       <c r="T68" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V68" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U68" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V68" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10725,7 +10731,7 @@
         <v>898.9</v>
       </c>
       <c r="H69" s="12">
-        <f t="shared" ref="H69:H132" si="6">G69*C69</f>
+        <f t="shared" ref="H69:H132" si="5">G69*C69</f>
         <v>3595.6</v>
       </c>
       <c r="I69" s="17"/>
@@ -10740,15 +10746,15 @@
       <c r="R69" s="12"/>
       <c r="S69" s="12"/>
       <c r="T69" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="18">
+        <f t="shared" ref="U69:U89" si="6">C69-T69</f>
+        <v>4</v>
+      </c>
+      <c r="V69" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="18">
-        <f t="shared" ref="U69:U89" si="7">C69-T69</f>
-        <v>4</v>
-      </c>
-      <c r="V69" s="19">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10771,7 +10777,7 @@
         <v>907.4</v>
       </c>
       <c r="H70" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>907.4</v>
       </c>
       <c r="I70" s="17"/>
@@ -10786,15 +10792,15 @@
       <c r="R70" s="12"/>
       <c r="S70" s="12"/>
       <c r="T70" s="18">
-        <f t="shared" ref="T70:T101" si="8">SUM(I70:S70)</f>
+        <f t="shared" ref="T70:T101" si="7">SUM(I70:S70)</f>
         <v>0</v>
       </c>
       <c r="U70" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V70" s="19">
-        <f t="shared" ref="V70:V101" si="9">IF(SUM(I70:S70)=C70,"完成",SUM(I70:S70))</f>
+        <f t="shared" ref="V70:V101" si="8">IF(SUM(I70:S70)=C70,"完成",SUM(I70:S70))</f>
         <v>0</v>
       </c>
     </row>
@@ -10817,7 +10823,7 @@
         <v>907.4</v>
       </c>
       <c r="H71" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>907.4</v>
       </c>
       <c r="I71" s="17"/>
@@ -10832,15 +10838,15 @@
       <c r="R71" s="12"/>
       <c r="S71" s="12"/>
       <c r="T71" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V71" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U71" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V71" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10863,7 +10869,7 @@
         <v>908.5</v>
       </c>
       <c r="H72" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>908.5</v>
       </c>
       <c r="I72" s="17"/>
@@ -10878,15 +10884,15 @@
       <c r="R72" s="12"/>
       <c r="S72" s="12"/>
       <c r="T72" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V72" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U72" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V72" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10909,7 +10915,7 @@
         <v>906.5</v>
       </c>
       <c r="H73" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>906.5</v>
       </c>
       <c r="I73" s="17"/>
@@ -10924,19 +10930,19 @@
       <c r="R73" s="12"/>
       <c r="S73" s="12"/>
       <c r="T73" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V73" s="19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U73" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V73" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" hidden="1" customHeight="1" spans="1:22">
+    </row>
+    <row r="74" customHeight="1" spans="1:22">
       <c r="A74" s="12">
         <v>70</v>
       </c>
@@ -10955,7 +10961,7 @@
         <v>899.5</v>
       </c>
       <c r="H74" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1799</v>
       </c>
       <c r="I74" s="17"/>
@@ -10974,15 +10980,15 @@
       <c r="R74" s="12"/>
       <c r="S74" s="12"/>
       <c r="T74" s="18">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U74" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="U74" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="19" t="str">
-        <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
@@ -11005,11 +11011,13 @@
         <v>908</v>
       </c>
       <c r="H75" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>908</v>
       </c>
       <c r="I75" s="17"/>
-      <c r="J75" s="27"/>
+      <c r="J75" s="27">
+        <v>1</v>
+      </c>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
@@ -11020,19 +11028,19 @@
       <c r="R75" s="12"/>
       <c r="S75" s="12"/>
       <c r="T75" s="18">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U75" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U75" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V75" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" hidden="1" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:22">
       <c r="A76" s="12">
         <v>72</v>
       </c>
@@ -11051,7 +11059,7 @@
         <v>908</v>
       </c>
       <c r="H76" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>908</v>
       </c>
       <c r="I76" s="17"/>
@@ -11068,15 +11076,15 @@
       <c r="R76" s="12"/>
       <c r="S76" s="12"/>
       <c r="T76" s="18">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U76" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U76" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V76" s="19" t="str">
-        <f t="shared" si="9"/>
         <v>完成</v>
       </c>
     </row>
@@ -11099,7 +11107,7 @@
         <v>909.1</v>
       </c>
       <c r="H77" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>909.1</v>
       </c>
       <c r="I77" s="17"/>
@@ -11114,15 +11122,15 @@
       <c r="R77" s="12"/>
       <c r="S77" s="12"/>
       <c r="T77" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V77" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V77" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11145,7 +11153,7 @@
         <v>906.8</v>
       </c>
       <c r="H78" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>906.8</v>
       </c>
       <c r="I78" s="17"/>
@@ -11160,15 +11168,15 @@
       <c r="R78" s="12"/>
       <c r="S78" s="12"/>
       <c r="T78" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V78" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U78" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V78" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11191,7 +11199,7 @@
         <v>1099</v>
       </c>
       <c r="H79" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2198</v>
       </c>
       <c r="I79" s="17"/>
@@ -11206,15 +11214,15 @@
       <c r="R79" s="12"/>
       <c r="S79" s="12"/>
       <c r="T79" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U79" s="18">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="V79" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U79" s="18">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="V79" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11237,7 +11245,7 @@
         <v>1103.7</v>
       </c>
       <c r="H80" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1103.7</v>
       </c>
       <c r="I80" s="17"/>
@@ -11252,15 +11260,15 @@
       <c r="R80" s="12"/>
       <c r="S80" s="12"/>
       <c r="T80" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U80" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V80" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U80" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V80" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11283,7 +11291,7 @@
         <v>1103.7</v>
       </c>
       <c r="H81" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1103.7</v>
       </c>
       <c r="I81" s="17"/>
@@ -11298,15 +11306,15 @@
       <c r="R81" s="12"/>
       <c r="S81" s="12"/>
       <c r="T81" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U81" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V81" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U81" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V81" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11329,7 +11337,7 @@
         <v>1102.8</v>
       </c>
       <c r="H82" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1102.8</v>
       </c>
       <c r="I82" s="17"/>
@@ -11344,15 +11352,15 @@
       <c r="R82" s="12"/>
       <c r="S82" s="12"/>
       <c r="T82" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U82" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V82" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U82" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V82" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11375,7 +11383,7 @@
         <v>1100.8</v>
       </c>
       <c r="H83" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1100.8</v>
       </c>
       <c r="I83" s="17"/>
@@ -11390,15 +11398,15 @@
       <c r="R83" s="12"/>
       <c r="S83" s="12"/>
       <c r="T83" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U83" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V83" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U83" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V83" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11421,7 +11429,7 @@
         <v>898.9</v>
       </c>
       <c r="H84" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1797.8</v>
       </c>
       <c r="I84" s="17"/>
@@ -11436,15 +11444,15 @@
       <c r="R84" s="12"/>
       <c r="S84" s="12"/>
       <c r="T84" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U84" s="18">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="V84" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U84" s="18">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="V84" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11467,7 +11475,7 @@
         <v>907.4</v>
       </c>
       <c r="H85" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>907.4</v>
       </c>
       <c r="I85" s="17"/>
@@ -11482,15 +11490,15 @@
       <c r="R85" s="12"/>
       <c r="S85" s="12"/>
       <c r="T85" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V85" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U85" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V85" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11513,7 +11521,7 @@
         <v>907.4</v>
       </c>
       <c r="H86" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>907.4</v>
       </c>
       <c r="I86" s="17"/>
@@ -11528,15 +11536,15 @@
       <c r="R86" s="12"/>
       <c r="S86" s="12"/>
       <c r="T86" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U86" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V86" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U86" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V86" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11559,7 +11567,7 @@
         <v>909</v>
       </c>
       <c r="H87" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>909</v>
       </c>
       <c r="I87" s="17"/>
@@ -11574,15 +11582,15 @@
       <c r="R87" s="12"/>
       <c r="S87" s="12"/>
       <c r="T87" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U87" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V87" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U87" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V87" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11605,7 +11613,7 @@
         <v>906.7</v>
       </c>
       <c r="H88" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>906.7</v>
       </c>
       <c r="I88" s="17"/>
@@ -11620,15 +11628,15 @@
       <c r="R88" s="12"/>
       <c r="S88" s="12"/>
       <c r="T88" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U88" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V88" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U88" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V88" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11651,7 +11659,7 @@
         <v>2027.1</v>
       </c>
       <c r="H89" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2027.1</v>
       </c>
       <c r="I89" s="17"/>
@@ -11666,15 +11674,15 @@
       <c r="R89" s="12"/>
       <c r="S89" s="12"/>
       <c r="T89" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U89" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V89" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V89" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11697,7 +11705,7 @@
         <v>1651.1</v>
       </c>
       <c r="H90" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>33022</v>
       </c>
       <c r="I90" s="17"/>
@@ -11716,15 +11724,15 @@
       <c r="R90" s="12"/>
       <c r="S90" s="12"/>
       <c r="T90" s="18">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="U90" s="18">
+        <f t="shared" ref="U90:U121" si="9">C90-T90</f>
+        <v>2</v>
+      </c>
+      <c r="V90" s="19">
         <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="U90" s="18">
-        <f t="shared" ref="U90:U121" si="10">C90-T90</f>
-        <v>2</v>
-      </c>
-      <c r="V90" s="19">
-        <f t="shared" si="9"/>
         <v>18</v>
       </c>
     </row>
@@ -11747,7 +11755,7 @@
         <v>1651.1</v>
       </c>
       <c r="H91" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11557.7</v>
       </c>
       <c r="I91" s="17"/>
@@ -11764,15 +11772,15 @@
       <c r="R91" s="12"/>
       <c r="S91" s="12"/>
       <c r="T91" s="18">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="U91" s="18">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V91" s="19">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="U91" s="18">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="V91" s="19">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -11795,7 +11803,7 @@
         <v>1673.2</v>
       </c>
       <c r="H92" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1673.2</v>
       </c>
       <c r="I92" s="17"/>
@@ -11810,15 +11818,15 @@
       <c r="R92" s="12"/>
       <c r="S92" s="12"/>
       <c r="T92" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U92" s="18">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V92" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U92" s="18">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V92" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11841,7 +11849,7 @@
         <v>1141.6</v>
       </c>
       <c r="H93" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2283.2</v>
       </c>
       <c r="I93" s="17"/>
@@ -11858,15 +11866,15 @@
       <c r="R93" s="12"/>
       <c r="S93" s="12"/>
       <c r="T93" s="18">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U93" s="18">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V93" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U93" s="18">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V93" s="19">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -11889,7 +11897,7 @@
         <v>1141.6</v>
       </c>
       <c r="H94" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2283.2</v>
       </c>
       <c r="I94" s="17"/>
@@ -11904,15 +11912,15 @@
       <c r="R94" s="12"/>
       <c r="S94" s="12"/>
       <c r="T94" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U94" s="18">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V94" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U94" s="18">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="V94" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11935,7 +11943,7 @@
         <v>1607.9</v>
       </c>
       <c r="H95" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1607.9</v>
       </c>
       <c r="I95" s="17"/>
@@ -11950,15 +11958,15 @@
       <c r="R95" s="12"/>
       <c r="S95" s="12"/>
       <c r="T95" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U95" s="18">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V95" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U95" s="18">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V95" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11981,7 +11989,7 @@
         <v>1607.9</v>
       </c>
       <c r="H96" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3215.8</v>
       </c>
       <c r="I96" s="17"/>
@@ -11996,15 +12004,15 @@
       <c r="R96" s="12"/>
       <c r="S96" s="12"/>
       <c r="T96" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U96" s="18">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V96" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U96" s="18">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="V96" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12027,7 +12035,7 @@
         <v>1607.9</v>
       </c>
       <c r="H97" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1607.9</v>
       </c>
       <c r="I97" s="17"/>
@@ -12042,15 +12050,15 @@
       <c r="R97" s="12"/>
       <c r="S97" s="12"/>
       <c r="T97" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U97" s="18">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V97" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U97" s="18">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V97" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12073,7 +12081,7 @@
         <v>1507.2</v>
       </c>
       <c r="H98" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1507.2</v>
       </c>
       <c r="I98" s="17"/>
@@ -12088,15 +12096,15 @@
       <c r="R98" s="12"/>
       <c r="S98" s="12"/>
       <c r="T98" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="18">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V98" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U98" s="18">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V98" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12119,7 +12127,7 @@
         <v>238.2</v>
       </c>
       <c r="H99" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3573</v>
       </c>
       <c r="I99" s="17"/>
@@ -12134,15 +12142,15 @@
       <c r="R99" s="12"/>
       <c r="S99" s="12"/>
       <c r="T99" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U99" s="18">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="V99" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U99" s="18">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="V99" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12165,7 +12173,7 @@
         <v>156</v>
       </c>
       <c r="H100" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>624</v>
       </c>
       <c r="I100" s="17"/>
@@ -12180,15 +12188,15 @@
       <c r="R100" s="12"/>
       <c r="S100" s="12"/>
       <c r="T100" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U100" s="18">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="V100" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U100" s="18">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="V100" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12211,7 +12219,7 @@
         <v>227.2</v>
       </c>
       <c r="H101" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>454.4</v>
       </c>
       <c r="I101" s="17"/>
@@ -12226,15 +12234,15 @@
       <c r="R101" s="12"/>
       <c r="S101" s="12"/>
       <c r="T101" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U101" s="18">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V101" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U101" s="18">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="V101" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12257,7 +12265,7 @@
         <v>229.1</v>
       </c>
       <c r="H102" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>916.4</v>
       </c>
       <c r="I102" s="17"/>
@@ -12272,15 +12280,15 @@
       <c r="R102" s="12"/>
       <c r="S102" s="12"/>
       <c r="T102" s="18">
-        <f t="shared" ref="T102:T133" si="11">SUM(I102:S102)</f>
+        <f t="shared" ref="T102:T133" si="10">SUM(I102:S102)</f>
         <v>0</v>
       </c>
       <c r="U102" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="V102" s="19">
-        <f t="shared" ref="V102:V133" si="12">IF(SUM(I102:S102)=C102,"完成",SUM(I102:S102))</f>
+        <f t="shared" ref="V102:V133" si="11">IF(SUM(I102:S102)=C102,"完成",SUM(I102:S102))</f>
         <v>0</v>
       </c>
     </row>
@@ -12303,7 +12311,7 @@
         <v>204.5</v>
       </c>
       <c r="H103" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>204.5</v>
       </c>
       <c r="I103" s="17"/>
@@ -12318,15 +12326,15 @@
       <c r="R103" s="12"/>
       <c r="S103" s="12"/>
       <c r="T103" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U103" s="18">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V103" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U103" s="18">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V103" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12349,7 +12357,7 @@
         <v>5.2</v>
       </c>
       <c r="H104" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1154.4</v>
       </c>
       <c r="I104" s="17"/>
@@ -12364,15 +12372,15 @@
       <c r="R104" s="12"/>
       <c r="S104" s="12"/>
       <c r="T104" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U104" s="18">
+        <f t="shared" si="9"/>
+        <v>222</v>
+      </c>
+      <c r="V104" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U104" s="18">
-        <f t="shared" si="10"/>
-        <v>222</v>
-      </c>
-      <c r="V104" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12395,7 +12403,7 @@
         <v>7.8</v>
       </c>
       <c r="H105" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>413.4</v>
       </c>
       <c r="I105" s="17"/>
@@ -12410,15 +12418,15 @@
       <c r="R105" s="12"/>
       <c r="S105" s="12"/>
       <c r="T105" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U105" s="18">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="V105" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U105" s="18">
-        <f t="shared" si="10"/>
-        <v>53</v>
-      </c>
-      <c r="V105" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12441,7 +12449,7 @@
         <v>3.1</v>
       </c>
       <c r="H106" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>164.3</v>
       </c>
       <c r="I106" s="17"/>
@@ -12456,15 +12464,15 @@
       <c r="R106" s="12"/>
       <c r="S106" s="12"/>
       <c r="T106" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U106" s="18">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="V106" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U106" s="18">
-        <f t="shared" si="10"/>
-        <v>53</v>
-      </c>
-      <c r="V106" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12487,7 +12495,7 @@
         <v>6.2</v>
       </c>
       <c r="H107" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1264.8</v>
       </c>
       <c r="I107" s="17"/>
@@ -12502,15 +12510,15 @@
       <c r="R107" s="12"/>
       <c r="S107" s="12"/>
       <c r="T107" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U107" s="18">
+        <f t="shared" si="9"/>
+        <v>204</v>
+      </c>
+      <c r="V107" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U107" s="18">
-        <f t="shared" si="10"/>
-        <v>204</v>
-      </c>
-      <c r="V107" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12533,7 +12541,7 @@
         <v>8.4</v>
       </c>
       <c r="H108" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="I108" s="17"/>
@@ -12548,15 +12556,15 @@
       <c r="R108" s="12"/>
       <c r="S108" s="12"/>
       <c r="T108" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U108" s="18">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="V108" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U108" s="18">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="V108" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12579,7 +12587,7 @@
         <v>4.3</v>
       </c>
       <c r="H109" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>206.4</v>
       </c>
       <c r="I109" s="17"/>
@@ -12594,15 +12602,15 @@
       <c r="R109" s="12"/>
       <c r="S109" s="12"/>
       <c r="T109" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U109" s="18">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="V109" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U109" s="18">
-        <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="V109" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12625,7 +12633,7 @@
         <v>125.1</v>
       </c>
       <c r="H110" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1626.3</v>
       </c>
       <c r="I110" s="17"/>
@@ -12642,19 +12650,19 @@
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
       <c r="T110" s="18">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="U110" s="18">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="V110" s="19">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="U110" s="18">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="V110" s="19">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" hidden="1" customHeight="1" spans="1:22">
+    </row>
+    <row r="111" customHeight="1" spans="1:22">
       <c r="A111" s="12">
         <v>107</v>
       </c>
@@ -12673,7 +12681,7 @@
         <v>84.8</v>
       </c>
       <c r="H111" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>508.8</v>
       </c>
       <c r="I111" s="17"/>
@@ -12690,15 +12698,15 @@
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
       <c r="T111" s="18">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="U111" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V111" s="19" t="str">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="U111" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V111" s="19" t="str">
-        <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
@@ -12721,7 +12729,7 @@
         <v>119.7</v>
       </c>
       <c r="H112" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>718.2</v>
       </c>
       <c r="I112" s="17"/>
@@ -12736,19 +12744,19 @@
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
       <c r="T112" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U112" s="18">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="V112" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U112" s="18">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="V112" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" hidden="1" customHeight="1" spans="1:22">
+    </row>
+    <row r="113" customHeight="1" spans="1:22">
       <c r="A113" s="12">
         <v>109</v>
       </c>
@@ -12767,7 +12775,7 @@
         <v>120.9</v>
       </c>
       <c r="H113" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>120.9</v>
       </c>
       <c r="I113" s="17"/>
@@ -12784,19 +12792,19 @@
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
       <c r="T113" s="18">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="U113" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V113" s="19" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="U113" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V113" s="19" t="str">
-        <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="114" hidden="1" customHeight="1" spans="1:22">
+    <row r="114" customHeight="1" spans="1:22">
       <c r="A114" s="12">
         <v>110</v>
       </c>
@@ -12815,7 +12823,7 @@
         <v>122.3</v>
       </c>
       <c r="H114" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>122.3</v>
       </c>
       <c r="I114" s="17"/>
@@ -12832,19 +12840,19 @@
       <c r="R114" s="12"/>
       <c r="S114" s="12"/>
       <c r="T114" s="18">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="U114" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V114" s="19" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="U114" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V114" s="19" t="str">
-        <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="115" hidden="1" customHeight="1" spans="1:22">
+    <row r="115" customHeight="1" spans="1:22">
       <c r="A115" s="12">
         <v>111</v>
       </c>
@@ -12863,7 +12871,7 @@
         <v>123.7</v>
       </c>
       <c r="H115" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>123.7</v>
       </c>
       <c r="I115" s="17"/>
@@ -12880,19 +12888,19 @@
       <c r="R115" s="12"/>
       <c r="S115" s="12"/>
       <c r="T115" s="18">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="U115" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V115" s="19" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="U115" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V115" s="19" t="str">
-        <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="116" hidden="1" customHeight="1" spans="1:22">
+    <row r="116" customHeight="1" spans="1:22">
       <c r="A116" s="12">
         <v>112</v>
       </c>
@@ -12911,7 +12919,7 @@
         <v>122</v>
       </c>
       <c r="H116" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
       <c r="I116" s="17"/>
@@ -12928,15 +12936,15 @@
       <c r="R116" s="12"/>
       <c r="S116" s="12"/>
       <c r="T116" s="18">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="U116" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V116" s="19" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="U116" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V116" s="19" t="str">
-        <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
@@ -12959,7 +12967,7 @@
         <v>118.6</v>
       </c>
       <c r="H117" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>118.6</v>
       </c>
       <c r="I117" s="17"/>
@@ -12974,15 +12982,15 @@
       <c r="R117" s="12"/>
       <c r="S117" s="12"/>
       <c r="T117" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U117" s="18">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V117" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U117" s="18">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V117" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13005,7 +13013,7 @@
         <v>115.2</v>
       </c>
       <c r="H118" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>115.2</v>
       </c>
       <c r="I118" s="17"/>
@@ -13020,15 +13028,15 @@
       <c r="R118" s="12"/>
       <c r="S118" s="12"/>
       <c r="T118" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U118" s="18">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V118" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U118" s="18">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V118" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13051,7 +13059,7 @@
         <v>124</v>
       </c>
       <c r="H119" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5580</v>
       </c>
       <c r="I119" s="17"/>
@@ -13068,19 +13076,19 @@
       <c r="R119" s="12"/>
       <c r="S119" s="12"/>
       <c r="T119" s="18">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="U119" s="18">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="V119" s="19">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="U119" s="18">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="V119" s="19">
-        <f t="shared" si="12"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" hidden="1" customHeight="1" spans="1:22">
+    </row>
+    <row r="120" customHeight="1" spans="1:22">
       <c r="A120" s="12">
         <v>116</v>
       </c>
@@ -13099,7 +13107,7 @@
         <v>83.7</v>
       </c>
       <c r="H120" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>753.3</v>
       </c>
       <c r="I120" s="17"/>
@@ -13116,15 +13124,15 @@
       <c r="R120" s="12"/>
       <c r="S120" s="12"/>
       <c r="T120" s="18">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="U120" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V120" s="19" t="str">
         <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="U120" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V120" s="19" t="str">
-        <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
@@ -13147,7 +13155,7 @@
         <v>118.6</v>
       </c>
       <c r="H121" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>711.6</v>
       </c>
       <c r="I121" s="17"/>
@@ -13162,19 +13170,19 @@
       <c r="R121" s="12"/>
       <c r="S121" s="12"/>
       <c r="T121" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U121" s="18">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="V121" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U121" s="18">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="V121" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" hidden="1" customHeight="1" spans="1:22">
+    </row>
+    <row r="122" customHeight="1" spans="1:22">
       <c r="A122" s="12">
         <v>118</v>
       </c>
@@ -13193,7 +13201,7 @@
         <v>73.2</v>
       </c>
       <c r="H122" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>292.8</v>
       </c>
       <c r="I122" s="17"/>
@@ -13210,15 +13218,15 @@
       <c r="R122" s="12"/>
       <c r="S122" s="12"/>
       <c r="T122" s="18">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="U122" s="18">
+        <f t="shared" ref="U122:U164" si="12">C122-T122</f>
+        <v>0</v>
+      </c>
+      <c r="V122" s="19" t="str">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="U122" s="18">
-        <f t="shared" ref="U122:U164" si="13">C122-T122</f>
-        <v>0</v>
-      </c>
-      <c r="V122" s="19" t="str">
-        <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
@@ -13241,7 +13249,7 @@
         <v>75.8</v>
       </c>
       <c r="H123" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>606.4</v>
       </c>
       <c r="I123" s="17"/>
@@ -13256,19 +13264,19 @@
       <c r="R123" s="12"/>
       <c r="S123" s="12"/>
       <c r="T123" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U123" s="18">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="V123" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U123" s="18">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="V123" s="19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" hidden="1" customHeight="1" spans="1:22">
+    </row>
+    <row r="124" customHeight="1" spans="1:22">
       <c r="A124" s="12">
         <v>120</v>
       </c>
@@ -13287,7 +13295,7 @@
         <v>73.1</v>
       </c>
       <c r="H124" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>292.4</v>
       </c>
       <c r="I124" s="17"/>
@@ -13304,15 +13312,15 @@
       <c r="R124" s="12"/>
       <c r="S124" s="12"/>
       <c r="T124" s="18">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="U124" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V124" s="19" t="str">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="U124" s="18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V124" s="19" t="str">
-        <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
@@ -13335,7 +13343,7 @@
         <v>89.2</v>
       </c>
       <c r="H125" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>356.8</v>
       </c>
       <c r="I125" s="17"/>
@@ -13350,15 +13358,15 @@
       <c r="R125" s="12"/>
       <c r="S125" s="12"/>
       <c r="T125" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U125" s="18">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="V125" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U125" s="18">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="V125" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13381,7 +13389,7 @@
         <v>91.3</v>
       </c>
       <c r="H126" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>730.4</v>
       </c>
       <c r="I126" s="17"/>
@@ -13396,15 +13404,15 @@
       <c r="R126" s="12"/>
       <c r="S126" s="12"/>
       <c r="T126" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U126" s="18">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="V126" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U126" s="18">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="V126" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13427,7 +13435,7 @@
         <v>89.1</v>
       </c>
       <c r="H127" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>356.4</v>
       </c>
       <c r="I127" s="17"/>
@@ -13442,15 +13450,15 @@
       <c r="R127" s="12"/>
       <c r="S127" s="12"/>
       <c r="T127" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U127" s="18">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="V127" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U127" s="18">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="V127" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13473,7 +13481,7 @@
         <v>88.9</v>
       </c>
       <c r="H128" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>88.9</v>
       </c>
       <c r="I128" s="17"/>
@@ -13488,15 +13496,15 @@
       <c r="R128" s="12"/>
       <c r="S128" s="12"/>
       <c r="T128" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U128" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V128" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U128" s="18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V128" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13519,7 +13527,7 @@
         <v>90.3</v>
       </c>
       <c r="H129" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>90.3</v>
       </c>
       <c r="I129" s="17"/>
@@ -13534,15 +13542,15 @@
       <c r="R129" s="12"/>
       <c r="S129" s="12"/>
       <c r="T129" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U129" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V129" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U129" s="18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V129" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13565,7 +13573,7 @@
         <v>90.9</v>
       </c>
       <c r="H130" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>90.9</v>
       </c>
       <c r="I130" s="17"/>
@@ -13580,15 +13588,15 @@
       <c r="R130" s="12"/>
       <c r="S130" s="12"/>
       <c r="T130" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U130" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V130" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U130" s="18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V130" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13611,7 +13619,7 @@
         <v>92.4</v>
       </c>
       <c r="H131" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>92.4</v>
       </c>
       <c r="I131" s="17"/>
@@ -13626,15 +13634,15 @@
       <c r="R131" s="12"/>
       <c r="S131" s="12"/>
       <c r="T131" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U131" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V131" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U131" s="18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V131" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13657,7 +13665,7 @@
         <v>89.2</v>
       </c>
       <c r="H132" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>89.2</v>
       </c>
       <c r="I132" s="17"/>
@@ -13672,15 +13680,15 @@
       <c r="R132" s="12"/>
       <c r="S132" s="12"/>
       <c r="T132" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U132" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V132" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U132" s="18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V132" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13703,7 +13711,7 @@
         <v>90.7</v>
       </c>
       <c r="H133" s="12">
-        <f t="shared" ref="H133:H164" si="14">G133*C133</f>
+        <f t="shared" ref="H133:H164" si="13">G133*C133</f>
         <v>90.7</v>
       </c>
       <c r="I133" s="17"/>
@@ -13718,15 +13726,15 @@
       <c r="R133" s="12"/>
       <c r="S133" s="12"/>
       <c r="T133" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U133" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V133" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U133" s="18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V133" s="19">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13749,7 +13757,7 @@
         <v>87.4</v>
       </c>
       <c r="H134" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>87.4</v>
       </c>
       <c r="I134" s="17"/>
@@ -13764,15 +13772,15 @@
       <c r="R134" s="12"/>
       <c r="S134" s="12"/>
       <c r="T134" s="18">
-        <f t="shared" ref="T134:T164" si="15">SUM(I134:S134)</f>
+        <f t="shared" ref="T134:T164" si="14">SUM(I134:S134)</f>
         <v>0</v>
       </c>
       <c r="U134" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="V134" s="19">
-        <f t="shared" ref="V134:V164" si="16">IF(SUM(I134:S134)=C134,"完成",SUM(I134:S134))</f>
+        <f t="shared" ref="V134:V164" si="15">IF(SUM(I134:S134)=C134,"完成",SUM(I134:S134))</f>
         <v>0</v>
       </c>
     </row>
@@ -13795,7 +13803,7 @@
         <v>88.8</v>
       </c>
       <c r="H135" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>88.8</v>
       </c>
       <c r="I135" s="17"/>
@@ -13810,15 +13818,15 @@
       <c r="R135" s="12"/>
       <c r="S135" s="12"/>
       <c r="T135" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U135" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V135" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U135" s="18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V135" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13841,7 +13849,7 @@
         <v>87.7</v>
       </c>
       <c r="H136" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>87.7</v>
       </c>
       <c r="I136" s="17"/>
@@ -13856,15 +13864,15 @@
       <c r="R136" s="12"/>
       <c r="S136" s="12"/>
       <c r="T136" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U136" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V136" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U136" s="18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V136" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13887,7 +13895,7 @@
         <v>88.3</v>
       </c>
       <c r="H137" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>88.3</v>
       </c>
       <c r="I137" s="17"/>
@@ -13902,15 +13910,15 @@
       <c r="R137" s="12"/>
       <c r="S137" s="12"/>
       <c r="T137" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U137" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V137" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U137" s="18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V137" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13933,7 +13941,7 @@
         <v>92</v>
       </c>
       <c r="H138" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>92</v>
       </c>
       <c r="I138" s="17"/>
@@ -13948,15 +13956,15 @@
       <c r="R138" s="12"/>
       <c r="S138" s="12"/>
       <c r="T138" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U138" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V138" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U138" s="18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V138" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13979,7 +13987,7 @@
         <v>92.6</v>
       </c>
       <c r="H139" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>92.6</v>
       </c>
       <c r="I139" s="17"/>
@@ -13994,15 +14002,15 @@
       <c r="R139" s="12"/>
       <c r="S139" s="12"/>
       <c r="T139" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U139" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V139" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U139" s="18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V139" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14025,7 +14033,7 @@
         <v>92.6</v>
       </c>
       <c r="H140" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>92.6</v>
       </c>
       <c r="I140" s="17"/>
@@ -14040,15 +14048,15 @@
       <c r="R140" s="12"/>
       <c r="S140" s="12"/>
       <c r="T140" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U140" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V140" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U140" s="18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V140" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14071,7 +14079,7 @@
         <v>93.3</v>
       </c>
       <c r="H141" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>93.3</v>
       </c>
       <c r="I141" s="17"/>
@@ -14086,15 +14094,15 @@
       <c r="R141" s="12"/>
       <c r="S141" s="12"/>
       <c r="T141" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U141" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V141" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U141" s="18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V141" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14117,7 +14125,7 @@
         <v>93</v>
       </c>
       <c r="H142" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>93</v>
       </c>
       <c r="I142" s="17"/>
@@ -14132,15 +14140,15 @@
       <c r="R142" s="12"/>
       <c r="S142" s="12"/>
       <c r="T142" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U142" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V142" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U142" s="18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V142" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14163,7 +14171,7 @@
         <v>93.6</v>
       </c>
       <c r="H143" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>93.6</v>
       </c>
       <c r="I143" s="17"/>
@@ -14178,15 +14186,15 @@
       <c r="R143" s="12"/>
       <c r="S143" s="12"/>
       <c r="T143" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U143" s="18">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V143" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U143" s="18">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V143" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14209,7 +14217,7 @@
         <v>411.8</v>
       </c>
       <c r="H144" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2470.8</v>
       </c>
       <c r="I144" s="17"/>
@@ -14224,15 +14232,15 @@
       <c r="R144" s="12"/>
       <c r="S144" s="12"/>
       <c r="T144" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U144" s="18">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="V144" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U144" s="18">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="V144" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14255,7 +14263,7 @@
         <v>187.3</v>
       </c>
       <c r="H145" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2247.6</v>
       </c>
       <c r="I145" s="17"/>
@@ -14270,15 +14278,15 @@
       <c r="R145" s="12"/>
       <c r="S145" s="12"/>
       <c r="T145" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U145" s="18">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="V145" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U145" s="18">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="V145" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14301,7 +14309,7 @@
         <v>518</v>
       </c>
       <c r="H146" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3108</v>
       </c>
       <c r="I146" s="17"/>
@@ -14316,15 +14324,15 @@
       <c r="R146" s="12"/>
       <c r="S146" s="12"/>
       <c r="T146" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U146" s="18">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="V146" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U146" s="18">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="V146" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14347,7 +14355,7 @@
         <v>235.6</v>
       </c>
       <c r="H147" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2827.2</v>
       </c>
       <c r="I147" s="17"/>
@@ -14362,15 +14370,15 @@
       <c r="R147" s="12"/>
       <c r="S147" s="12"/>
       <c r="T147" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U147" s="18">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="V147" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U147" s="18">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="V147" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14393,7 +14401,7 @@
         <v>102.2</v>
       </c>
       <c r="H148" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>204.4</v>
       </c>
       <c r="I148" s="17"/>
@@ -14408,15 +14416,15 @@
       <c r="R148" s="12"/>
       <c r="S148" s="12"/>
       <c r="T148" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U148" s="18">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="V148" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U148" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="V148" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14439,7 +14447,7 @@
         <v>120.3</v>
       </c>
       <c r="H149" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>240.6</v>
       </c>
       <c r="I149" s="17"/>
@@ -14454,15 +14462,15 @@
       <c r="R149" s="12"/>
       <c r="S149" s="12"/>
       <c r="T149" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U149" s="18">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="V149" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U149" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="V149" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14485,7 +14493,7 @@
         <v>153.5</v>
       </c>
       <c r="H150" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>307</v>
       </c>
       <c r="I150" s="17"/>
@@ -14500,15 +14508,15 @@
       <c r="R150" s="12"/>
       <c r="S150" s="12"/>
       <c r="T150" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U150" s="18">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="V150" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U150" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="V150" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14531,7 +14539,7 @@
         <v>143.6</v>
       </c>
       <c r="H151" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>287.2</v>
       </c>
       <c r="I151" s="17"/>
@@ -14546,15 +14554,15 @@
       <c r="R151" s="12"/>
       <c r="S151" s="12"/>
       <c r="T151" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U151" s="18">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="V151" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U151" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="V151" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14577,7 +14585,7 @@
         <v>157.3</v>
       </c>
       <c r="H152" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>314.6</v>
       </c>
       <c r="I152" s="17"/>
@@ -14592,15 +14600,15 @@
       <c r="R152" s="12"/>
       <c r="S152" s="12"/>
       <c r="T152" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U152" s="18">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="V152" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U152" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="V152" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14623,7 +14631,7 @@
         <v>184.5</v>
       </c>
       <c r="H153" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>369</v>
       </c>
       <c r="I153" s="17"/>
@@ -14638,15 +14646,15 @@
       <c r="R153" s="12"/>
       <c r="S153" s="12"/>
       <c r="T153" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U153" s="18">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="V153" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U153" s="18">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="V153" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14669,7 +14677,7 @@
         <v>3.1</v>
       </c>
       <c r="H154" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>24.8</v>
       </c>
       <c r="I154" s="17"/>
@@ -14684,15 +14692,15 @@
       <c r="R154" s="12"/>
       <c r="S154" s="12"/>
       <c r="T154" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U154" s="18">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="V154" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U154" s="18">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="V154" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14715,7 +14723,7 @@
         <v>2.9</v>
       </c>
       <c r="H155" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>23.2</v>
       </c>
       <c r="I155" s="17"/>
@@ -14730,15 +14738,15 @@
       <c r="R155" s="12"/>
       <c r="S155" s="12"/>
       <c r="T155" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U155" s="18">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="V155" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U155" s="18">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="V155" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14761,7 +14769,7 @@
         <v>2.6</v>
       </c>
       <c r="H156" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>20.8</v>
       </c>
       <c r="I156" s="17"/>
@@ -14776,15 +14784,15 @@
       <c r="R156" s="12"/>
       <c r="S156" s="12"/>
       <c r="T156" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U156" s="18">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="V156" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U156" s="18">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="V156" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14807,7 +14815,7 @@
         <v>2.4</v>
       </c>
       <c r="H157" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>432</v>
       </c>
       <c r="I157" s="17"/>
@@ -14822,15 +14830,15 @@
       <c r="R157" s="12"/>
       <c r="S157" s="12"/>
       <c r="T157" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U157" s="18">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="V157" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U157" s="18">
-        <f t="shared" si="13"/>
-        <v>180</v>
-      </c>
-      <c r="V157" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14853,7 +14861,7 @@
         <v>2.5</v>
       </c>
       <c r="H158" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="I158" s="17"/>
@@ -14868,15 +14876,15 @@
       <c r="R158" s="12"/>
       <c r="S158" s="12"/>
       <c r="T158" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U158" s="18">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="V158" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U158" s="18">
-        <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="V158" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14899,7 +14907,7 @@
         <v>2.7</v>
       </c>
       <c r="H159" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>97.2</v>
       </c>
       <c r="I159" s="17"/>
@@ -14914,15 +14922,15 @@
       <c r="R159" s="12"/>
       <c r="S159" s="12"/>
       <c r="T159" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U159" s="18">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="V159" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U159" s="18">
-        <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="V159" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14945,7 +14953,7 @@
         <v>3</v>
       </c>
       <c r="H160" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>108</v>
       </c>
       <c r="I160" s="17"/>
@@ -14960,15 +14968,15 @@
       <c r="R160" s="12"/>
       <c r="S160" s="12"/>
       <c r="T160" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U160" s="18">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="V160" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U160" s="18">
-        <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="V160" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14991,7 +14999,7 @@
         <v>3.2</v>
       </c>
       <c r="H161" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>115.2</v>
       </c>
       <c r="I161" s="17"/>
@@ -15006,15 +15014,15 @@
       <c r="R161" s="12"/>
       <c r="S161" s="12"/>
       <c r="T161" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U161" s="18">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="V161" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U161" s="18">
-        <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="V161" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15037,7 +15045,7 @@
         <v>3.1</v>
       </c>
       <c r="H162" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>86.8</v>
       </c>
       <c r="I162" s="17"/>
@@ -15052,15 +15060,15 @@
       <c r="R162" s="12"/>
       <c r="S162" s="12"/>
       <c r="T162" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U162" s="18">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="V162" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U162" s="18">
-        <f t="shared" si="13"/>
-        <v>28</v>
-      </c>
-      <c r="V162" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15083,7 +15091,7 @@
         <v>2.9</v>
       </c>
       <c r="H163" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>81.2</v>
       </c>
       <c r="I163" s="17"/>
@@ -15098,15 +15106,15 @@
       <c r="R163" s="12"/>
       <c r="S163" s="12"/>
       <c r="T163" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U163" s="18">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="V163" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U163" s="18">
-        <f t="shared" si="13"/>
-        <v>28</v>
-      </c>
-      <c r="V163" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15129,7 +15137,7 @@
         <v>2.6</v>
       </c>
       <c r="H164" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>72.8</v>
       </c>
       <c r="I164" s="17"/>
@@ -15144,31 +15152,20 @@
       <c r="R164" s="12"/>
       <c r="S164" s="12"/>
       <c r="T164" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U164" s="18">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="V164" s="19">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U164" s="18">
-        <f t="shared" si="13"/>
-        <v>28</v>
-      </c>
-      <c r="V164" s="19">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:W164">
-    <filterColumn colId="21">
-      <filters>
-        <filter val="0"/>
-        <filter val="1"/>
-        <filter val="2"/>
-        <filter val="4"/>
-        <filter val="5"/>
-        <filter val="25"/>
-        <filter val="18"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A4:W164">
       <sortCondition ref="I4:I89"/>
     </sortState>
@@ -15200,11 +15197,11 @@
   <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I67" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>

--- a/油漆统计.xlsx
+++ b/油漆统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="1"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="义乌奥晶办公室食堂 （完成）" sheetId="3" r:id="rId1"/>
@@ -1111,13 +1111,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="27">
@@ -1182,16 +1182,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1207,22 +1222,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,31 +1249,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1288,19 +1280,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1339,7 +1339,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,7 +1417,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,7 +1495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,145 +1513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,6 +1581,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1592,6 +1636,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1611,32 +1664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1651,33 +1678,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1689,7 +1689,7 @@
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1698,37 +1698,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1737,97 +1737,97 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4630,7 +4630,7 @@
   <sheetPr/>
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -7519,11 +7519,11 @@
   <dimension ref="A1:W164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I107" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -8690,7 +8690,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:22">
+    <row r="26" hidden="1" customHeight="1" spans="1:22">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -8705,14 +8705,16 @@
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="22"/>
-      <c r="G26" s="22">
+      <c r="G26" s="12">
         <v>2744.4</v>
       </c>
       <c r="H26" s="12">
         <f t="shared" si="0"/>
         <v>2744.4</v>
       </c>
-      <c r="I26" s="17"/>
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
@@ -8725,15 +8727,15 @@
       <c r="S26" s="12"/>
       <c r="T26" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V26" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V26" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="27" hidden="1" customHeight="1" spans="1:22">
@@ -8784,7 +8786,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:22">
+    <row r="28" hidden="1" customHeight="1" spans="1:22">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -8807,7 +8809,9 @@
         <v>2423.2</v>
       </c>
       <c r="I28" s="17"/>
-      <c r="J28" s="12"/>
+      <c r="J28" s="12">
+        <v>1</v>
+      </c>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
@@ -8819,18 +8823,18 @@
       <c r="S28" s="12"/>
       <c r="T28" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V28" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:22">
+        <v>0</v>
+      </c>
+      <c r="V28" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" customHeight="1" spans="1:22">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -8853,7 +8857,9 @@
         <v>2358.2</v>
       </c>
       <c r="I29" s="17"/>
-      <c r="J29" s="12"/>
+      <c r="J29" s="12">
+        <v>1</v>
+      </c>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
@@ -8865,15 +8871,15 @@
       <c r="S29" s="12"/>
       <c r="T29" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V29" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V29" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="30" hidden="1" customHeight="1" spans="1:22">
@@ -10986,7 +10992,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:22">
+    <row r="75" hidden="1" customHeight="1" spans="1:22">
       <c r="A75" s="12">
         <v>71</v>
       </c>
@@ -11009,7 +11015,9 @@
         <v>908</v>
       </c>
       <c r="I75" s="17"/>
-      <c r="J75" s="27"/>
+      <c r="J75" s="27">
+        <v>1</v>
+      </c>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
@@ -11021,15 +11029,15 @@
       <c r="S75" s="12"/>
       <c r="T75" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" s="18">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V75" s="19">
+        <v>0</v>
+      </c>
+      <c r="V75" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="76" hidden="1" customHeight="1" spans="1:22">
@@ -15199,12 +15207,12 @@
   <sheetPr/>
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="I19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -15317,7 +15325,9 @@
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="12">
+        <v>1.28</v>
+      </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -16216,7 +16226,9 @@
         <f t="shared" si="0"/>
         <v>13642.6</v>
       </c>
-      <c r="I25" s="17"/>
+      <c r="I25" s="17">
+        <v>1</v>
+      </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
@@ -16224,15 +16236,15 @@
       <c r="N25" s="12"/>
       <c r="O25" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:17">

--- a/油漆统计.xlsx
+++ b/油漆统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="义乌奥晶办公室食堂 （完成）" sheetId="3" r:id="rId1"/>
@@ -1111,13 +1111,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="27">
@@ -1169,6 +1169,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1176,14 +1190,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,22 +1228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,21 +1236,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1264,6 +1272,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1273,39 +1305,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1339,7 +1339,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,31 +1483,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,127 +1513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,22 +1590,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1621,6 +1616,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1648,36 +1678,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1686,10 +1686,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1698,136 +1698,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7515,15 +7515,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:W164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I107" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N49" sqref="N49"/>
+      <selection pane="bottomRight" activeCell="O37" sqref="O37:O124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -7673,7 +7673,9 @@
       <c r="O4" s="24">
         <v>1.27</v>
       </c>
-      <c r="P4" s="24"/>
+      <c r="P4" s="24">
+        <v>1.29</v>
+      </c>
       <c r="Q4" s="24"/>
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
@@ -7685,7 +7687,7 @@
       </c>
       <c r="V4" s="8"/>
     </row>
-    <row r="5" hidden="1" customHeight="1" spans="1:22">
+    <row r="5" customHeight="1" spans="1:22">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -7733,7 +7735,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="6" hidden="1" customHeight="1" spans="1:22">
+    <row r="6" customHeight="1" spans="1:22">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -7781,7 +7783,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="7" hidden="1" customHeight="1" spans="1:22">
+    <row r="7" customHeight="1" spans="1:22">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -7829,7 +7831,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="8" hidden="1" customHeight="1" spans="1:22">
+    <row r="8" customHeight="1" spans="1:22">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -7877,7 +7879,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="9" hidden="1" customHeight="1" spans="1:22">
+    <row r="9" customHeight="1" spans="1:22">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -7925,7 +7927,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="10" hidden="1" customHeight="1" spans="1:22">
+    <row r="10" customHeight="1" spans="1:22">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -7973,7 +7975,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="11" hidden="1" customHeight="1" spans="1:22">
+    <row r="11" customHeight="1" spans="1:22">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -8021,7 +8023,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="12" hidden="1" customHeight="1" spans="1:22">
+    <row r="12" customHeight="1" spans="1:22">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -8069,7 +8071,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="13" hidden="1" customHeight="1" spans="1:22">
+    <row r="13" customHeight="1" spans="1:22">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -8117,7 +8119,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="14" hidden="1" customHeight="1" spans="1:22">
+    <row r="14" customHeight="1" spans="1:22">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -8165,7 +8167,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="15" hidden="1" customHeight="1" spans="1:22">
+    <row r="15" customHeight="1" spans="1:22">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -8213,7 +8215,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="16" hidden="1" customHeight="1" spans="1:22">
+    <row r="16" customHeight="1" spans="1:22">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -8353,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" hidden="1" customHeight="1" spans="1:22">
+    <row r="19" customHeight="1" spans="1:22">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -8401,7 +8403,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="20" hidden="1" customHeight="1" spans="1:22">
+    <row r="20" customHeight="1" spans="1:22">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -8449,7 +8451,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="21" hidden="1" customHeight="1" spans="1:22">
+    <row r="21" customHeight="1" spans="1:22">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -8497,7 +8499,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="22" hidden="1" customHeight="1" spans="1:23">
+    <row r="22" customHeight="1" spans="1:23">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -8546,7 +8548,7 @@
       </c>
       <c r="W22" s="20"/>
     </row>
-    <row r="23" hidden="1" customHeight="1" spans="1:22">
+    <row r="23" customHeight="1" spans="1:22">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -8594,7 +8596,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="24" hidden="1" customHeight="1" spans="1:22">
+    <row r="24" customHeight="1" spans="1:22">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -8642,7 +8644,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="25" hidden="1" customHeight="1" spans="1:22">
+    <row r="25" customHeight="1" spans="1:22">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -8690,7 +8692,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="26" hidden="1" customHeight="1" spans="1:22">
+    <row r="26" customHeight="1" spans="1:22">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -8738,7 +8740,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="27" hidden="1" customHeight="1" spans="1:22">
+    <row r="27" customHeight="1" spans="1:22">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -8786,7 +8788,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="28" hidden="1" customHeight="1" spans="1:22">
+    <row r="28" customHeight="1" spans="1:22">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -8834,7 +8836,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="29" hidden="1" customHeight="1" spans="1:22">
+    <row r="29" customHeight="1" spans="1:22">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -8882,7 +8884,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="30" hidden="1" customHeight="1" spans="1:22">
+    <row r="30" customHeight="1" spans="1:22">
       <c r="A30" s="12">
         <v>26</v>
       </c>
@@ -8932,7 +8934,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="31" hidden="1" customHeight="1" spans="1:22">
+    <row r="31" customHeight="1" spans="1:22">
       <c r="A31" s="12">
         <v>27</v>
       </c>
@@ -8980,7 +8982,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="32" hidden="1" customHeight="1" spans="1:22">
+    <row r="32" customHeight="1" spans="1:22">
       <c r="A32" s="12">
         <v>28</v>
       </c>
@@ -9028,7 +9030,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="33" hidden="1" customHeight="1" spans="1:22">
+    <row r="33" customHeight="1" spans="1:22">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -9076,7 +9078,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="34" hidden="1" customHeight="1" spans="1:22">
+    <row r="34" customHeight="1" spans="1:22">
       <c r="A34" s="12">
         <v>30</v>
       </c>
@@ -9124,7 +9126,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="35" hidden="1" customHeight="1" spans="1:22">
+    <row r="35" customHeight="1" spans="1:22">
       <c r="A35" s="12">
         <v>31</v>
       </c>
@@ -9172,7 +9174,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="36" hidden="1" customHeight="1" spans="1:22">
+    <row r="36" customHeight="1" spans="1:22">
       <c r="A36" s="12">
         <v>32</v>
       </c>
@@ -9544,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" hidden="1" customHeight="1" spans="1:22">
+    <row r="44" customHeight="1" spans="1:22">
       <c r="A44" s="12">
         <v>40</v>
       </c>
@@ -9592,7 +9594,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="45" hidden="1" customHeight="1" spans="1:22">
+    <row r="45" customHeight="1" spans="1:22">
       <c r="A45" s="12">
         <v>41</v>
       </c>
@@ -9640,7 +9642,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="46" hidden="1" customHeight="1" spans="1:22">
+    <row r="46" customHeight="1" spans="1:22">
       <c r="A46" s="12">
         <v>42</v>
       </c>
@@ -9688,7 +9690,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="47" hidden="1" customHeight="1" spans="1:22">
+    <row r="47" customHeight="1" spans="1:22">
       <c r="A47" s="12">
         <v>43</v>
       </c>
@@ -10242,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" hidden="1" customHeight="1" spans="1:22">
+    <row r="59" customHeight="1" spans="1:22">
       <c r="A59" s="12">
         <v>55</v>
       </c>
@@ -10290,7 +10292,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="60" hidden="1" customHeight="1" spans="1:22">
+    <row r="60" customHeight="1" spans="1:22">
       <c r="A60" s="12">
         <v>56</v>
       </c>
@@ -10338,7 +10340,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="61" hidden="1" customHeight="1" spans="1:22">
+    <row r="61" customHeight="1" spans="1:22">
       <c r="A61" s="12">
         <v>57</v>
       </c>
@@ -10386,7 +10388,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="62" hidden="1" customHeight="1" spans="1:22">
+    <row r="62" customHeight="1" spans="1:22">
       <c r="A62" s="12">
         <v>58</v>
       </c>
@@ -10434,7 +10436,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="63" hidden="1" customHeight="1" spans="1:22">
+    <row r="63" customHeight="1" spans="1:22">
       <c r="A63" s="12">
         <v>59</v>
       </c>
@@ -10942,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" hidden="1" customHeight="1" spans="1:22">
+    <row r="74" customHeight="1" spans="1:22">
       <c r="A74" s="12">
         <v>70</v>
       </c>
@@ -10992,7 +10994,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="75" hidden="1" customHeight="1" spans="1:22">
+    <row r="75" customHeight="1" spans="1:22">
       <c r="A75" s="12">
         <v>71</v>
       </c>
@@ -11040,7 +11042,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="76" hidden="1" customHeight="1" spans="1:22">
+    <row r="76" customHeight="1" spans="1:22">
       <c r="A76" s="12">
         <v>72</v>
       </c>
@@ -11719,21 +11721,23 @@
       <c r="O90" s="12">
         <v>4</v>
       </c>
-      <c r="P90" s="12"/>
+      <c r="P90" s="12">
+        <v>2</v>
+      </c>
       <c r="Q90" s="12"/>
       <c r="R90" s="12"/>
       <c r="S90" s="12"/>
       <c r="T90" s="18">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U90" s="18">
         <f t="shared" ref="U90:U121" si="10">C90-T90</f>
-        <v>2</v>
-      </c>
-      <c r="V90" s="19">
+        <v>0</v>
+      </c>
+      <c r="V90" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:22">
@@ -11767,21 +11771,23 @@
       <c r="O91" s="12">
         <v>2</v>
       </c>
-      <c r="P91" s="12"/>
+      <c r="P91" s="12">
+        <v>5</v>
+      </c>
       <c r="Q91" s="12"/>
       <c r="R91" s="12"/>
       <c r="S91" s="12"/>
       <c r="T91" s="18">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U91" s="18">
         <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="V91" s="19">
+        <v>0</v>
+      </c>
+      <c r="V91" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:22">
@@ -11813,21 +11819,23 @@
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
       <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
+      <c r="P92" s="12">
+        <v>1</v>
+      </c>
       <c r="Q92" s="12"/>
       <c r="R92" s="12"/>
       <c r="S92" s="12"/>
       <c r="T92" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U92" s="18">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V92" s="19">
+        <v>0</v>
+      </c>
+      <c r="V92" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:22">
@@ -11861,21 +11869,23 @@
       <c r="O93" s="12">
         <v>1</v>
       </c>
-      <c r="P93" s="12"/>
+      <c r="P93" s="12">
+        <v>1</v>
+      </c>
       <c r="Q93" s="12"/>
       <c r="R93" s="12"/>
       <c r="S93" s="12"/>
       <c r="T93" s="18">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U93" s="18">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V93" s="19">
+        <v>0</v>
+      </c>
+      <c r="V93" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:22">
@@ -11907,21 +11917,23 @@
       <c r="M94" s="12"/>
       <c r="N94" s="12"/>
       <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
+      <c r="P94" s="12">
+        <v>2</v>
+      </c>
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
       <c r="S94" s="12"/>
       <c r="T94" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U94" s="18">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="V94" s="19">
+        <v>0</v>
+      </c>
+      <c r="V94" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:22">
@@ -11953,21 +11965,23 @@
       <c r="M95" s="12"/>
       <c r="N95" s="12"/>
       <c r="O95" s="12"/>
-      <c r="P95" s="12"/>
+      <c r="P95" s="12">
+        <v>1</v>
+      </c>
       <c r="Q95" s="12"/>
       <c r="R95" s="12"/>
       <c r="S95" s="12"/>
       <c r="T95" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U95" s="18">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V95" s="19">
+        <v>0</v>
+      </c>
+      <c r="V95" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:22">
@@ -11999,21 +12013,23 @@
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
       <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
+      <c r="P96" s="12">
+        <v>2</v>
+      </c>
       <c r="Q96" s="12"/>
       <c r="R96" s="12"/>
       <c r="S96" s="12"/>
       <c r="T96" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U96" s="18">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="V96" s="19">
+        <v>0</v>
+      </c>
+      <c r="V96" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:22">
@@ -12045,21 +12061,23 @@
       <c r="M97" s="12"/>
       <c r="N97" s="12"/>
       <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
+      <c r="P97" s="12">
+        <v>1</v>
+      </c>
       <c r="Q97" s="12"/>
       <c r="R97" s="12"/>
       <c r="S97" s="12"/>
       <c r="T97" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U97" s="18">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V97" s="19">
+        <v>0</v>
+      </c>
+      <c r="V97" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:22">
@@ -12091,21 +12109,23 @@
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
       <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
+      <c r="P98" s="12">
+        <v>1</v>
+      </c>
       <c r="Q98" s="12"/>
       <c r="R98" s="12"/>
       <c r="S98" s="12"/>
       <c r="T98" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U98" s="18">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V98" s="19">
+        <v>0</v>
+      </c>
+      <c r="V98" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:22">
@@ -12662,7 +12682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" hidden="1" customHeight="1" spans="1:22">
+    <row r="111" customHeight="1" spans="1:22">
       <c r="A111" s="12">
         <v>107</v>
       </c>
@@ -12756,7 +12776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" hidden="1" customHeight="1" spans="1:22">
+    <row r="113" customHeight="1" spans="1:22">
       <c r="A113" s="12">
         <v>109</v>
       </c>
@@ -12804,7 +12824,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="114" hidden="1" customHeight="1" spans="1:22">
+    <row r="114" customHeight="1" spans="1:22">
       <c r="A114" s="12">
         <v>110</v>
       </c>
@@ -12852,7 +12872,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="115" hidden="1" customHeight="1" spans="1:22">
+    <row r="115" customHeight="1" spans="1:22">
       <c r="A115" s="12">
         <v>111</v>
       </c>
@@ -12900,7 +12920,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="116" hidden="1" customHeight="1" spans="1:22">
+    <row r="116" customHeight="1" spans="1:22">
       <c r="A116" s="12">
         <v>112</v>
       </c>
@@ -13088,7 +13108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" hidden="1" customHeight="1" spans="1:22">
+    <row r="120" customHeight="1" spans="1:22">
       <c r="A120" s="12">
         <v>116</v>
       </c>
@@ -13182,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" hidden="1" customHeight="1" spans="1:22">
+    <row r="122" customHeight="1" spans="1:22">
       <c r="A122" s="12">
         <v>118</v>
       </c>
@@ -13276,7 +13296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" hidden="1" customHeight="1" spans="1:22">
+    <row r="124" customHeight="1" spans="1:22">
       <c r="A124" s="12">
         <v>120</v>
       </c>
@@ -15166,17 +15186,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:W164">
-    <filterColumn colId="21">
-      <filters>
-        <filter val="0"/>
-        <filter val="1"/>
-        <filter val="2"/>
-        <filter val="4"/>
-        <filter val="5"/>
-        <filter val="25"/>
-        <filter val="18"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A4:W164">
       <sortCondition ref="I4:I89"/>
     </sortState>
@@ -15207,8 +15216,8 @@
   <sheetPr/>
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I19" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/油漆统计.xlsx
+++ b/油漆统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="2"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="义乌奥晶办公室食堂 （完成）" sheetId="3" r:id="rId1"/>
@@ -1111,14 +1111,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1169,19 +1169,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1189,8 +1235,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1204,21 +1258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1227,14 +1266,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1250,13 +1289,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1266,23 +1298,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,22 +1306,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1339,25 +1339,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,7 +1453,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,133 +1495,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,15 +1581,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1601,56 +1592,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1674,7 +1615,66 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1686,10 +1686,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1698,136 +1698,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2253,7 +2253,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -4635,7 +4635,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -7518,12 +7518,12 @@
   <sheetPr/>
   <dimension ref="A1:W164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="I91" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O37" sqref="O37:O124"/>
+      <selection pane="bottomRight" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -15216,12 +15216,12 @@
   <sheetPr/>
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>

--- a/油漆统计.xlsx
+++ b/油漆统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="3"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="义乌奥晶办公室食堂 （完成）" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'义乌奥晶办公室食堂 （完成）'!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">福州地铁!$A$4:$R$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'广东华丰 '!$A$4:$W$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'广东华丰 '!$A$4:$W$166</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'大东海 '!$A$4:$R$83</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">福州地铁!$A$2:$H$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'义乌奥晶办公室食堂 （完成）'!$A$2:$H$29</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="361">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -429,6 +429,12 @@
   </si>
   <si>
     <t>KFZ7</t>
+  </si>
+  <si>
+    <t>KFZ8</t>
+  </si>
+  <si>
+    <t>KFZ9</t>
   </si>
   <si>
     <t>GL1</t>
@@ -1111,14 +1117,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1175,17 +1181,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,23 +1203,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,37 +1234,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1281,8 +1249,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1297,6 +1273,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1304,11 +1311,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1345,7 +1351,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1357,7 +1387,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,13 +1435,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,127 +1513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,17 +1587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1607,15 +1613,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1649,6 +1646,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1658,23 +1664,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1686,10 +1692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1698,136 +1704,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1847,7 +1853,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1862,13 +1868,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1880,10 +1886,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1919,10 +1925,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7516,14 +7522,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W164"/>
+  <dimension ref="A1:W166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I91" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="I142" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F98" sqref="F98"/>
+      <selection pane="bottomRight" activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -9304,7 +9310,7 @@
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
       <c r="T38" s="18">
-        <f t="shared" ref="T38:T69" si="4">SUM(I38:S38)</f>
+        <f>SUM(I38:S38)</f>
         <v>0</v>
       </c>
       <c r="U38" s="18">
@@ -9312,7 +9318,7 @@
         <v>1</v>
       </c>
       <c r="V38" s="19">
-        <f t="shared" ref="V38:V69" si="5">IF(SUM(I38:S38)=C38,"完成",SUM(I38:S38))</f>
+        <f>IF(SUM(I38:S38)=C38,"完成",SUM(I38:S38))</f>
         <v>0</v>
       </c>
     </row>
@@ -9350,7 +9356,7 @@
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
       <c r="T39" s="18">
-        <f t="shared" si="4"/>
+        <f>SUM(I39:S39)</f>
         <v>0</v>
       </c>
       <c r="U39" s="18">
@@ -9358,7 +9364,7 @@
         <v>1</v>
       </c>
       <c r="V39" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(SUM(I39:S39)=C39,"完成",SUM(I39:S39))</f>
         <v>0</v>
       </c>
     </row>
@@ -9396,7 +9402,7 @@
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
       <c r="T40" s="18">
-        <f t="shared" si="4"/>
+        <f>SUM(I40:S40)</f>
         <v>0</v>
       </c>
       <c r="U40" s="18">
@@ -9404,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="V40" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(SUM(I40:S40)=C40,"完成",SUM(I40:S40))</f>
         <v>0</v>
       </c>
     </row>
@@ -9442,7 +9448,7 @@
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
       <c r="T41" s="18">
-        <f t="shared" si="4"/>
+        <f>SUM(I41:S41)</f>
         <v>0</v>
       </c>
       <c r="U41" s="18">
@@ -9450,7 +9456,7 @@
         <v>1</v>
       </c>
       <c r="V41" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(SUM(I41:S41)=C41,"完成",SUM(I41:S41))</f>
         <v>0</v>
       </c>
     </row>
@@ -9488,7 +9494,7 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
       <c r="T42" s="18">
-        <f t="shared" si="4"/>
+        <f>SUM(I42:S42)</f>
         <v>0</v>
       </c>
       <c r="U42" s="18">
@@ -9496,7 +9502,7 @@
         <v>1</v>
       </c>
       <c r="V42" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(SUM(I42:S42)=C42,"完成",SUM(I42:S42))</f>
         <v>0</v>
       </c>
     </row>
@@ -9534,7 +9540,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
       <c r="T43" s="18">
-        <f t="shared" si="4"/>
+        <f>SUM(I43:S43)</f>
         <v>0</v>
       </c>
       <c r="U43" s="18">
@@ -9542,7 +9548,7 @@
         <v>1</v>
       </c>
       <c r="V43" s="19">
-        <f t="shared" si="5"/>
+        <f>IF(SUM(I43:S43)=C43,"完成",SUM(I43:S43))</f>
         <v>0</v>
       </c>
     </row>
@@ -9554,25 +9560,23 @@
         <v>134</v>
       </c>
       <c r="C44" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22">
-        <v>899.5</v>
+        <v>866.2</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" si="0"/>
-        <v>3598</v>
+        <v>866.2</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="12">
-        <v>4</v>
-      </c>
+      <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
@@ -9582,16 +9586,16 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
       <c r="T44" s="18">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>SUM(I44:S44)</f>
+        <v>0</v>
       </c>
       <c r="U44" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>完成</v>
+        <f>C44-T44</f>
+        <v>1</v>
+      </c>
+      <c r="V44" s="19">
+        <f>IF(SUM(I44:S44)=C44,"完成",SUM(I44:S44))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:22">
@@ -9599,28 +9603,26 @@
         <v>41</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="22">
         <v>1</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22">
-        <v>908</v>
+        <v>850.5</v>
       </c>
       <c r="H45" s="12">
         <f t="shared" si="0"/>
-        <v>908</v>
+        <v>850.5</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="12">
-        <v>1</v>
-      </c>
+      <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
@@ -9630,16 +9632,16 @@
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
       <c r="T45" s="18">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>SUM(I45:S45)</f>
+        <v>0</v>
       </c>
       <c r="U45" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V45" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>完成</v>
+        <f>C45-T45</f>
+        <v>1</v>
+      </c>
+      <c r="V45" s="19">
+        <f>IF(SUM(I45:S45)=C45,"完成",SUM(I45:S45))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:22">
@@ -9647,28 +9649,28 @@
         <v>42</v>
       </c>
       <c r="B46" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="22">
+        <v>4</v>
+      </c>
+      <c r="D46" s="22" t="s">
         <v>137</v>
-      </c>
-      <c r="C46" s="22">
-        <v>1</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>135</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="22"/>
       <c r="G46" s="22">
-        <v>908</v>
+        <v>899.5</v>
       </c>
       <c r="H46" s="12">
-        <f t="shared" si="0"/>
-        <v>908</v>
+        <f>G46*C46</f>
+        <v>3598</v>
       </c>
       <c r="I46" s="17"/>
-      <c r="J46" s="12">
-        <v>1</v>
-      </c>
-      <c r="K46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12">
+        <v>4</v>
+      </c>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
@@ -9678,15 +9680,15 @@
       <c r="R46" s="12"/>
       <c r="S46" s="12"/>
       <c r="T46" s="18">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" ref="T46:T71" si="4">SUM(I46:S46)</f>
+        <v>4</v>
       </c>
       <c r="U46" s="18">
-        <f t="shared" si="2"/>
+        <f>C46-T46</f>
         <v>0</v>
       </c>
       <c r="V46" s="19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="V46:V71" si="5">IF(SUM(I46:S46)=C46,"完成",SUM(I46:S46))</f>
         <v>完成</v>
       </c>
     </row>
@@ -9701,22 +9703,22 @@
         <v>1</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22">
-        <v>908.8</v>
+        <v>908</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="0"/>
-        <v>908.8</v>
+        <f>G47*C47</f>
+        <v>908</v>
       </c>
       <c r="I47" s="17"/>
-      <c r="J47" s="12">
-        <v>1</v>
-      </c>
-      <c r="K47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12">
+        <v>1</v>
+      </c>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
@@ -9730,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="U47" s="18">
-        <f t="shared" si="2"/>
+        <f>C47-T47</f>
         <v>0</v>
       </c>
       <c r="V47" s="19" t="str">
@@ -9749,19 +9751,21 @@
         <v>1</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="22"/>
       <c r="G48" s="22">
-        <v>876.4</v>
+        <v>908</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" si="0"/>
-        <v>876.4</v>
+        <f>G48*C48</f>
+        <v>908</v>
       </c>
       <c r="I48" s="17"/>
-      <c r="J48" s="12"/>
+      <c r="J48" s="12">
+        <v>1</v>
+      </c>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
@@ -9773,15 +9777,15 @@
       <c r="S48" s="12"/>
       <c r="T48" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V48" s="19">
+        <f>C48-T48</f>
+        <v>0</v>
+      </c>
+      <c r="V48" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:22">
@@ -9792,22 +9796,24 @@
         <v>140</v>
       </c>
       <c r="C49" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22">
-        <v>1092.1</v>
+        <v>908.8</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" si="0"/>
-        <v>4368.4</v>
+        <f>G49*C49</f>
+        <v>908.8</v>
       </c>
       <c r="I49" s="17"/>
-      <c r="J49" s="12"/>
+      <c r="J49" s="12">
+        <v>1</v>
+      </c>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
@@ -9819,15 +9825,15 @@
       <c r="S49" s="12"/>
       <c r="T49" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="18">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="V49" s="19">
+        <f>C49-T49</f>
+        <v>0</v>
+      </c>
+      <c r="V49" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:22">
@@ -9835,22 +9841,22 @@
         <v>46</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" s="22">
         <v>1</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="22"/>
       <c r="G50" s="22">
-        <v>1096.8</v>
+        <v>876.4</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" si="0"/>
-        <v>1096.8</v>
+        <f>G50*C50</f>
+        <v>876.4</v>
       </c>
       <c r="I50" s="17"/>
       <c r="J50" s="12"/>
@@ -9868,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="18">
-        <f t="shared" si="2"/>
+        <f>C50-T50</f>
         <v>1</v>
       </c>
       <c r="V50" s="19">
@@ -9881,22 +9887,22 @@
         <v>47</v>
       </c>
       <c r="B51" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="22">
+        <v>4</v>
+      </c>
+      <c r="D51" s="22" t="s">
         <v>143</v>
-      </c>
-      <c r="C51" s="22">
-        <v>1</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>141</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22">
-        <v>1096.8</v>
+        <v>1092.1</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="0"/>
-        <v>1096.8</v>
+        <f>G51*C51</f>
+        <v>4368.4</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="12"/>
@@ -9914,8 +9920,8 @@
         <v>0</v>
       </c>
       <c r="U51" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>C51-T51</f>
+        <v>4</v>
       </c>
       <c r="V51" s="19">
         <f t="shared" si="5"/>
@@ -9933,16 +9939,16 @@
         <v>1</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22">
-        <v>1097.4</v>
+        <v>1096.8</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" si="0"/>
-        <v>1097.4</v>
+        <f>G52*C52</f>
+        <v>1096.8</v>
       </c>
       <c r="I52" s="17"/>
       <c r="J52" s="12"/>
@@ -9960,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="18">
-        <f t="shared" si="2"/>
+        <f>C52-T52</f>
         <v>1</v>
       </c>
       <c r="V52" s="19">
@@ -9979,16 +9985,16 @@
         <v>1</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="22"/>
       <c r="G53" s="22">
-        <v>1095.3</v>
+        <v>1096.8</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="0"/>
-        <v>1095.3</v>
+        <f>G53*C53</f>
+        <v>1096.8</v>
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="12"/>
@@ -10006,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="18">
-        <f t="shared" si="2"/>
+        <f>C53-T53</f>
         <v>1</v>
       </c>
       <c r="V53" s="19">
@@ -10022,19 +10028,19 @@
         <v>146</v>
       </c>
       <c r="C54" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22">
-        <v>898.9</v>
+        <v>1097.4</v>
       </c>
       <c r="H54" s="12">
-        <f t="shared" si="0"/>
-        <v>3595.6</v>
+        <f>G54*C54</f>
+        <v>1097.4</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="12"/>
@@ -10052,8 +10058,8 @@
         <v>0</v>
       </c>
       <c r="U54" s="18">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>C54-T54</f>
+        <v>1</v>
       </c>
       <c r="V54" s="19">
         <f t="shared" si="5"/>
@@ -10071,16 +10077,16 @@
         <v>1</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="22"/>
       <c r="G55" s="22">
-        <v>907.4</v>
+        <v>1095.3</v>
       </c>
       <c r="H55" s="12">
-        <f t="shared" si="0"/>
-        <v>907.4</v>
+        <f>G55*C55</f>
+        <v>1095.3</v>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="12"/>
@@ -10098,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="18">
-        <f t="shared" si="2"/>
+        <f>C55-T55</f>
         <v>1</v>
       </c>
       <c r="V55" s="19">
@@ -10114,19 +10120,19 @@
         <v>148</v>
       </c>
       <c r="C56" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22">
-        <v>907.4</v>
+        <v>898.9</v>
       </c>
       <c r="H56" s="12">
-        <f t="shared" si="0"/>
-        <v>907.4</v>
+        <f>G56*C56</f>
+        <v>3595.6</v>
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="12"/>
@@ -10144,8 +10150,8 @@
         <v>0</v>
       </c>
       <c r="U56" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>C56-T56</f>
+        <v>4</v>
       </c>
       <c r="V56" s="19">
         <f t="shared" si="5"/>
@@ -10163,16 +10169,16 @@
         <v>1</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="22"/>
       <c r="G57" s="22">
-        <v>908.5</v>
+        <v>907.4</v>
       </c>
       <c r="H57" s="12">
-        <f t="shared" si="0"/>
-        <v>908.5</v>
+        <f>G57*C57</f>
+        <v>907.4</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="12"/>
@@ -10190,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="18">
-        <f t="shared" si="2"/>
+        <f>C57-T57</f>
         <v>1</v>
       </c>
       <c r="V57" s="19">
@@ -10209,16 +10215,16 @@
         <v>1</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22">
-        <v>906.5</v>
+        <v>907.4</v>
       </c>
       <c r="H58" s="12">
-        <f t="shared" si="0"/>
-        <v>906.5</v>
+        <f>G58*C58</f>
+        <v>907.4</v>
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="12"/>
@@ -10236,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="18">
-        <f t="shared" si="2"/>
+        <f>C58-T58</f>
         <v>1</v>
       </c>
       <c r="V58" s="19">
@@ -10252,25 +10258,23 @@
         <v>151</v>
       </c>
       <c r="C59" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22">
-        <v>899.5</v>
+        <v>908.5</v>
       </c>
       <c r="H59" s="12">
-        <f t="shared" si="0"/>
-        <v>3598</v>
+        <f>G59*C59</f>
+        <v>908.5</v>
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="12"/>
-      <c r="K59" s="12">
-        <v>4</v>
-      </c>
+      <c r="K59" s="12"/>
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
@@ -10281,15 +10285,15 @@
       <c r="S59" s="12"/>
       <c r="T59" s="18">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U59" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V59" s="19" t="str">
+        <f>C59-T59</f>
+        <v>1</v>
+      </c>
+      <c r="V59" s="19">
         <f t="shared" si="5"/>
-        <v>完成</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:22">
@@ -10303,22 +10307,20 @@
         <v>1</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22">
-        <v>908</v>
+        <v>906.5</v>
       </c>
       <c r="H60" s="12">
-        <f t="shared" si="0"/>
-        <v>908</v>
+        <f>G60*C60</f>
+        <v>906.5</v>
       </c>
       <c r="I60" s="17"/>
       <c r="J60" s="12"/>
-      <c r="K60" s="12">
-        <v>1</v>
-      </c>
+      <c r="K60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
@@ -10329,15 +10331,15 @@
       <c r="S60" s="12"/>
       <c r="T60" s="18">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V60" s="19" t="str">
+        <f>C60-T60</f>
+        <v>1</v>
+      </c>
+      <c r="V60" s="19">
         <f t="shared" si="5"/>
-        <v>完成</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:22">
@@ -10348,24 +10350,24 @@
         <v>153</v>
       </c>
       <c r="C61" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22">
-        <v>908</v>
+        <v>899.5</v>
       </c>
       <c r="H61" s="12">
-        <f t="shared" si="0"/>
-        <v>908</v>
+        <f>G61*C61</f>
+        <v>3598</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
@@ -10377,10 +10379,10 @@
       <c r="S61" s="12"/>
       <c r="T61" s="18">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="U61" s="26">
-        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U61" s="18">
+        <f>C61-T61</f>
         <v>0</v>
       </c>
       <c r="V61" s="19" t="str">
@@ -10399,16 +10401,16 @@
         <v>1</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="22"/>
       <c r="G62" s="22">
-        <v>908.8</v>
+        <v>908</v>
       </c>
       <c r="H62" s="12">
-        <f t="shared" si="0"/>
-        <v>908.8</v>
+        <f>G62*C62</f>
+        <v>908</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="12"/>
@@ -10428,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="U62" s="18">
-        <f t="shared" si="2"/>
+        <f>C62-T62</f>
         <v>0</v>
       </c>
       <c r="V62" s="19" t="str">
@@ -10447,16 +10449,16 @@
         <v>1</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="22"/>
       <c r="G63" s="22">
-        <v>906.8</v>
+        <v>908</v>
       </c>
       <c r="H63" s="12">
-        <f t="shared" si="0"/>
-        <v>906.8</v>
+        <f>G63*C63</f>
+        <v>908</v>
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="12"/>
@@ -10475,8 +10477,8 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U63" s="18">
-        <f t="shared" si="2"/>
+      <c r="U63" s="26">
+        <f>C63-T63</f>
         <v>0</v>
       </c>
       <c r="V63" s="19" t="str">
@@ -10492,23 +10494,25 @@
         <v>156</v>
       </c>
       <c r="C64" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="22"/>
       <c r="G64" s="22">
-        <v>1092.1</v>
+        <v>908.8</v>
       </c>
       <c r="H64" s="12">
-        <f t="shared" si="0"/>
-        <v>4368.4</v>
+        <f>G64*C64</f>
+        <v>908.8</v>
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
+      <c r="K64" s="12">
+        <v>1</v>
+      </c>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
@@ -10519,15 +10523,15 @@
       <c r="S64" s="12"/>
       <c r="T64" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" s="18">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="V64" s="19">
+        <f>C64-T64</f>
+        <v>0</v>
+      </c>
+      <c r="V64" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:22">
@@ -10541,20 +10545,22 @@
         <v>1</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="22"/>
       <c r="G65" s="22">
-        <v>1096.8</v>
+        <v>906.8</v>
       </c>
       <c r="H65" s="12">
-        <f t="shared" si="0"/>
-        <v>1096.8</v>
+        <f>G65*C65</f>
+        <v>906.8</v>
       </c>
       <c r="I65" s="17"/>
       <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
+      <c r="K65" s="12">
+        <v>1</v>
+      </c>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
@@ -10565,15 +10571,15 @@
       <c r="S65" s="12"/>
       <c r="T65" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V65" s="19">
+        <f>C65-T65</f>
+        <v>0</v>
+      </c>
+      <c r="V65" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:22">
@@ -10584,19 +10590,19 @@
         <v>158</v>
       </c>
       <c r="C66" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22">
-        <v>1096.8</v>
+        <v>1092.1</v>
       </c>
       <c r="H66" s="12">
-        <f t="shared" si="0"/>
-        <v>1096.8</v>
+        <f>G66*C66</f>
+        <v>4368.4</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="12"/>
@@ -10614,8 +10620,8 @@
         <v>0</v>
       </c>
       <c r="U66" s="18">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>C66-T66</f>
+        <v>4</v>
       </c>
       <c r="V66" s="19">
         <f t="shared" si="5"/>
@@ -10633,16 +10639,16 @@
         <v>1</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22">
-        <v>1097.4</v>
+        <v>1096.8</v>
       </c>
       <c r="H67" s="12">
-        <f t="shared" si="0"/>
-        <v>1097.4</v>
+        <f>G67*C67</f>
+        <v>1096.8</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="12"/>
@@ -10660,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="18">
-        <f t="shared" si="2"/>
+        <f>C67-T67</f>
         <v>1</v>
       </c>
       <c r="V67" s="19">
@@ -10679,16 +10685,16 @@
         <v>1</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22">
-        <v>1095.3</v>
+        <v>1096.8</v>
       </c>
       <c r="H68" s="12">
-        <f t="shared" si="0"/>
-        <v>1095.3</v>
+        <f>G68*C68</f>
+        <v>1096.8</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="12"/>
@@ -10706,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="18">
-        <f t="shared" si="2"/>
+        <f>C68-T68</f>
         <v>1</v>
       </c>
       <c r="V68" s="19">
@@ -10722,19 +10728,19 @@
         <v>161</v>
       </c>
       <c r="C69" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="22"/>
       <c r="G69" s="22">
-        <v>898.9</v>
+        <v>1097.4</v>
       </c>
       <c r="H69" s="12">
-        <f t="shared" ref="H69:H132" si="6">G69*C69</f>
-        <v>3595.6</v>
+        <f>G69*C69</f>
+        <v>1097.4</v>
       </c>
       <c r="I69" s="17"/>
       <c r="J69" s="12"/>
@@ -10752,8 +10758,8 @@
         <v>0</v>
       </c>
       <c r="U69" s="18">
-        <f t="shared" ref="U69:U89" si="7">C69-T69</f>
-        <v>4</v>
+        <f>C69-T69</f>
+        <v>1</v>
       </c>
       <c r="V69" s="19">
         <f t="shared" si="5"/>
@@ -10771,16 +10777,16 @@
         <v>1</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="22"/>
       <c r="G70" s="22">
-        <v>907.4</v>
+        <v>1095.3</v>
       </c>
       <c r="H70" s="12">
-        <f t="shared" si="6"/>
-        <v>907.4</v>
+        <f>G70*C70</f>
+        <v>1095.3</v>
       </c>
       <c r="I70" s="17"/>
       <c r="J70" s="12"/>
@@ -10794,15 +10800,15 @@
       <c r="R70" s="12"/>
       <c r="S70" s="12"/>
       <c r="T70" s="18">
-        <f t="shared" ref="T70:T101" si="8">SUM(I70:S70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U70" s="18">
-        <f t="shared" si="7"/>
+        <f>C70-T70</f>
         <v>1</v>
       </c>
       <c r="V70" s="19">
-        <f t="shared" ref="V70:V101" si="9">IF(SUM(I70:S70)=C70,"完成",SUM(I70:S70))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10814,19 +10820,19 @@
         <v>163</v>
       </c>
       <c r="C71" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="22"/>
       <c r="G71" s="22">
-        <v>907.4</v>
+        <v>898.9</v>
       </c>
       <c r="H71" s="12">
-        <f t="shared" si="6"/>
-        <v>907.4</v>
+        <f t="shared" ref="H71:H134" si="6">G71*C71</f>
+        <v>3595.6</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="12"/>
@@ -10840,15 +10846,15 @@
       <c r="R71" s="12"/>
       <c r="S71" s="12"/>
       <c r="T71" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U71" s="18">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" ref="U71:U91" si="7">C71-T71</f>
+        <v>4</v>
       </c>
       <c r="V71" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10863,16 +10869,16 @@
         <v>1</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="22"/>
       <c r="G72" s="22">
-        <v>908.5</v>
+        <v>907.4</v>
       </c>
       <c r="H72" s="12">
         <f t="shared" si="6"/>
-        <v>908.5</v>
+        <v>907.4</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="12"/>
@@ -10886,7 +10892,7 @@
       <c r="R72" s="12"/>
       <c r="S72" s="12"/>
       <c r="T72" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="T72:T103" si="8">SUM(I72:S72)</f>
         <v>0</v>
       </c>
       <c r="U72" s="18">
@@ -10894,7 +10900,7 @@
         <v>1</v>
       </c>
       <c r="V72" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="V72:V103" si="9">IF(SUM(I72:S72)=C72,"完成",SUM(I72:S72))</f>
         <v>0</v>
       </c>
     </row>
@@ -10909,16 +10915,16 @@
         <v>1</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22">
-        <v>906.5</v>
+        <v>907.4</v>
       </c>
       <c r="H73" s="12">
         <f t="shared" si="6"/>
-        <v>906.5</v>
+        <v>907.4</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="12"/>
@@ -10952,27 +10958,23 @@
         <v>166</v>
       </c>
       <c r="C74" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="22"/>
       <c r="G74" s="22">
-        <v>899.5</v>
+        <v>908.5</v>
       </c>
       <c r="H74" s="12">
         <f t="shared" si="6"/>
-        <v>1799</v>
+        <v>908.5</v>
       </c>
       <c r="I74" s="17"/>
-      <c r="J74" s="27">
-        <v>1</v>
-      </c>
-      <c r="K74" s="12">
-        <v>1</v>
-      </c>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
@@ -10983,15 +10985,15 @@
       <c r="S74" s="12"/>
       <c r="T74" s="18">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U74" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="V74" s="19">
         <f t="shared" si="9"/>
-        <v>完成</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:22">
@@ -11005,21 +11007,19 @@
         <v>1</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="22"/>
       <c r="G75" s="22">
-        <v>908</v>
+        <v>906.5</v>
       </c>
       <c r="H75" s="12">
         <f t="shared" si="6"/>
-        <v>908</v>
+        <v>906.5</v>
       </c>
       <c r="I75" s="17"/>
-      <c r="J75" s="27">
-        <v>1</v>
-      </c>
+      <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
@@ -11031,15 +11031,15 @@
       <c r="S75" s="12"/>
       <c r="T75" s="18">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V75" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="V75" s="19">
         <f t="shared" si="9"/>
-        <v>完成</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:22">
@@ -11050,22 +11050,24 @@
         <v>168</v>
       </c>
       <c r="C76" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22">
-        <v>908</v>
+        <v>899.5</v>
       </c>
       <c r="H76" s="12">
         <f t="shared" si="6"/>
-        <v>908</v>
+        <v>1799</v>
       </c>
       <c r="I76" s="17"/>
-      <c r="J76" s="27"/>
+      <c r="J76" s="27">
+        <v>1</v>
+      </c>
       <c r="K76" s="12">
         <v>1</v>
       </c>
@@ -11079,7 +11081,7 @@
       <c r="S76" s="12"/>
       <c r="T76" s="18">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U76" s="18">
         <f t="shared" si="7"/>
@@ -11101,19 +11103,21 @@
         <v>1</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="22"/>
       <c r="G77" s="22">
-        <v>909.1</v>
+        <v>908</v>
       </c>
       <c r="H77" s="12">
         <f t="shared" si="6"/>
-        <v>909.1</v>
+        <v>908</v>
       </c>
       <c r="I77" s="17"/>
-      <c r="J77" s="12"/>
+      <c r="J77" s="27">
+        <v>1</v>
+      </c>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
@@ -11125,15 +11129,15 @@
       <c r="S77" s="12"/>
       <c r="T77" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U77" s="18">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V77" s="19">
+        <v>0</v>
+      </c>
+      <c r="V77" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:22">
@@ -11147,20 +11151,22 @@
         <v>1</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="22"/>
       <c r="G78" s="22">
-        <v>906.8</v>
+        <v>908</v>
       </c>
       <c r="H78" s="12">
         <f t="shared" si="6"/>
-        <v>906.8</v>
+        <v>908</v>
       </c>
       <c r="I78" s="17"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="12">
+        <v>1</v>
+      </c>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
@@ -11171,15 +11177,15 @@
       <c r="S78" s="12"/>
       <c r="T78" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78" s="18">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V78" s="19">
+        <v>0</v>
+      </c>
+      <c r="V78" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:22">
@@ -11190,19 +11196,19 @@
         <v>171</v>
       </c>
       <c r="C79" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="22"/>
       <c r="G79" s="22">
-        <v>1099</v>
+        <v>909.1</v>
       </c>
       <c r="H79" s="12">
         <f t="shared" si="6"/>
-        <v>2198</v>
+        <v>909.1</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="12"/>
@@ -11221,7 +11227,7 @@
       </c>
       <c r="U79" s="18">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V79" s="19">
         <f t="shared" si="9"/>
@@ -11239,16 +11245,16 @@
         <v>1</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="22"/>
       <c r="G80" s="22">
-        <v>1103.7</v>
+        <v>906.8</v>
       </c>
       <c r="H80" s="12">
         <f t="shared" si="6"/>
-        <v>1103.7</v>
+        <v>906.8</v>
       </c>
       <c r="I80" s="17"/>
       <c r="J80" s="12"/>
@@ -11282,19 +11288,19 @@
         <v>173</v>
       </c>
       <c r="C81" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="22"/>
       <c r="G81" s="22">
-        <v>1103.7</v>
+        <v>1099</v>
       </c>
       <c r="H81" s="12">
         <f t="shared" si="6"/>
-        <v>1103.7</v>
+        <v>2198</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="12"/>
@@ -11313,7 +11319,7 @@
       </c>
       <c r="U81" s="18">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V81" s="19">
         <f t="shared" si="9"/>
@@ -11331,16 +11337,16 @@
         <v>1</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22">
-        <v>1102.8</v>
+        <v>1103.7</v>
       </c>
       <c r="H82" s="12">
         <f t="shared" si="6"/>
-        <v>1102.8</v>
+        <v>1103.7</v>
       </c>
       <c r="I82" s="17"/>
       <c r="J82" s="12"/>
@@ -11377,16 +11383,16 @@
         <v>1</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="22"/>
       <c r="G83" s="22">
-        <v>1100.8</v>
+        <v>1103.7</v>
       </c>
       <c r="H83" s="12">
         <f t="shared" si="6"/>
-        <v>1100.8</v>
+        <v>1103.7</v>
       </c>
       <c r="I83" s="17"/>
       <c r="J83" s="12"/>
@@ -11420,19 +11426,19 @@
         <v>176</v>
       </c>
       <c r="C84" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="22"/>
       <c r="G84" s="22">
-        <v>898.9</v>
+        <v>1102.8</v>
       </c>
       <c r="H84" s="12">
         <f t="shared" si="6"/>
-        <v>1797.8</v>
+        <v>1102.8</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="12"/>
@@ -11451,7 +11457,7 @@
       </c>
       <c r="U84" s="18">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V84" s="19">
         <f t="shared" si="9"/>
@@ -11469,16 +11475,16 @@
         <v>1</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="22"/>
       <c r="G85" s="22">
-        <v>907.4</v>
+        <v>1100.8</v>
       </c>
       <c r="H85" s="12">
         <f t="shared" si="6"/>
-        <v>907.4</v>
+        <v>1100.8</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="12"/>
@@ -11512,19 +11518,19 @@
         <v>178</v>
       </c>
       <c r="C86" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="22"/>
       <c r="G86" s="22">
-        <v>907.4</v>
+        <v>898.9</v>
       </c>
       <c r="H86" s="12">
         <f t="shared" si="6"/>
-        <v>907.4</v>
+        <v>1797.8</v>
       </c>
       <c r="I86" s="17"/>
       <c r="J86" s="12"/>
@@ -11543,7 +11549,7 @@
       </c>
       <c r="U86" s="18">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V86" s="19">
         <f t="shared" si="9"/>
@@ -11561,16 +11567,16 @@
         <v>1</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="22"/>
       <c r="G87" s="22">
-        <v>909</v>
+        <v>907.4</v>
       </c>
       <c r="H87" s="12">
         <f t="shared" si="6"/>
-        <v>909</v>
+        <v>907.4</v>
       </c>
       <c r="I87" s="17"/>
       <c r="J87" s="12"/>
@@ -11607,16 +11613,16 @@
         <v>1</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="22"/>
       <c r="G88" s="22">
-        <v>906.7</v>
+        <v>907.4</v>
       </c>
       <c r="H88" s="12">
         <f t="shared" si="6"/>
-        <v>906.7</v>
+        <v>907.4</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="12"/>
@@ -11646,23 +11652,23 @@
       <c r="A89" s="12">
         <v>85</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="22">
         <v>1</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="22"/>
       <c r="G89" s="22">
-        <v>2027.1</v>
+        <v>909</v>
       </c>
       <c r="H89" s="12">
         <f t="shared" si="6"/>
-        <v>2027.1</v>
+        <v>909</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="12"/>
@@ -11692,52 +11698,46 @@
       <c r="A90" s="12">
         <v>86</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C90" s="12">
-        <v>20</v>
+      <c r="B90" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="22">
+        <v>1</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12">
-        <v>1651.1</v>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22">
+        <v>906.7</v>
       </c>
       <c r="H90" s="12">
         <f t="shared" si="6"/>
-        <v>33022</v>
+        <v>906.7</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
-      <c r="N90" s="12">
-        <v>14</v>
-      </c>
-      <c r="O90" s="12">
-        <v>4</v>
-      </c>
-      <c r="P90" s="12">
-        <v>2</v>
-      </c>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
       <c r="R90" s="12"/>
       <c r="S90" s="12"/>
       <c r="T90" s="18">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U90" s="18">
-        <f t="shared" ref="U90:U121" si="10">C90-T90</f>
-        <v>0</v>
-      </c>
-      <c r="V90" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V90" s="19">
         <f t="shared" si="9"/>
-        <v>完成</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:22">
@@ -11745,22 +11745,22 @@
         <v>87</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C91" s="12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D91" s="22" t="s">
         <v>184</v>
       </c>
       <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12">
-        <v>1651.1</v>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22">
+        <v>2027.1</v>
       </c>
       <c r="H91" s="12">
         <f t="shared" si="6"/>
-        <v>11557.7</v>
+        <v>2027.1</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="12"/>
@@ -11768,26 +11768,22 @@
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
       <c r="N91" s="12"/>
-      <c r="O91" s="12">
-        <v>2</v>
-      </c>
-      <c r="P91" s="12">
-        <v>5</v>
-      </c>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
       <c r="R91" s="12"/>
       <c r="S91" s="12"/>
       <c r="T91" s="18">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U91" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V91" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V91" s="19">
         <f t="shared" si="9"/>
-        <v>完成</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:22">
@@ -11795,42 +11791,46 @@
         <v>88</v>
       </c>
       <c r="B92" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" s="12">
+        <v>20</v>
+      </c>
+      <c r="D92" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="C92" s="12">
-        <v>1</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>184</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
       <c r="G92" s="12">
-        <v>1673.2</v>
+        <v>1651.1</v>
       </c>
       <c r="H92" s="12">
         <f t="shared" si="6"/>
-        <v>1673.2</v>
+        <v>33022</v>
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
+      <c r="N92" s="12">
+        <v>14</v>
+      </c>
+      <c r="O92" s="12">
+        <v>4</v>
+      </c>
       <c r="P92" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q92" s="12"/>
       <c r="R92" s="12"/>
       <c r="S92" s="12"/>
       <c r="T92" s="18">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="U92" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="U92:U123" si="10">C92-T92</f>
         <v>0</v>
       </c>
       <c r="V92" s="19" t="str">
@@ -11846,19 +11846,19 @@
         <v>187</v>
       </c>
       <c r="C93" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
       <c r="G93" s="12">
-        <v>1141.6</v>
+        <v>1651.1</v>
       </c>
       <c r="H93" s="12">
         <f t="shared" si="6"/>
-        <v>2283.2</v>
+        <v>11557.7</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="12"/>
@@ -11867,17 +11867,17 @@
       <c r="M93" s="12"/>
       <c r="N93" s="12"/>
       <c r="O93" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P93" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q93" s="12"/>
       <c r="R93" s="12"/>
       <c r="S93" s="12"/>
       <c r="T93" s="18">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U93" s="18">
         <f t="shared" si="10"/>
@@ -11896,19 +11896,19 @@
         <v>188</v>
       </c>
       <c r="C94" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
       <c r="G94" s="12">
-        <v>1141.6</v>
+        <v>1673.2</v>
       </c>
       <c r="H94" s="12">
         <f t="shared" si="6"/>
-        <v>2283.2</v>
+        <v>1673.2</v>
       </c>
       <c r="I94" s="17"/>
       <c r="J94" s="12"/>
@@ -11918,14 +11918,14 @@
       <c r="N94" s="12"/>
       <c r="O94" s="12"/>
       <c r="P94" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
       <c r="S94" s="12"/>
       <c r="T94" s="18">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U94" s="18">
         <f t="shared" si="10"/>
@@ -11944,19 +11944,19 @@
         <v>189</v>
       </c>
       <c r="C95" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12">
-        <v>1607.9</v>
+        <v>1141.6</v>
       </c>
       <c r="H95" s="12">
         <f t="shared" si="6"/>
-        <v>1607.9</v>
+        <v>2283.2</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="12"/>
@@ -11964,7 +11964,9 @@
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
       <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
+      <c r="O95" s="12">
+        <v>1</v>
+      </c>
       <c r="P95" s="12">
         <v>1</v>
       </c>
@@ -11973,7 +11975,7 @@
       <c r="S95" s="12"/>
       <c r="T95" s="18">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U95" s="18">
         <f t="shared" si="10"/>
@@ -11995,16 +11997,16 @@
         <v>2</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
       <c r="G96" s="12">
-        <v>1607.9</v>
+        <v>1141.6</v>
       </c>
       <c r="H96" s="12">
         <f t="shared" si="6"/>
-        <v>3215.8</v>
+        <v>2283.2</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="12"/>
@@ -12043,7 +12045,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -12088,19 +12090,19 @@
         <v>192</v>
       </c>
       <c r="C98" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
       <c r="G98" s="12">
-        <v>1507.2</v>
+        <v>1607.9</v>
       </c>
       <c r="H98" s="12">
         <f t="shared" si="6"/>
-        <v>1507.2</v>
+        <v>3215.8</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="12"/>
@@ -12110,14 +12112,14 @@
       <c r="N98" s="12"/>
       <c r="O98" s="12"/>
       <c r="P98" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q98" s="12"/>
       <c r="R98" s="12"/>
       <c r="S98" s="12"/>
       <c r="T98" s="18">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U98" s="18">
         <f t="shared" si="10"/>
@@ -12136,19 +12138,19 @@
         <v>193</v>
       </c>
       <c r="C99" s="12">
-        <v>15</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>194</v>
+        <v>1</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12">
-        <v>238.2</v>
+        <v>1607.9</v>
       </c>
       <c r="H99" s="12">
         <f t="shared" si="6"/>
-        <v>3573</v>
+        <v>1607.9</v>
       </c>
       <c r="I99" s="17"/>
       <c r="J99" s="12"/>
@@ -12157,21 +12159,23 @@
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
       <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
+      <c r="P99" s="12">
+        <v>1</v>
+      </c>
       <c r="Q99" s="12"/>
       <c r="R99" s="12"/>
       <c r="S99" s="12"/>
       <c r="T99" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U99" s="18">
         <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="V99" s="19">
+        <v>0</v>
+      </c>
+      <c r="V99" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:22">
@@ -12179,22 +12183,22 @@
         <v>96</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C100" s="12">
-        <v>4</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>194</v>
+        <v>1</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12">
-        <v>156</v>
+        <v>1507.2</v>
       </c>
       <c r="H100" s="12">
         <f t="shared" si="6"/>
-        <v>624</v>
+        <v>1507.2</v>
       </c>
       <c r="I100" s="17"/>
       <c r="J100" s="12"/>
@@ -12203,21 +12207,23 @@
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
       <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
+      <c r="P100" s="12">
+        <v>1</v>
+      </c>
       <c r="Q100" s="12"/>
       <c r="R100" s="12"/>
       <c r="S100" s="12"/>
       <c r="T100" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U100" s="18">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="V100" s="19">
+        <v>0</v>
+      </c>
+      <c r="V100" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:22">
@@ -12225,22 +12231,22 @@
         <v>97</v>
       </c>
       <c r="B101" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C101" s="12">
+        <v>15</v>
+      </c>
+      <c r="D101" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="C101" s="12">
-        <v>2</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12">
-        <v>227.2</v>
+        <v>238.2</v>
       </c>
       <c r="H101" s="12">
         <f t="shared" si="6"/>
-        <v>454.4</v>
+        <v>3573</v>
       </c>
       <c r="I101" s="17"/>
       <c r="J101" s="12"/>
@@ -12259,7 +12265,7 @@
       </c>
       <c r="U101" s="18">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="V101" s="19">
         <f t="shared" si="9"/>
@@ -12277,16 +12283,16 @@
         <v>4</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12">
-        <v>229.1</v>
+        <v>156</v>
       </c>
       <c r="H102" s="12">
         <f t="shared" si="6"/>
-        <v>916.4</v>
+        <v>624</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="12"/>
@@ -12300,7 +12306,7 @@
       <c r="R102" s="12"/>
       <c r="S102" s="12"/>
       <c r="T102" s="18">
-        <f t="shared" ref="T102:T133" si="11">SUM(I102:S102)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U102" s="18">
@@ -12308,7 +12314,7 @@
         <v>4</v>
       </c>
       <c r="V102" s="19">
-        <f t="shared" ref="V102:V133" si="12">IF(SUM(I102:S102)=C102,"完成",SUM(I102:S102))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12320,19 +12326,19 @@
         <v>198</v>
       </c>
       <c r="C103" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12">
-        <v>204.5</v>
+        <v>227.2</v>
       </c>
       <c r="H103" s="12">
         <f t="shared" si="6"/>
-        <v>204.5</v>
+        <v>454.4</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="12"/>
@@ -12346,15 +12352,15 @@
       <c r="R103" s="12"/>
       <c r="S103" s="12"/>
       <c r="T103" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U103" s="18">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V103" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12366,19 +12372,19 @@
         <v>199</v>
       </c>
       <c r="C104" s="12">
-        <v>222</v>
+        <v>4</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12">
-        <v>5.2</v>
+        <v>229.1</v>
       </c>
       <c r="H104" s="12">
         <f t="shared" si="6"/>
-        <v>1154.4</v>
+        <v>916.4</v>
       </c>
       <c r="I104" s="17"/>
       <c r="J104" s="12"/>
@@ -12392,15 +12398,15 @@
       <c r="R104" s="12"/>
       <c r="S104" s="12"/>
       <c r="T104" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="T104:T135" si="11">SUM(I104:S104)</f>
         <v>0</v>
       </c>
       <c r="U104" s="18">
         <f t="shared" si="10"/>
-        <v>222</v>
+        <v>4</v>
       </c>
       <c r="V104" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="V104:V135" si="12">IF(SUM(I104:S104)=C104,"完成",SUM(I104:S104))</f>
         <v>0</v>
       </c>
     </row>
@@ -12409,22 +12415,22 @@
         <v>101</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C105" s="12">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12">
-        <v>7.8</v>
+        <v>204.5</v>
       </c>
       <c r="H105" s="12">
         <f t="shared" si="6"/>
-        <v>413.4</v>
+        <v>204.5</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="12"/>
@@ -12443,7 +12449,7 @@
       </c>
       <c r="U105" s="18">
         <f t="shared" si="10"/>
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="V105" s="19">
         <f t="shared" si="12"/>
@@ -12455,22 +12461,22 @@
         <v>102</v>
       </c>
       <c r="B106" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106" s="12">
+        <v>222</v>
+      </c>
+      <c r="D106" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="C106" s="12">
-        <v>53</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="H106" s="12">
         <f t="shared" si="6"/>
-        <v>164.3</v>
+        <v>1154.4</v>
       </c>
       <c r="I106" s="17"/>
       <c r="J106" s="12"/>
@@ -12489,7 +12495,7 @@
       </c>
       <c r="U106" s="18">
         <f t="shared" si="10"/>
-        <v>53</v>
+        <v>222</v>
       </c>
       <c r="V106" s="19">
         <f t="shared" si="12"/>
@@ -12504,19 +12510,19 @@
         <v>203</v>
       </c>
       <c r="C107" s="12">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
       <c r="G107" s="12">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="H107" s="12">
         <f t="shared" si="6"/>
-        <v>1264.8</v>
+        <v>413.4</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="12"/>
@@ -12535,7 +12541,7 @@
       </c>
       <c r="U107" s="18">
         <f t="shared" si="10"/>
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="V107" s="19">
         <f t="shared" si="12"/>
@@ -12550,19 +12556,19 @@
         <v>204</v>
       </c>
       <c r="C108" s="12">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12">
-        <v>8.4</v>
+        <v>3.1</v>
       </c>
       <c r="H108" s="12">
         <f t="shared" si="6"/>
-        <v>420</v>
+        <v>164.3</v>
       </c>
       <c r="I108" s="17"/>
       <c r="J108" s="12"/>
@@ -12581,7 +12587,7 @@
       </c>
       <c r="U108" s="18">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V108" s="19">
         <f t="shared" si="12"/>
@@ -12596,19 +12602,19 @@
         <v>205</v>
       </c>
       <c r="C109" s="12">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
       <c r="G109" s="12">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="H109" s="12">
         <f t="shared" si="6"/>
-        <v>206.4</v>
+        <v>1264.8</v>
       </c>
       <c r="I109" s="17"/>
       <c r="J109" s="12"/>
@@ -12627,7 +12633,7 @@
       </c>
       <c r="U109" s="18">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="V109" s="19">
         <f t="shared" si="12"/>
@@ -12642,19 +12648,19 @@
         <v>206</v>
       </c>
       <c r="C110" s="12">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
       <c r="G110" s="12">
-        <v>125.1</v>
+        <v>8.4</v>
       </c>
       <c r="H110" s="12">
         <f t="shared" si="6"/>
-        <v>1626.3</v>
+        <v>420</v>
       </c>
       <c r="I110" s="17"/>
       <c r="J110" s="12"/>
@@ -12662,24 +12668,22 @@
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
       <c r="N110" s="12"/>
-      <c r="O110" s="12">
-        <v>5</v>
-      </c>
+      <c r="O110" s="12"/>
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
       <c r="T110" s="18">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U110" s="18">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="V110" s="19">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:22">
@@ -12687,22 +12691,22 @@
         <v>107</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C111" s="12">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
       <c r="G111" s="12">
-        <v>84.8</v>
+        <v>4.3</v>
       </c>
       <c r="H111" s="12">
         <f t="shared" si="6"/>
-        <v>508.8</v>
+        <v>206.4</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="12"/>
@@ -12710,24 +12714,22 @@
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
       <c r="N111" s="12"/>
-      <c r="O111" s="12">
-        <v>6</v>
-      </c>
+      <c r="O111" s="12"/>
       <c r="P111" s="12"/>
       <c r="Q111" s="12"/>
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
       <c r="T111" s="18">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U111" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V111" s="19" t="str">
+        <v>48</v>
+      </c>
+      <c r="V111" s="19">
         <f t="shared" si="12"/>
-        <v>完成</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:22">
@@ -12735,22 +12737,22 @@
         <v>108</v>
       </c>
       <c r="B112" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" s="12">
+        <v>13</v>
+      </c>
+      <c r="D112" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="C112" s="12">
-        <v>6</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
       <c r="G112" s="12">
-        <v>119.7</v>
+        <v>125.1</v>
       </c>
       <c r="H112" s="12">
         <f t="shared" si="6"/>
-        <v>718.2</v>
+        <v>1626.3</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="12"/>
@@ -12758,22 +12760,24 @@
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
       <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
+      <c r="O112" s="12">
+        <v>5</v>
+      </c>
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
       <c r="T112" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U112" s="18">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V112" s="19">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:22">
@@ -12784,19 +12788,19 @@
         <v>210</v>
       </c>
       <c r="C113" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
       <c r="G113" s="12">
-        <v>120.9</v>
+        <v>84.8</v>
       </c>
       <c r="H113" s="12">
         <f t="shared" si="6"/>
-        <v>120.9</v>
+        <v>508.8</v>
       </c>
       <c r="I113" s="17"/>
       <c r="J113" s="12"/>
@@ -12805,7 +12809,7 @@
       <c r="M113" s="12"/>
       <c r="N113" s="12"/>
       <c r="O113" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
@@ -12813,7 +12817,7 @@
       <c r="S113" s="12"/>
       <c r="T113" s="18">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U113" s="18">
         <f t="shared" si="10"/>
@@ -12832,19 +12836,19 @@
         <v>211</v>
       </c>
       <c r="C114" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
       <c r="G114" s="12">
-        <v>122.3</v>
+        <v>119.7</v>
       </c>
       <c r="H114" s="12">
         <f t="shared" si="6"/>
-        <v>122.3</v>
+        <v>718.2</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="12"/>
@@ -12852,24 +12856,22 @@
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
       <c r="N114" s="12"/>
-      <c r="O114" s="12">
-        <v>1</v>
-      </c>
+      <c r="O114" s="12"/>
       <c r="P114" s="12"/>
       <c r="Q114" s="12"/>
       <c r="R114" s="12"/>
       <c r="S114" s="12"/>
       <c r="T114" s="18">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U114" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V114" s="19" t="str">
+        <v>6</v>
+      </c>
+      <c r="V114" s="19">
         <f t="shared" si="12"/>
-        <v>完成</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:22">
@@ -12883,16 +12885,16 @@
         <v>1</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
       <c r="G115" s="12">
-        <v>123.7</v>
+        <v>120.9</v>
       </c>
       <c r="H115" s="12">
         <f t="shared" si="6"/>
-        <v>123.7</v>
+        <v>120.9</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="12"/>
@@ -12931,16 +12933,16 @@
         <v>1</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12">
-        <v>122</v>
+        <v>122.3</v>
       </c>
       <c r="H116" s="12">
         <f t="shared" si="6"/>
-        <v>122</v>
+        <v>122.3</v>
       </c>
       <c r="I116" s="17"/>
       <c r="J116" s="12"/>
@@ -12979,16 +12981,16 @@
         <v>1</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12">
-        <v>118.6</v>
+        <v>123.7</v>
       </c>
       <c r="H117" s="12">
         <f t="shared" si="6"/>
-        <v>118.6</v>
+        <v>123.7</v>
       </c>
       <c r="I117" s="17"/>
       <c r="J117" s="12"/>
@@ -12996,22 +12998,24 @@
       <c r="L117" s="12"/>
       <c r="M117" s="12"/>
       <c r="N117" s="12"/>
-      <c r="O117" s="12"/>
+      <c r="O117" s="12">
+        <v>1</v>
+      </c>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
       <c r="R117" s="12"/>
       <c r="S117" s="12"/>
       <c r="T117" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U117" s="18">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V117" s="19">
+        <v>0</v>
+      </c>
+      <c r="V117" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:22">
@@ -13025,16 +13029,16 @@
         <v>1</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12">
-        <v>115.2</v>
+        <v>122</v>
       </c>
       <c r="H118" s="12">
         <f t="shared" si="6"/>
-        <v>115.2</v>
+        <v>122</v>
       </c>
       <c r="I118" s="17"/>
       <c r="J118" s="12"/>
@@ -13042,22 +13046,24 @@
       <c r="L118" s="12"/>
       <c r="M118" s="12"/>
       <c r="N118" s="12"/>
-      <c r="O118" s="12"/>
+      <c r="O118" s="12">
+        <v>1</v>
+      </c>
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
       <c r="R118" s="12"/>
       <c r="S118" s="12"/>
       <c r="T118" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U118" s="18">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V118" s="19">
+        <v>0</v>
+      </c>
+      <c r="V118" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:22">
@@ -13068,19 +13074,19 @@
         <v>216</v>
       </c>
       <c r="C119" s="12">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12">
-        <v>124</v>
+        <v>118.6</v>
       </c>
       <c r="H119" s="12">
         <f t="shared" si="6"/>
-        <v>5580</v>
+        <v>118.6</v>
       </c>
       <c r="I119" s="17"/>
       <c r="J119" s="12"/>
@@ -13088,24 +13094,22 @@
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
       <c r="N119" s="12"/>
-      <c r="O119" s="12">
-        <v>25</v>
-      </c>
+      <c r="O119" s="12"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="12"/>
       <c r="R119" s="12"/>
       <c r="S119" s="12"/>
       <c r="T119" s="18">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U119" s="18">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="V119" s="19">
         <f t="shared" si="12"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:22">
@@ -13116,19 +13120,19 @@
         <v>217</v>
       </c>
       <c r="C120" s="12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
       <c r="G120" s="12">
-        <v>83.7</v>
+        <v>115.2</v>
       </c>
       <c r="H120" s="12">
         <f t="shared" si="6"/>
-        <v>753.3</v>
+        <v>115.2</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="12"/>
@@ -13136,24 +13140,22 @@
       <c r="L120" s="12"/>
       <c r="M120" s="12"/>
       <c r="N120" s="12"/>
-      <c r="O120" s="12">
-        <v>9</v>
-      </c>
+      <c r="O120" s="12"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="12"/>
       <c r="R120" s="12"/>
       <c r="S120" s="12"/>
       <c r="T120" s="18">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U120" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V120" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="V120" s="19">
         <f t="shared" si="12"/>
-        <v>完成</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:22">
@@ -13164,19 +13166,19 @@
         <v>218</v>
       </c>
       <c r="C121" s="12">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12">
-        <v>118.6</v>
+        <v>124</v>
       </c>
       <c r="H121" s="12">
         <f t="shared" si="6"/>
-        <v>711.6</v>
+        <v>5580</v>
       </c>
       <c r="I121" s="17"/>
       <c r="J121" s="12"/>
@@ -13184,22 +13186,24 @@
       <c r="L121" s="12"/>
       <c r="M121" s="12"/>
       <c r="N121" s="12"/>
-      <c r="O121" s="12"/>
+      <c r="O121" s="12">
+        <v>25</v>
+      </c>
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
       <c r="R121" s="12"/>
       <c r="S121" s="12"/>
       <c r="T121" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U121" s="18">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="V121" s="19">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:22">
@@ -13210,19 +13214,19 @@
         <v>219</v>
       </c>
       <c r="C122" s="12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12">
-        <v>73.2</v>
+        <v>83.7</v>
       </c>
       <c r="H122" s="12">
         <f t="shared" si="6"/>
-        <v>292.8</v>
+        <v>753.3</v>
       </c>
       <c r="I122" s="17"/>
       <c r="J122" s="12"/>
@@ -13231,7 +13235,7 @@
       <c r="M122" s="12"/>
       <c r="N122" s="12"/>
       <c r="O122" s="12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P122" s="12"/>
       <c r="Q122" s="12"/>
@@ -13239,10 +13243,10 @@
       <c r="S122" s="12"/>
       <c r="T122" s="18">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U122" s="18">
-        <f t="shared" ref="U122:U164" si="13">C122-T122</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V122" s="19" t="str">
@@ -13255,22 +13259,22 @@
         <v>119</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C123" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12">
-        <v>75.8</v>
+        <v>118.6</v>
       </c>
       <c r="H123" s="12">
         <f t="shared" si="6"/>
-        <v>606.4</v>
+        <v>711.6</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="12"/>
@@ -13288,8 +13292,8 @@
         <v>0</v>
       </c>
       <c r="U123" s="18">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="V123" s="19">
         <f t="shared" si="12"/>
@@ -13301,22 +13305,22 @@
         <v>120</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C124" s="12">
         <v>4</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
       <c r="G124" s="12">
-        <v>73.1</v>
+        <v>73.2</v>
       </c>
       <c r="H124" s="12">
         <f t="shared" si="6"/>
-        <v>292.4</v>
+        <v>292.8</v>
       </c>
       <c r="I124" s="17"/>
       <c r="J124" s="12"/>
@@ -13336,7 +13340,7 @@
         <v>4</v>
       </c>
       <c r="U124" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="U124:U166" si="13">C124-T124</f>
         <v>0</v>
       </c>
       <c r="V124" s="19" t="str">
@@ -13352,19 +13356,19 @@
         <v>223</v>
       </c>
       <c r="C125" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12">
-        <v>89.2</v>
+        <v>75.8</v>
       </c>
       <c r="H125" s="12">
         <f t="shared" si="6"/>
-        <v>356.8</v>
+        <v>606.4</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="12"/>
@@ -13383,7 +13387,7 @@
       </c>
       <c r="U125" s="18">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V125" s="19">
         <f t="shared" si="12"/>
@@ -13398,19 +13402,19 @@
         <v>224</v>
       </c>
       <c r="C126" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12">
-        <v>91.3</v>
+        <v>73.1</v>
       </c>
       <c r="H126" s="12">
         <f t="shared" si="6"/>
-        <v>730.4</v>
+        <v>292.4</v>
       </c>
       <c r="I126" s="17"/>
       <c r="J126" s="12"/>
@@ -13418,22 +13422,24 @@
       <c r="L126" s="12"/>
       <c r="M126" s="12"/>
       <c r="N126" s="12"/>
-      <c r="O126" s="12"/>
+      <c r="O126" s="12">
+        <v>4</v>
+      </c>
       <c r="P126" s="12"/>
       <c r="Q126" s="12"/>
       <c r="R126" s="12"/>
       <c r="S126" s="12"/>
       <c r="T126" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U126" s="18">
         <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="V126" s="19">
+        <v>0</v>
+      </c>
+      <c r="V126" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:22">
@@ -13447,16 +13453,16 @@
         <v>4</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="H127" s="12">
         <f t="shared" si="6"/>
-        <v>356.4</v>
+        <v>356.8</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="12"/>
@@ -13490,19 +13496,19 @@
         <v>226</v>
       </c>
       <c r="C128" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12">
-        <v>88.9</v>
+        <v>91.3</v>
       </c>
       <c r="H128" s="12">
         <f t="shared" si="6"/>
-        <v>88.9</v>
+        <v>730.4</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="12"/>
@@ -13521,7 +13527,7 @@
       </c>
       <c r="U128" s="18">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V128" s="19">
         <f t="shared" si="12"/>
@@ -13536,19 +13542,19 @@
         <v>227</v>
       </c>
       <c r="C129" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12">
-        <v>90.3</v>
+        <v>89.1</v>
       </c>
       <c r="H129" s="12">
         <f t="shared" si="6"/>
-        <v>90.3</v>
+        <v>356.4</v>
       </c>
       <c r="I129" s="17"/>
       <c r="J129" s="12"/>
@@ -13567,7 +13573,7 @@
       </c>
       <c r="U129" s="18">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V129" s="19">
         <f t="shared" si="12"/>
@@ -13585,16 +13591,16 @@
         <v>1</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12">
-        <v>90.9</v>
+        <v>88.9</v>
       </c>
       <c r="H130" s="12">
         <f t="shared" si="6"/>
-        <v>90.9</v>
+        <v>88.9</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="12"/>
@@ -13631,16 +13637,16 @@
         <v>1</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12">
-        <v>92.4</v>
+        <v>90.3</v>
       </c>
       <c r="H131" s="12">
         <f t="shared" si="6"/>
-        <v>92.4</v>
+        <v>90.3</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="12"/>
@@ -13677,16 +13683,16 @@
         <v>1</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12">
-        <v>89.2</v>
+        <v>90.9</v>
       </c>
       <c r="H132" s="12">
         <f t="shared" si="6"/>
-        <v>89.2</v>
+        <v>90.9</v>
       </c>
       <c r="I132" s="17"/>
       <c r="J132" s="12"/>
@@ -13723,16 +13729,16 @@
         <v>1</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12">
-        <v>90.7</v>
+        <v>92.4</v>
       </c>
       <c r="H133" s="12">
-        <f t="shared" ref="H133:H164" si="14">G133*C133</f>
-        <v>90.7</v>
+        <f t="shared" si="6"/>
+        <v>92.4</v>
       </c>
       <c r="I133" s="17"/>
       <c r="J133" s="12"/>
@@ -13769,16 +13775,16 @@
         <v>1</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
       <c r="G134" s="12">
-        <v>87.4</v>
+        <v>89.2</v>
       </c>
       <c r="H134" s="12">
-        <f t="shared" si="14"/>
-        <v>87.4</v>
+        <f t="shared" si="6"/>
+        <v>89.2</v>
       </c>
       <c r="I134" s="17"/>
       <c r="J134" s="12"/>
@@ -13792,7 +13798,7 @@
       <c r="R134" s="12"/>
       <c r="S134" s="12"/>
       <c r="T134" s="18">
-        <f t="shared" ref="T134:T164" si="15">SUM(I134:S134)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U134" s="18">
@@ -13800,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="V134" s="19">
-        <f t="shared" ref="V134:V164" si="16">IF(SUM(I134:S134)=C134,"完成",SUM(I134:S134))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13815,16 +13821,16 @@
         <v>1</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
       <c r="G135" s="12">
-        <v>88.8</v>
+        <v>90.7</v>
       </c>
       <c r="H135" s="12">
-        <f t="shared" si="14"/>
-        <v>88.8</v>
+        <f t="shared" ref="H135:H166" si="14">G135*C135</f>
+        <v>90.7</v>
       </c>
       <c r="I135" s="17"/>
       <c r="J135" s="12"/>
@@ -13838,7 +13844,7 @@
       <c r="R135" s="12"/>
       <c r="S135" s="12"/>
       <c r="T135" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U135" s="18">
@@ -13846,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="V135" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13861,16 +13867,16 @@
         <v>1</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
       <c r="G136" s="12">
-        <v>87.7</v>
+        <v>87.4</v>
       </c>
       <c r="H136" s="12">
         <f t="shared" si="14"/>
-        <v>87.7</v>
+        <v>87.4</v>
       </c>
       <c r="I136" s="17"/>
       <c r="J136" s="12"/>
@@ -13884,7 +13890,7 @@
       <c r="R136" s="12"/>
       <c r="S136" s="12"/>
       <c r="T136" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="T136:T166" si="15">SUM(I136:S136)</f>
         <v>0</v>
       </c>
       <c r="U136" s="18">
@@ -13892,7 +13898,7 @@
         <v>1</v>
       </c>
       <c r="V136" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="V136:V166" si="16">IF(SUM(I136:S136)=C136,"完成",SUM(I136:S136))</f>
         <v>0</v>
       </c>
     </row>
@@ -13907,16 +13913,16 @@
         <v>1</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12">
-        <v>88.3</v>
+        <v>88.8</v>
       </c>
       <c r="H137" s="12">
         <f t="shared" si="14"/>
-        <v>88.3</v>
+        <v>88.8</v>
       </c>
       <c r="I137" s="17"/>
       <c r="J137" s="12"/>
@@ -13953,16 +13959,16 @@
         <v>1</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
       <c r="G138" s="12">
-        <v>92</v>
+        <v>87.7</v>
       </c>
       <c r="H138" s="12">
         <f t="shared" si="14"/>
-        <v>92</v>
+        <v>87.7</v>
       </c>
       <c r="I138" s="17"/>
       <c r="J138" s="12"/>
@@ -13999,16 +14005,16 @@
         <v>1</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12">
-        <v>92.6</v>
+        <v>88.3</v>
       </c>
       <c r="H139" s="12">
         <f t="shared" si="14"/>
-        <v>92.6</v>
+        <v>88.3</v>
       </c>
       <c r="I139" s="17"/>
       <c r="J139" s="12"/>
@@ -14045,16 +14051,16 @@
         <v>1</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12">
-        <v>92.6</v>
+        <v>92</v>
       </c>
       <c r="H140" s="12">
         <f t="shared" si="14"/>
-        <v>92.6</v>
+        <v>92</v>
       </c>
       <c r="I140" s="17"/>
       <c r="J140" s="12"/>
@@ -14091,16 +14097,16 @@
         <v>1</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12">
-        <v>93.3</v>
+        <v>92.6</v>
       </c>
       <c r="H141" s="12">
         <f t="shared" si="14"/>
-        <v>93.3</v>
+        <v>92.6</v>
       </c>
       <c r="I141" s="17"/>
       <c r="J141" s="12"/>
@@ -14137,16 +14143,16 @@
         <v>1</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12">
-        <v>93</v>
+        <v>92.6</v>
       </c>
       <c r="H142" s="12">
         <f t="shared" si="14"/>
-        <v>93</v>
+        <v>92.6</v>
       </c>
       <c r="I142" s="17"/>
       <c r="J142" s="12"/>
@@ -14183,16 +14189,16 @@
         <v>1</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
       <c r="G143" s="12">
-        <v>93.6</v>
+        <v>93.3</v>
       </c>
       <c r="H143" s="12">
         <f t="shared" si="14"/>
-        <v>93.6</v>
+        <v>93.3</v>
       </c>
       <c r="I143" s="17"/>
       <c r="J143" s="12"/>
@@ -14226,19 +14232,19 @@
         <v>242</v>
       </c>
       <c r="C144" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
       <c r="G144" s="12">
-        <v>411.8</v>
+        <v>93</v>
       </c>
       <c r="H144" s="12">
         <f t="shared" si="14"/>
-        <v>2470.8</v>
+        <v>93</v>
       </c>
       <c r="I144" s="17"/>
       <c r="J144" s="12"/>
@@ -14257,7 +14263,7 @@
       </c>
       <c r="U144" s="18">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V144" s="19">
         <f t="shared" si="16"/>
@@ -14269,22 +14275,22 @@
         <v>141</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C145" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
       <c r="G145" s="12">
-        <v>187.3</v>
+        <v>93.6</v>
       </c>
       <c r="H145" s="12">
         <f t="shared" si="14"/>
-        <v>2247.6</v>
+        <v>93.6</v>
       </c>
       <c r="I145" s="17"/>
       <c r="J145" s="12"/>
@@ -14303,7 +14309,7 @@
       </c>
       <c r="U145" s="18">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="V145" s="19">
         <f t="shared" si="16"/>
@@ -14315,22 +14321,22 @@
         <v>142</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C146" s="12">
         <v>6</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
       <c r="G146" s="12">
-        <v>518</v>
+        <v>411.8</v>
       </c>
       <c r="H146" s="12">
         <f t="shared" si="14"/>
-        <v>3108</v>
+        <v>2470.8</v>
       </c>
       <c r="I146" s="17"/>
       <c r="J146" s="12"/>
@@ -14367,16 +14373,16 @@
         <v>12</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
       <c r="G147" s="12">
-        <v>235.6</v>
+        <v>187.3</v>
       </c>
       <c r="H147" s="12">
         <f t="shared" si="14"/>
-        <v>2827.2</v>
+        <v>2247.6</v>
       </c>
       <c r="I147" s="17"/>
       <c r="J147" s="12"/>
@@ -14410,19 +14416,19 @@
         <v>247</v>
       </c>
       <c r="C148" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
       <c r="G148" s="12">
-        <v>102.2</v>
+        <v>518</v>
       </c>
       <c r="H148" s="12">
         <f t="shared" si="14"/>
-        <v>204.4</v>
+        <v>3108</v>
       </c>
       <c r="I148" s="17"/>
       <c r="J148" s="12"/>
@@ -14441,7 +14447,7 @@
       </c>
       <c r="U148" s="18">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V148" s="19">
         <f t="shared" si="16"/>
@@ -14453,22 +14459,22 @@
         <v>145</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C149" s="12">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12">
-        <v>120.3</v>
+        <v>235.6</v>
       </c>
       <c r="H149" s="12">
         <f t="shared" si="14"/>
-        <v>240.6</v>
+        <v>2827.2</v>
       </c>
       <c r="I149" s="17"/>
       <c r="J149" s="12"/>
@@ -14487,7 +14493,7 @@
       </c>
       <c r="U149" s="18">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="V149" s="19">
         <f t="shared" si="16"/>
@@ -14499,22 +14505,22 @@
         <v>146</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C150" s="12">
         <v>2</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12">
-        <v>153.5</v>
+        <v>102.2</v>
       </c>
       <c r="H150" s="12">
         <f t="shared" si="14"/>
-        <v>307</v>
+        <v>204.4</v>
       </c>
       <c r="I150" s="17"/>
       <c r="J150" s="12"/>
@@ -14551,16 +14557,16 @@
         <v>2</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12">
-        <v>143.6</v>
+        <v>120.3</v>
       </c>
       <c r="H151" s="12">
         <f t="shared" si="14"/>
-        <v>287.2</v>
+        <v>240.6</v>
       </c>
       <c r="I151" s="17"/>
       <c r="J151" s="12"/>
@@ -14597,16 +14603,16 @@
         <v>2</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
       <c r="G152" s="12">
-        <v>157.3</v>
+        <v>153.5</v>
       </c>
       <c r="H152" s="12">
         <f t="shared" si="14"/>
-        <v>314.6</v>
+        <v>307</v>
       </c>
       <c r="I152" s="17"/>
       <c r="J152" s="12"/>
@@ -14643,16 +14649,16 @@
         <v>2</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
       <c r="G153" s="12">
-        <v>184.5</v>
+        <v>143.6</v>
       </c>
       <c r="H153" s="12">
         <f t="shared" si="14"/>
-        <v>369</v>
+        <v>287.2</v>
       </c>
       <c r="I153" s="17"/>
       <c r="J153" s="12"/>
@@ -14686,19 +14692,19 @@
         <v>254</v>
       </c>
       <c r="C154" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
       <c r="G154" s="12">
-        <v>3.1</v>
+        <v>157.3</v>
       </c>
       <c r="H154" s="12">
         <f t="shared" si="14"/>
-        <v>24.8</v>
+        <v>314.6</v>
       </c>
       <c r="I154" s="17"/>
       <c r="J154" s="12"/>
@@ -14717,7 +14723,7 @@
       </c>
       <c r="U154" s="18">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V154" s="19">
         <f t="shared" si="16"/>
@@ -14729,22 +14735,22 @@
         <v>151</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C155" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
       <c r="G155" s="12">
-        <v>2.9</v>
+        <v>184.5</v>
       </c>
       <c r="H155" s="12">
         <f t="shared" si="14"/>
-        <v>23.2</v>
+        <v>369</v>
       </c>
       <c r="I155" s="17"/>
       <c r="J155" s="12"/>
@@ -14763,7 +14769,7 @@
       </c>
       <c r="U155" s="18">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V155" s="19">
         <f t="shared" si="16"/>
@@ -14775,22 +14781,22 @@
         <v>152</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C156" s="12">
         <v>8</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
       <c r="G156" s="12">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H156" s="12">
         <f t="shared" si="14"/>
-        <v>20.8</v>
+        <v>24.8</v>
       </c>
       <c r="I156" s="17"/>
       <c r="J156" s="12"/>
@@ -14824,19 +14830,19 @@
         <v>258</v>
       </c>
       <c r="C157" s="12">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
       <c r="G157" s="12">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H157" s="12">
         <f t="shared" si="14"/>
-        <v>432</v>
+        <v>23.2</v>
       </c>
       <c r="I157" s="17"/>
       <c r="J157" s="12"/>
@@ -14855,7 +14861,7 @@
       </c>
       <c r="U157" s="18">
         <f t="shared" si="13"/>
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="V157" s="19">
         <f t="shared" si="16"/>
@@ -14870,19 +14876,19 @@
         <v>259</v>
       </c>
       <c r="C158" s="12">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
       <c r="G158" s="12">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H158" s="12">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>20.8</v>
       </c>
       <c r="I158" s="17"/>
       <c r="J158" s="12"/>
@@ -14901,7 +14907,7 @@
       </c>
       <c r="U158" s="18">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="V158" s="19">
         <f t="shared" si="16"/>
@@ -14916,19 +14922,19 @@
         <v>260</v>
       </c>
       <c r="C159" s="12">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
       <c r="G159" s="12">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H159" s="12">
         <f t="shared" si="14"/>
-        <v>97.2</v>
+        <v>432</v>
       </c>
       <c r="I159" s="17"/>
       <c r="J159" s="12"/>
@@ -14947,7 +14953,7 @@
       </c>
       <c r="U159" s="18">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="V159" s="19">
         <f t="shared" si="16"/>
@@ -14965,16 +14971,16 @@
         <v>36</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
       <c r="G160" s="12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H160" s="12">
         <f t="shared" si="14"/>
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="I160" s="17"/>
       <c r="J160" s="12"/>
@@ -15011,16 +15017,16 @@
         <v>36</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
       <c r="G161" s="12">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H161" s="12">
         <f t="shared" si="14"/>
-        <v>115.2</v>
+        <v>97.2</v>
       </c>
       <c r="I161" s="17"/>
       <c r="J161" s="12"/>
@@ -15054,19 +15060,19 @@
         <v>263</v>
       </c>
       <c r="C162" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
       <c r="G162" s="12">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H162" s="12">
         <f t="shared" si="14"/>
-        <v>86.8</v>
+        <v>108</v>
       </c>
       <c r="I162" s="17"/>
       <c r="J162" s="12"/>
@@ -15085,7 +15091,7 @@
       </c>
       <c r="U162" s="18">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="V162" s="19">
         <f t="shared" si="16"/>
@@ -15100,19 +15106,19 @@
         <v>264</v>
       </c>
       <c r="C163" s="12">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
       <c r="G163" s="12">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H163" s="12">
         <f t="shared" si="14"/>
-        <v>81.2</v>
+        <v>115.2</v>
       </c>
       <c r="I163" s="17"/>
       <c r="J163" s="12"/>
@@ -15131,7 +15137,7 @@
       </c>
       <c r="U163" s="18">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="V163" s="19">
         <f t="shared" si="16"/>
@@ -15149,16 +15155,16 @@
         <v>28</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
       <c r="G164" s="12">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H164" s="12">
         <f t="shared" si="14"/>
-        <v>72.8</v>
+        <v>86.8</v>
       </c>
       <c r="I164" s="17"/>
       <c r="J164" s="12"/>
@@ -15184,9 +15190,101 @@
         <v>0</v>
       </c>
     </row>
+    <row r="165" customHeight="1" spans="1:22">
+      <c r="A165" s="12">
+        <v>161</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C165" s="12">
+        <v>28</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="H165" s="12">
+        <f t="shared" si="14"/>
+        <v>81.2</v>
+      </c>
+      <c r="I165" s="17"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="12"/>
+      <c r="P165" s="12"/>
+      <c r="Q165" s="12"/>
+      <c r="R165" s="12"/>
+      <c r="S165" s="12"/>
+      <c r="T165" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U165" s="18">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="V165" s="19">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:22">
+      <c r="A166" s="12">
+        <v>162</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C166" s="12">
+        <v>28</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="H166" s="12">
+        <f t="shared" si="14"/>
+        <v>72.8</v>
+      </c>
+      <c r="I166" s="17"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+      <c r="O166" s="12"/>
+      <c r="P166" s="12"/>
+      <c r="Q166" s="12"/>
+      <c r="R166" s="12"/>
+      <c r="S166" s="12"/>
+      <c r="T166" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U166" s="18">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="V166" s="19">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:W164">
-    <sortState ref="A4:W164">
+  <autoFilter ref="A4:W166">
+    <sortState ref="A4:W166">
       <sortCondition ref="I4:I89"/>
     </sortState>
     <extLst/>
@@ -15216,12 +15314,12 @@
   <sheetPr/>
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -15355,13 +15453,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13">
@@ -15398,13 +15496,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13">
@@ -15441,13 +15539,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>269</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>267</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13">
@@ -15484,13 +15582,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13">
@@ -15527,13 +15625,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13">
@@ -15570,13 +15668,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13">
@@ -15613,13 +15711,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>272</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13">
@@ -15656,13 +15754,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13">
@@ -15699,13 +15797,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13">
@@ -15742,13 +15840,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C14" s="13">
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13">
@@ -15785,13 +15883,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C15" s="13">
         <v>1</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13">
@@ -15828,13 +15926,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C16" s="13">
         <v>1</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13">
@@ -15871,13 +15969,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13">
@@ -15914,13 +16012,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13">
@@ -15957,13 +16055,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C19" s="13">
         <v>1</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13">
@@ -16000,13 +16098,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C20" s="13">
         <v>1</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13">
@@ -16043,13 +16141,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13">
@@ -16086,13 +16184,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13">
@@ -16130,13 +16228,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13">
@@ -16173,13 +16271,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C24" s="13">
         <v>1</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13">
@@ -16216,13 +16314,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C25" s="13">
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13">
@@ -16261,13 +16359,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C26" s="13">
         <v>1</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13">
@@ -16304,13 +16402,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C27" s="13">
         <v>1</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13">
@@ -16347,13 +16445,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13">
@@ -16390,13 +16488,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>293</v>
-      </c>
-      <c r="C29" s="13">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>291</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13">
@@ -16433,13 +16531,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C30" s="13">
         <v>2</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13">
@@ -16476,13 +16574,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C31" s="13">
         <v>1</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13">
@@ -16519,13 +16617,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C32" s="13">
         <v>1</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13">
@@ -16562,13 +16660,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C33" s="13">
         <v>2</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13">
@@ -16605,13 +16703,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C34" s="13">
         <v>1</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13">
@@ -16648,13 +16746,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C35" s="13">
         <v>1</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13">
@@ -16691,13 +16789,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C36" s="13">
         <v>1</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13">
@@ -16734,13 +16832,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C37" s="13">
         <v>1</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13">
@@ -16777,13 +16875,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C38" s="13">
         <v>1</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13">
@@ -16820,13 +16918,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C39" s="13">
         <v>1</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13">
@@ -16863,13 +16961,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C40" s="13">
         <v>1</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13">
@@ -16906,13 +17004,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C41" s="13">
         <v>3</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13">
@@ -16949,13 +17047,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C42" s="13">
         <v>1</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13">
@@ -16992,13 +17090,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C43" s="13">
         <v>1</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13">
@@ -17035,13 +17133,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C44" s="13">
         <v>3</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13">
@@ -17078,13 +17176,13 @@
         <v>41</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C45" s="13">
         <v>1</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13">
@@ -17121,13 +17219,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C46" s="13">
         <v>1</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13">
@@ -17164,13 +17262,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C47" s="13">
         <v>1</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13">
@@ -17207,13 +17305,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C48" s="13">
         <v>1</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13">
@@ -17250,13 +17348,13 @@
         <v>45</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C49" s="14">
         <v>2</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="14">
@@ -17293,13 +17391,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C50" s="14">
         <v>2</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="14">
@@ -17336,13 +17434,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C51" s="14">
         <v>4</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="14">
@@ -17379,13 +17477,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C52" s="14">
         <v>1</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="14">
@@ -17422,13 +17520,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C53" s="14">
         <v>1</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="14">
@@ -17465,13 +17563,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C54" s="14">
         <v>4</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="14">
@@ -17508,13 +17606,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C55" s="14">
         <v>1</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="14">
@@ -17551,13 +17649,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C56" s="14">
+        <v>1</v>
+      </c>
+      <c r="D56" s="14" t="s">
         <v>324</v>
-      </c>
-      <c r="C56" s="14">
-        <v>1</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>322</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="14">
@@ -17594,13 +17692,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C57" s="14">
         <v>8</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="14">
@@ -17637,13 +17735,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C58" s="14">
         <v>1</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="14">
@@ -17680,13 +17778,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C59" s="14">
         <v>1</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="14">
@@ -17723,13 +17821,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C60" s="14">
         <v>1</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="14">
@@ -17766,13 +17864,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C61" s="14">
         <v>1</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="14">
@@ -17809,13 +17907,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C62" s="14">
         <v>10</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="14">
@@ -17852,13 +17950,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C63" s="14">
         <v>1</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="14">
@@ -17895,13 +17993,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C64" s="14">
         <v>1</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="14">
@@ -17938,13 +18036,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C65" s="14">
         <v>1</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="14">
@@ -17981,13 +18079,13 @@
         <v>62</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C66" s="14">
         <v>1</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="14">
@@ -18024,13 +18122,13 @@
         <v>63</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C67" s="14">
         <v>1</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="14">
@@ -18067,13 +18165,13 @@
         <v>64</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C68" s="14">
         <v>1</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="14">
@@ -18110,13 +18208,13 @@
         <v>65</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C69" s="14">
         <v>1</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="14">
@@ -18153,13 +18251,13 @@
         <v>66</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C70" s="14">
         <v>1</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="14">
@@ -18196,13 +18294,13 @@
         <v>67</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C71" s="14">
         <v>1</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="14">
@@ -18239,13 +18337,13 @@
         <v>68</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C72" s="14">
         <v>1</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="14">
@@ -18282,13 +18380,13 @@
         <v>69</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C73" s="14">
         <v>1</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="14">
@@ -18325,13 +18423,13 @@
         <v>70</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C74" s="14">
         <v>1</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="14">
@@ -18368,13 +18466,13 @@
         <v>71</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C75" s="14">
         <v>1</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="14">
@@ -18411,13 +18509,13 @@
         <v>72</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C76" s="14">
         <v>1</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="14">
@@ -18454,13 +18552,13 @@
         <v>73</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C77" s="14">
         <v>24</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="14">
@@ -18497,13 +18595,13 @@
         <v>74</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C78" s="14">
         <v>14</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="14">
@@ -18540,13 +18638,13 @@
         <v>75</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C79" s="14">
         <v>28</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="14">
@@ -18583,13 +18681,13 @@
         <v>76</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C80" s="14">
         <v>28</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="14">
@@ -18626,13 +18724,13 @@
         <v>77</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C81" s="14">
         <v>52</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="14">
@@ -18669,13 +18767,13 @@
         <v>78</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C82" s="14">
         <v>8</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="14">
@@ -18712,13 +18810,13 @@
         <v>79</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C83" s="14">
         <v>8</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="14">

--- a/油漆统计.xlsx
+++ b/油漆统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="义乌奥晶办公室食堂 （完成）" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'义乌奥晶办公室食堂 （完成）'!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">福州地铁!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'广东华丰 '!$A$4:$W$166</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'大东海 '!$A$4:$R$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'大东海 '!$A$4:$AB$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'诸暨煤矿机械2#厂房TS'!$A$4:$AB$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'模板 (2)'!$A$4:$R$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'模板 (3)'!$A$4:$R$83</definedName>
@@ -1183,16 +1183,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1249,11 +1249,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1272,92 +1280,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1379,8 +1303,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,19 +1413,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,109 +1461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,13 +1485,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,19 +1575,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,6 +1655,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1675,21 +1725,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1717,41 +1752,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1763,7 +1763,7 @@
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1772,136 +1772,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1972,7 +1972,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1984,13 +1984,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
@@ -2014,16 +2014,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -17807,17 +17807,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:W166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="I125" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
+      <selection pane="bottomRight" activeCell="C149" sqref="C146:C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -17973,7 +17973,9 @@
       <c r="Q4" s="35">
         <v>1.31</v>
       </c>
-      <c r="R4" s="32"/>
+      <c r="R4" s="32">
+        <v>2.6</v>
+      </c>
       <c r="S4" s="32"/>
       <c r="T4" s="23" t="s">
         <v>12</v>
@@ -17983,7 +17985,7 @@
       </c>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" hidden="1" customHeight="1" spans="1:22">
+    <row r="5" customHeight="1" spans="1:22">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -18033,7 +18035,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="6" hidden="1" customHeight="1" spans="1:22">
+    <row r="6" customHeight="1" spans="1:22">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -18083,7 +18085,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="7" hidden="1" customHeight="1" spans="1:22">
+    <row r="7" customHeight="1" spans="1:22">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -18133,7 +18135,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="8" hidden="1" customHeight="1" spans="1:22">
+    <row r="8" customHeight="1" spans="1:22">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -18183,7 +18185,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="9" hidden="1" customHeight="1" spans="1:22">
+    <row r="9" customHeight="1" spans="1:22">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -18233,7 +18235,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="10" hidden="1" customHeight="1" spans="1:22">
+    <row r="10" customHeight="1" spans="1:22">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -18283,7 +18285,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="11" hidden="1" customHeight="1" spans="1:22">
+    <row r="11" customHeight="1" spans="1:22">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -18333,7 +18335,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="12" hidden="1" customHeight="1" spans="1:22">
+    <row r="12" customHeight="1" spans="1:22">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -18385,7 +18387,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="13" hidden="1" customHeight="1" spans="1:22">
+    <row r="13" customHeight="1" spans="1:22">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -18435,7 +18437,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="14" hidden="1" customHeight="1" spans="1:22">
+    <row r="14" customHeight="1" spans="1:22">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -18485,7 +18487,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="15" hidden="1" customHeight="1" spans="1:22">
+    <row r="15" customHeight="1" spans="1:22">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -18535,7 +18537,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="16" hidden="1" customHeight="1" spans="1:22">
+    <row r="16" customHeight="1" spans="1:22">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -18585,7 +18587,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="17" hidden="1" customHeight="1" spans="1:22">
+    <row r="17" customHeight="1" spans="1:22">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -18635,7 +18637,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="18" hidden="1" customHeight="1" spans="1:22">
+    <row r="18" customHeight="1" spans="1:22">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -18685,7 +18687,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="19" hidden="1" customHeight="1" spans="1:22">
+    <row r="19" customHeight="1" spans="1:22">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -18735,7 +18737,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="20" hidden="1" customHeight="1" spans="1:22">
+    <row r="20" customHeight="1" spans="1:22">
       <c r="A20" s="13">
         <v>16</v>
       </c>
@@ -18785,7 +18787,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="21" hidden="1" customHeight="1" spans="1:22">
+    <row r="21" customHeight="1" spans="1:22">
       <c r="A21" s="13">
         <v>17</v>
       </c>
@@ -18835,7 +18837,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="22" hidden="1" customHeight="1" spans="1:23">
+    <row r="22" customHeight="1" spans="1:23">
       <c r="A22" s="13">
         <v>18</v>
       </c>
@@ -18886,7 +18888,7 @@
       </c>
       <c r="W22" s="27"/>
     </row>
-    <row r="23" hidden="1" customHeight="1" spans="1:22">
+    <row r="23" customHeight="1" spans="1:22">
       <c r="A23" s="13">
         <v>19</v>
       </c>
@@ -18936,7 +18938,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="24" hidden="1" customHeight="1" spans="1:22">
+    <row r="24" customHeight="1" spans="1:22">
       <c r="A24" s="13">
         <v>20</v>
       </c>
@@ -18986,7 +18988,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="25" hidden="1" customHeight="1" spans="1:22">
+    <row r="25" customHeight="1" spans="1:22">
       <c r="A25" s="13">
         <v>21</v>
       </c>
@@ -19036,7 +19038,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="26" hidden="1" customHeight="1" spans="1:22">
+    <row r="26" customHeight="1" spans="1:22">
       <c r="A26" s="13">
         <v>22</v>
       </c>
@@ -19086,7 +19088,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="27" hidden="1" customHeight="1" spans="1:22">
+    <row r="27" customHeight="1" spans="1:22">
       <c r="A27" s="13">
         <v>23</v>
       </c>
@@ -19136,7 +19138,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="28" hidden="1" customHeight="1" spans="1:22">
+    <row r="28" customHeight="1" spans="1:22">
       <c r="A28" s="13">
         <v>24</v>
       </c>
@@ -19186,7 +19188,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="29" hidden="1" customHeight="1" spans="1:22">
+    <row r="29" customHeight="1" spans="1:22">
       <c r="A29" s="13">
         <v>25</v>
       </c>
@@ -19236,7 +19238,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="30" hidden="1" customHeight="1" spans="1:22">
+    <row r="30" customHeight="1" spans="1:22">
       <c r="A30" s="13">
         <v>26</v>
       </c>
@@ -19288,7 +19290,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="31" hidden="1" customHeight="1" spans="1:22">
+    <row r="31" customHeight="1" spans="1:22">
       <c r="A31" s="13">
         <v>27</v>
       </c>
@@ -19338,7 +19340,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="32" hidden="1" customHeight="1" spans="1:22">
+    <row r="32" customHeight="1" spans="1:22">
       <c r="A32" s="13">
         <v>28</v>
       </c>
@@ -19388,7 +19390,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="33" hidden="1" customHeight="1" spans="1:22">
+    <row r="33" customHeight="1" spans="1:22">
       <c r="A33" s="13">
         <v>29</v>
       </c>
@@ -19438,7 +19440,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="34" hidden="1" customHeight="1" spans="1:22">
+    <row r="34" customHeight="1" spans="1:22">
       <c r="A34" s="13">
         <v>30</v>
       </c>
@@ -19488,7 +19490,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="35" hidden="1" customHeight="1" spans="1:22">
+    <row r="35" customHeight="1" spans="1:22">
       <c r="A35" s="13">
         <v>31</v>
       </c>
@@ -19538,7 +19540,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="36" hidden="1" customHeight="1" spans="1:22">
+    <row r="36" customHeight="1" spans="1:22">
       <c r="A36" s="13">
         <v>32</v>
       </c>
@@ -19588,7 +19590,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="37" hidden="1" customHeight="1" spans="1:22">
+    <row r="37" customHeight="1" spans="1:22">
       <c r="A37" s="13">
         <v>33</v>
       </c>
@@ -19673,22 +19675,24 @@
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
+      <c r="R38" s="13">
+        <v>1</v>
+      </c>
       <c r="S38" s="13"/>
       <c r="T38" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="25">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V38" s="26">
+        <v>0</v>
+      </c>
+      <c r="V38" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" hidden="1" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:22">
       <c r="A39" s="13">
         <v>35</v>
       </c>
@@ -19738,7 +19742,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="40" hidden="1" customHeight="1" spans="1:22">
+    <row r="40" customHeight="1" spans="1:22">
       <c r="A40" s="13">
         <v>36</v>
       </c>
@@ -19788,7 +19792,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="41" hidden="1" customHeight="1" spans="1:22">
+    <row r="41" customHeight="1" spans="1:22">
       <c r="A41" s="13">
         <v>37</v>
       </c>
@@ -19838,7 +19842,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="42" hidden="1" customHeight="1" spans="1:22">
+    <row r="42" customHeight="1" spans="1:22">
       <c r="A42" s="13">
         <v>38</v>
       </c>
@@ -19888,7 +19892,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="43" hidden="1" customHeight="1" spans="1:22">
+    <row r="43" customHeight="1" spans="1:22">
       <c r="A43" s="13">
         <v>39</v>
       </c>
@@ -19971,22 +19975,24 @@
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
+      <c r="R44" s="13">
+        <v>1</v>
+      </c>
       <c r="S44" s="13"/>
       <c r="T44" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" s="25">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V44" s="26">
+        <v>0</v>
+      </c>
+      <c r="V44" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" hidden="1" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:22">
       <c r="A45" s="13">
         <v>41</v>
       </c>
@@ -20036,7 +20042,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="46" hidden="1" customHeight="1" spans="1:22">
+    <row r="46" customHeight="1" spans="1:22">
       <c r="A46" s="13">
         <v>42</v>
       </c>
@@ -20086,7 +20092,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="47" hidden="1" customHeight="1" spans="1:22">
+    <row r="47" customHeight="1" spans="1:22">
       <c r="A47" s="13">
         <v>43</v>
       </c>
@@ -20136,7 +20142,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="48" hidden="1" customHeight="1" spans="1:22">
+    <row r="48" customHeight="1" spans="1:22">
       <c r="A48" s="13">
         <v>44</v>
       </c>
@@ -20186,7 +20192,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="49" hidden="1" customHeight="1" spans="1:22">
+    <row r="49" customHeight="1" spans="1:22">
       <c r="A49" s="13">
         <v>45</v>
       </c>
@@ -20269,22 +20275,24 @@
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
+      <c r="R50" s="13">
+        <v>1</v>
+      </c>
       <c r="S50" s="13"/>
       <c r="T50" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="25">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V50" s="26">
+        <v>0</v>
+      </c>
+      <c r="V50" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" hidden="1" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:22">
       <c r="A51" s="13">
         <v>47</v>
       </c>
@@ -20334,7 +20342,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="52" hidden="1" customHeight="1" spans="1:22">
+    <row r="52" customHeight="1" spans="1:22">
       <c r="A52" s="13">
         <v>48</v>
       </c>
@@ -20384,7 +20392,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="53" hidden="1" customHeight="1" spans="1:22">
+    <row r="53" customHeight="1" spans="1:22">
       <c r="A53" s="13">
         <v>49</v>
       </c>
@@ -20434,7 +20442,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="54" hidden="1" customHeight="1" spans="1:22">
+    <row r="54" customHeight="1" spans="1:22">
       <c r="A54" s="13">
         <v>50</v>
       </c>
@@ -20484,7 +20492,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="55" hidden="1" customHeight="1" spans="1:22">
+    <row r="55" customHeight="1" spans="1:22">
       <c r="A55" s="13">
         <v>51</v>
       </c>
@@ -20567,19 +20575,21 @@
       <c r="O56" s="13"/>
       <c r="P56" s="13"/>
       <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
+      <c r="R56" s="13">
+        <v>3</v>
+      </c>
       <c r="S56" s="13"/>
       <c r="T56" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U56" s="25">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V56" s="26">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:22">
@@ -20663,19 +20673,21 @@
       <c r="O58" s="13"/>
       <c r="P58" s="13"/>
       <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
+      <c r="R58" s="13">
+        <v>1</v>
+      </c>
       <c r="S58" s="13"/>
       <c r="T58" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" s="25">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V58" s="26">
+        <v>0</v>
+      </c>
+      <c r="V58" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:22">
@@ -20711,19 +20723,21 @@
       <c r="O59" s="13"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
+      <c r="R59" s="13">
+        <v>1</v>
+      </c>
       <c r="S59" s="13"/>
       <c r="T59" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="25">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V59" s="26">
+        <v>0</v>
+      </c>
+      <c r="V59" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:22">
@@ -20774,7 +20788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" hidden="1" customHeight="1" spans="1:22">
+    <row r="61" customHeight="1" spans="1:22">
       <c r="A61" s="13">
         <v>57</v>
       </c>
@@ -20824,7 +20838,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="62" hidden="1" customHeight="1" spans="1:22">
+    <row r="62" customHeight="1" spans="1:22">
       <c r="A62" s="13">
         <v>58</v>
       </c>
@@ -20874,7 +20888,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="63" hidden="1" customHeight="1" spans="1:22">
+    <row r="63" customHeight="1" spans="1:22">
       <c r="A63" s="13">
         <v>59</v>
       </c>
@@ -20924,7 +20938,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="64" hidden="1" customHeight="1" spans="1:22">
+    <row r="64" customHeight="1" spans="1:22">
       <c r="A64" s="13">
         <v>60</v>
       </c>
@@ -20974,7 +20988,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="65" hidden="1" customHeight="1" spans="1:22">
+    <row r="65" customHeight="1" spans="1:22">
       <c r="A65" s="13">
         <v>61</v>
       </c>
@@ -21024,7 +21038,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="66" hidden="1" customHeight="1" spans="1:22">
+    <row r="66" customHeight="1" spans="1:22">
       <c r="A66" s="13">
         <v>62</v>
       </c>
@@ -21074,7 +21088,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="67" hidden="1" customHeight="1" spans="1:22">
+    <row r="67" customHeight="1" spans="1:22">
       <c r="A67" s="13">
         <v>63</v>
       </c>
@@ -21124,7 +21138,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="68" hidden="1" customHeight="1" spans="1:22">
+    <row r="68" customHeight="1" spans="1:22">
       <c r="A68" s="13">
         <v>64</v>
       </c>
@@ -21174,7 +21188,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="69" hidden="1" customHeight="1" spans="1:22">
+    <row r="69" customHeight="1" spans="1:22">
       <c r="A69" s="13">
         <v>65</v>
       </c>
@@ -21224,7 +21238,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="70" hidden="1" customHeight="1" spans="1:22">
+    <row r="70" customHeight="1" spans="1:22">
       <c r="A70" s="13">
         <v>66</v>
       </c>
@@ -21307,19 +21321,21 @@
       <c r="O71" s="13"/>
       <c r="P71" s="13"/>
       <c r="Q71" s="13"/>
-      <c r="R71" s="13"/>
+      <c r="R71" s="13">
+        <v>1</v>
+      </c>
       <c r="S71" s="13"/>
       <c r="T71" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" s="25">
         <f t="shared" ref="U71:U91" si="7">C71-T71</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V71" s="26">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:22">
@@ -21403,19 +21419,21 @@
       <c r="O73" s="13"/>
       <c r="P73" s="13"/>
       <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
+      <c r="R73" s="13">
+        <v>1</v>
+      </c>
       <c r="S73" s="13"/>
       <c r="T73" s="25">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V73" s="26">
+        <v>0</v>
+      </c>
+      <c r="V73" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:22">
@@ -21451,19 +21469,21 @@
       <c r="O74" s="13"/>
       <c r="P74" s="13"/>
       <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
+      <c r="R74" s="13">
+        <v>1</v>
+      </c>
       <c r="S74" s="13"/>
       <c r="T74" s="25">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V74" s="26">
+        <v>0</v>
+      </c>
+      <c r="V74" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:22">
@@ -21499,22 +21519,24 @@
       <c r="O75" s="13"/>
       <c r="P75" s="13"/>
       <c r="Q75" s="13"/>
-      <c r="R75" s="13"/>
+      <c r="R75" s="13">
+        <v>1</v>
+      </c>
       <c r="S75" s="13"/>
       <c r="T75" s="25">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V75" s="26">
+        <v>0</v>
+      </c>
+      <c r="V75" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" hidden="1" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:22">
       <c r="A76" s="13">
         <v>72</v>
       </c>
@@ -21566,7 +21588,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="77" hidden="1" customHeight="1" spans="1:22">
+    <row r="77" customHeight="1" spans="1:22">
       <c r="A77" s="13">
         <v>73</v>
       </c>
@@ -21616,7 +21638,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="78" hidden="1" customHeight="1" spans="1:22">
+    <row r="78" customHeight="1" spans="1:22">
       <c r="A78" s="13">
         <v>74</v>
       </c>
@@ -21699,19 +21721,21 @@
       <c r="O79" s="13"/>
       <c r="P79" s="13"/>
       <c r="Q79" s="13"/>
-      <c r="R79" s="13"/>
+      <c r="R79" s="13">
+        <v>1</v>
+      </c>
       <c r="S79" s="13"/>
       <c r="T79" s="25">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V79" s="26">
+        <v>0</v>
+      </c>
+      <c r="V79" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:22">
@@ -21747,19 +21771,21 @@
       <c r="O80" s="13"/>
       <c r="P80" s="13"/>
       <c r="Q80" s="13"/>
-      <c r="R80" s="13"/>
+      <c r="R80" s="13">
+        <v>1</v>
+      </c>
       <c r="S80" s="13"/>
       <c r="T80" s="25">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V80" s="26">
+        <v>0</v>
+      </c>
+      <c r="V80" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:22">
@@ -22035,19 +22061,21 @@
       <c r="O86" s="13"/>
       <c r="P86" s="13"/>
       <c r="Q86" s="13"/>
-      <c r="R86" s="13"/>
+      <c r="R86" s="13">
+        <v>2</v>
+      </c>
       <c r="S86" s="13"/>
       <c r="T86" s="25">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U86" s="25">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="V86" s="26">
+        <v>0</v>
+      </c>
+      <c r="V86" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:22">
@@ -22083,19 +22111,21 @@
       <c r="O87" s="13"/>
       <c r="P87" s="13"/>
       <c r="Q87" s="13"/>
-      <c r="R87" s="13"/>
+      <c r="R87" s="13">
+        <v>1</v>
+      </c>
       <c r="S87" s="13"/>
       <c r="T87" s="25">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U87" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V87" s="26">
+        <v>0</v>
+      </c>
+      <c r="V87" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>完成</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:22">
@@ -22275,22 +22305,24 @@
       <c r="O91" s="13"/>
       <c r="P91" s="13"/>
       <c r="Q91" s="13"/>
-      <c r="R91" s="13"/>
+      <c r="R91" s="13">
+        <v>1</v>
+      </c>
       <c r="S91" s="13"/>
       <c r="T91" s="25">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U91" s="25">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V91" s="26">
+        <v>0</v>
+      </c>
+      <c r="V91" s="26" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" hidden="1" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:22">
       <c r="A92" s="13">
         <v>88</v>
       </c>
@@ -22344,7 +22376,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="93" hidden="1" customHeight="1" spans="1:22">
+    <row r="93" customHeight="1" spans="1:22">
       <c r="A93" s="13">
         <v>89</v>
       </c>
@@ -22396,7 +22428,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="94" hidden="1" customHeight="1" spans="1:22">
+    <row r="94" customHeight="1" spans="1:22">
       <c r="A94" s="13">
         <v>90</v>
       </c>
@@ -22446,7 +22478,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="95" hidden="1" customHeight="1" spans="1:22">
+    <row r="95" customHeight="1" spans="1:22">
       <c r="A95" s="13">
         <v>91</v>
       </c>
@@ -22498,7 +22530,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="96" hidden="1" customHeight="1" spans="1:22">
+    <row r="96" customHeight="1" spans="1:22">
       <c r="A96" s="13">
         <v>92</v>
       </c>
@@ -22548,7 +22580,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="97" hidden="1" customHeight="1" spans="1:22">
+    <row r="97" customHeight="1" spans="1:22">
       <c r="A97" s="13">
         <v>93</v>
       </c>
@@ -22598,7 +22630,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="98" hidden="1" customHeight="1" spans="1:22">
+    <row r="98" customHeight="1" spans="1:22">
       <c r="A98" s="13">
         <v>94</v>
       </c>
@@ -22648,7 +22680,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="99" hidden="1" customHeight="1" spans="1:22">
+    <row r="99" customHeight="1" spans="1:22">
       <c r="A99" s="13">
         <v>95</v>
       </c>
@@ -22698,7 +22730,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="100" hidden="1" customHeight="1" spans="1:22">
+    <row r="100" customHeight="1" spans="1:22">
       <c r="A100" s="13">
         <v>96</v>
       </c>
@@ -22798,7 +22830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" hidden="1" customHeight="1" spans="1:22">
+    <row r="102" customHeight="1" spans="1:22">
       <c r="A102" s="13">
         <v>98</v>
       </c>
@@ -22848,7 +22880,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="103" hidden="1" customHeight="1" spans="1:22">
+    <row r="103" customHeight="1" spans="1:22">
       <c r="A103" s="13">
         <v>99</v>
       </c>
@@ -23284,7 +23316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" hidden="1" customHeight="1" spans="1:22">
+    <row r="112" customHeight="1" spans="1:22">
       <c r="A112" s="13">
         <v>108</v>
       </c>
@@ -23336,7 +23368,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="113" hidden="1" customHeight="1" spans="1:22">
+    <row r="113" customHeight="1" spans="1:22">
       <c r="A113" s="13">
         <v>109</v>
       </c>
@@ -23386,7 +23418,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="114" hidden="1" customHeight="1" spans="1:22">
+    <row r="114" customHeight="1" spans="1:22">
       <c r="A114" s="13">
         <v>110</v>
       </c>
@@ -23436,7 +23468,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="115" hidden="1" customHeight="1" spans="1:22">
+    <row r="115" customHeight="1" spans="1:22">
       <c r="A115" s="13">
         <v>111</v>
       </c>
@@ -23486,7 +23518,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="116" hidden="1" customHeight="1" spans="1:22">
+    <row r="116" customHeight="1" spans="1:22">
       <c r="A116" s="13">
         <v>112</v>
       </c>
@@ -23536,7 +23568,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="117" hidden="1" customHeight="1" spans="1:22">
+    <row r="117" customHeight="1" spans="1:22">
       <c r="A117" s="13">
         <v>113</v>
       </c>
@@ -23586,7 +23618,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="118" hidden="1" customHeight="1" spans="1:22">
+    <row r="118" customHeight="1" spans="1:22">
       <c r="A118" s="13">
         <v>114</v>
       </c>
@@ -23636,7 +23668,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="119" hidden="1" customHeight="1" spans="1:22">
+    <row r="119" customHeight="1" spans="1:22">
       <c r="A119" s="13">
         <v>115</v>
       </c>
@@ -23686,7 +23718,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="120" hidden="1" customHeight="1" spans="1:22">
+    <row r="120" customHeight="1" spans="1:22">
       <c r="A120" s="13">
         <v>116</v>
       </c>
@@ -23736,7 +23768,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="121" hidden="1" customHeight="1" spans="1:22">
+    <row r="121" customHeight="1" spans="1:22">
       <c r="A121" s="13">
         <v>117</v>
       </c>
@@ -23788,7 +23820,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="122" hidden="1" customHeight="1" spans="1:22">
+    <row r="122" customHeight="1" spans="1:22">
       <c r="A122" s="13">
         <v>118</v>
       </c>
@@ -23838,7 +23870,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="123" hidden="1" customHeight="1" spans="1:22">
+    <row r="123" customHeight="1" spans="1:22">
       <c r="A123" s="13">
         <v>119</v>
       </c>
@@ -23888,7 +23920,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="124" hidden="1" customHeight="1" spans="1:22">
+    <row r="124" customHeight="1" spans="1:22">
       <c r="A124" s="13">
         <v>120</v>
       </c>
@@ -23938,7 +23970,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="125" hidden="1" customHeight="1" spans="1:22">
+    <row r="125" customHeight="1" spans="1:22">
       <c r="A125" s="13">
         <v>121</v>
       </c>
@@ -23988,7 +24020,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="126" hidden="1" customHeight="1" spans="1:22">
+    <row r="126" customHeight="1" spans="1:22">
       <c r="A126" s="13">
         <v>122</v>
       </c>
@@ -24038,7 +24070,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="127" hidden="1" customHeight="1" spans="1:22">
+    <row r="127" customHeight="1" spans="1:22">
       <c r="A127" s="13">
         <v>123</v>
       </c>
@@ -24088,7 +24120,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="128" hidden="1" customHeight="1" spans="1:22">
+    <row r="128" customHeight="1" spans="1:22">
       <c r="A128" s="13">
         <v>124</v>
       </c>
@@ -24138,7 +24170,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="129" hidden="1" customHeight="1" spans="1:22">
+    <row r="129" customHeight="1" spans="1:22">
       <c r="A129" s="13">
         <v>125</v>
       </c>
@@ -24188,7 +24220,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="130" hidden="1" customHeight="1" spans="1:22">
+    <row r="130" customHeight="1" spans="1:22">
       <c r="A130" s="13">
         <v>126</v>
       </c>
@@ -24238,7 +24270,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="131" hidden="1" customHeight="1" spans="1:22">
+    <row r="131" customHeight="1" spans="1:22">
       <c r="A131" s="13">
         <v>127</v>
       </c>
@@ -24288,7 +24320,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="132" hidden="1" customHeight="1" spans="1:22">
+    <row r="132" customHeight="1" spans="1:22">
       <c r="A132" s="13">
         <v>128</v>
       </c>
@@ -24338,7 +24370,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="133" hidden="1" customHeight="1" spans="1:22">
+    <row r="133" customHeight="1" spans="1:22">
       <c r="A133" s="13">
         <v>129</v>
       </c>
@@ -24388,7 +24420,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="134" hidden="1" customHeight="1" spans="1:22">
+    <row r="134" customHeight="1" spans="1:22">
       <c r="A134" s="13">
         <v>130</v>
       </c>
@@ -24438,7 +24470,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="135" hidden="1" customHeight="1" spans="1:22">
+    <row r="135" customHeight="1" spans="1:22">
       <c r="A135" s="13">
         <v>131</v>
       </c>
@@ -24488,7 +24520,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="136" hidden="1" customHeight="1" spans="1:22">
+    <row r="136" customHeight="1" spans="1:22">
       <c r="A136" s="13">
         <v>132</v>
       </c>
@@ -24538,7 +24570,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="137" hidden="1" customHeight="1" spans="1:22">
+    <row r="137" customHeight="1" spans="1:22">
       <c r="A137" s="13">
         <v>133</v>
       </c>
@@ -24588,7 +24620,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="138" hidden="1" customHeight="1" spans="1:22">
+    <row r="138" customHeight="1" spans="1:22">
       <c r="A138" s="13">
         <v>134</v>
       </c>
@@ -24638,7 +24670,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="139" hidden="1" customHeight="1" spans="1:22">
+    <row r="139" customHeight="1" spans="1:22">
       <c r="A139" s="13">
         <v>135</v>
       </c>
@@ -24688,7 +24720,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="140" hidden="1" customHeight="1" spans="1:22">
+    <row r="140" customHeight="1" spans="1:22">
       <c r="A140" s="13">
         <v>136</v>
       </c>
@@ -24738,7 +24770,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="141" hidden="1" customHeight="1" spans="1:22">
+    <row r="141" customHeight="1" spans="1:22">
       <c r="A141" s="13">
         <v>137</v>
       </c>
@@ -24788,7 +24820,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="142" hidden="1" customHeight="1" spans="1:22">
+    <row r="142" customHeight="1" spans="1:22">
       <c r="A142" s="13">
         <v>138</v>
       </c>
@@ -24838,7 +24870,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="143" hidden="1" customHeight="1" spans="1:22">
+    <row r="143" customHeight="1" spans="1:22">
       <c r="A143" s="13">
         <v>139</v>
       </c>
@@ -24888,7 +24920,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="144" hidden="1" customHeight="1" spans="1:22">
+    <row r="144" customHeight="1" spans="1:22">
       <c r="A144" s="13">
         <v>140</v>
       </c>
@@ -24938,7 +24970,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="145" hidden="1" customHeight="1" spans="1:22">
+    <row r="145" customHeight="1" spans="1:22">
       <c r="A145" s="13">
         <v>141</v>
       </c>
@@ -25276,7 +25308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" hidden="1" customHeight="1" spans="1:22">
+    <row r="152" customHeight="1" spans="1:22">
       <c r="A152" s="13">
         <v>148</v>
       </c>
@@ -25326,7 +25358,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="153" hidden="1" customHeight="1" spans="1:22">
+    <row r="153" customHeight="1" spans="1:22">
       <c r="A153" s="13">
         <v>149</v>
       </c>
@@ -25376,7 +25408,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="154" hidden="1" customHeight="1" spans="1:22">
+    <row r="154" customHeight="1" spans="1:22">
       <c r="A154" s="13">
         <v>150</v>
       </c>
@@ -25426,7 +25458,7 @@
         <v>完成</v>
       </c>
     </row>
-    <row r="155" hidden="1" customHeight="1" spans="1:22">
+    <row r="155" customHeight="1" spans="1:22">
       <c r="A155" s="13">
         <v>151</v>
       </c>
@@ -26006,13 +26038,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:W166">
-    <filterColumn colId="21">
-      <filters>
-        <filter val="0"/>
-        <filter val="3"/>
-        <filter val="7"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A4:W166">
       <sortCondition ref="I4:I89"/>
     </sortState>
@@ -26043,14 +26068,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:AB83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -26065,16 +26090,16 @@
     <col min="9" max="9" width="12.25" style="5" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.62962962962963" style="4" customWidth="1"/>
-    <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="6" customWidth="1"/>
-    <col min="19" max="16360" width="9" style="6"/>
+    <col min="12" max="23" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="12.5" style="4" customWidth="1"/>
+    <col min="26" max="26" width="9.62962962962963" style="4" customWidth="1"/>
+    <col min="27" max="27" width="20" style="3" customWidth="1"/>
+    <col min="28" max="28" width="12.75" style="6" customWidth="1"/>
+    <col min="29" max="16370" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.1" customHeight="1" spans="2:17">
+    <row r="1" ht="26.1" customHeight="1" spans="2:27">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -26093,8 +26118,18 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:17">
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:27">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -26114,8 +26149,18 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:17">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:27">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -26150,11 +26195,21 @@
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:17">
+    <row r="4" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:27">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -26178,16 +26233,28 @@
       <c r="M4" s="22">
         <v>2.3</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="Z4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:17">
+      <c r="AA4" s="9"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:27">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -26217,20 +26284,30 @@
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
-      <c r="O5" s="25">
-        <f t="shared" ref="O5:O68" si="1">SUM(I5:N5)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="25">
-        <f t="shared" ref="P5:P68" si="2">C5-O5</f>
-        <v>1</v>
-      </c>
-      <c r="Q5" s="26">
-        <f t="shared" ref="Q5:Q68" si="3">IF(SUM(I5:N5)=C5,"完成",SUM(I5:N5))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:17">
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="25">
+        <f>SUM(I5:X5)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="25">
+        <f t="shared" ref="Z5:Z68" si="1">C5-Y5</f>
+        <v>1</v>
+      </c>
+      <c r="AA5" s="26">
+        <f t="shared" ref="AA5:AA68" si="2">IF(SUM(I5:X5)=C5,"完成",SUM(I5:X5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:27">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -26260,20 +26337,30 @@
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
-      <c r="O6" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:17">
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="25">
+        <f t="shared" ref="Y5:Y68" si="3">SUM(I6:X6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:27">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -26303,20 +26390,30 @@
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q7" s="26">
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:17">
+      <c r="Z7" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA7" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:27">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -26346,20 +26443,30 @@
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="26">
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:17">
+      <c r="Z8" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA8" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:27">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -26389,20 +26496,30 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
-      <c r="O9" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="26">
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:17">
+      <c r="Z9" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA9" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:27">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -26432,20 +26549,30 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q10" s="26">
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:17">
+      <c r="Z10" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA10" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:27">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -26475,20 +26602,30 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
-      <c r="O11" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="26">
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:17">
+      <c r="Z11" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:27">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -26518,20 +26655,30 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
-      <c r="O12" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="26">
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:17">
+      <c r="Z12" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA12" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:27">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -26561,20 +26708,30 @@
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
-      <c r="O13" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="26">
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:17">
+      <c r="Z13" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:27">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -26604,20 +26761,30 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
-      <c r="O14" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="26">
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:17">
+      <c r="Z14" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA14" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:27">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -26647,20 +26814,30 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
-      <c r="O15" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="26">
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:17">
+      <c r="Z15" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:27">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -26690,20 +26867,30 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
-      <c r="O16" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="26">
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:17">
+      <c r="Z16" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA16" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:27">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -26733,20 +26920,30 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="26">
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:17">
+      <c r="Z17" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA17" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:27">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -26776,20 +26973,30 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q18" s="26">
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:17">
+      <c r="Z18" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA18" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:27">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -26821,20 +27028,30 @@
         <v>1</v>
       </c>
       <c r="N19" s="13"/>
-      <c r="O19" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P19" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="26" t="str">
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="25">
         <f t="shared" si="3"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:27">
       <c r="A20" s="13">
         <v>16</v>
       </c>
@@ -26864,20 +27081,30 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q20" s="26">
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:17">
+      <c r="Z20" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA20" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:27">
       <c r="A21" s="13">
         <v>17</v>
       </c>
@@ -26907,20 +27134,30 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q21" s="26">
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:18">
+      <c r="Z21" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA21" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:28">
       <c r="A22" s="13">
         <v>18</v>
       </c>
@@ -26950,21 +27187,31 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
-      <c r="O22" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q22" s="26">
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R22" s="27"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:17">
+      <c r="Z22" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA22" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="27"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:27">
       <c r="A23" s="13">
         <v>19</v>
       </c>
@@ -26994,20 +27241,30 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q23" s="26">
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:17">
+      <c r="Z23" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA23" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:27">
       <c r="A24" s="13">
         <v>20</v>
       </c>
@@ -27037,20 +27294,30 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
-      <c r="O24" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q24" s="26">
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:17">
+      <c r="Z24" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA24" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:27">
       <c r="A25" s="13">
         <v>21</v>
       </c>
@@ -27082,20 +27349,30 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P25" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="26" t="str">
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="25">
         <f t="shared" si="3"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:27">
       <c r="A26" s="13">
         <v>22</v>
       </c>
@@ -27125,20 +27402,30 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q26" s="26">
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:17">
+      <c r="Z26" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA26" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:27">
       <c r="A27" s="13">
         <v>23</v>
       </c>
@@ -27170,20 +27457,30 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
-      <c r="O27" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P27" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="26" t="str">
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="25">
         <f t="shared" si="3"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:27">
       <c r="A28" s="13">
         <v>24</v>
       </c>
@@ -27213,20 +27510,30 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
-      <c r="O28" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="26">
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:17">
+      <c r="Z28" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA28" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:27">
       <c r="A29" s="13">
         <v>25</v>
       </c>
@@ -27256,20 +27563,30 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
-      <c r="O29" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q29" s="26">
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:17">
+      <c r="Z29" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA29" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:27">
       <c r="A30" s="13">
         <v>26</v>
       </c>
@@ -27301,20 +27618,30 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
-      <c r="O30" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P30" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q30" s="26">
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:17">
+      <c r="Z30" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA30" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:27">
       <c r="A31" s="13">
         <v>27</v>
       </c>
@@ -27346,20 +27673,30 @@
         <v>1</v>
       </c>
       <c r="N31" s="13"/>
-      <c r="O31" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P31" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="26" t="str">
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="25">
         <f t="shared" si="3"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:27">
       <c r="A32" s="13">
         <v>28</v>
       </c>
@@ -27389,20 +27726,30 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
-      <c r="O32" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q32" s="26">
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:17">
+      <c r="Z32" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA32" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:27">
       <c r="A33" s="13">
         <v>29</v>
       </c>
@@ -27434,20 +27781,30 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
-      <c r="O33" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P33" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q33" s="26">
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:17">
+      <c r="Z33" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA33" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:27">
       <c r="A34" s="13">
         <v>30</v>
       </c>
@@ -27477,20 +27834,30 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
-      <c r="O34" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q34" s="26">
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:17">
+      <c r="Z34" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA34" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:27">
       <c r="A35" s="13">
         <v>31</v>
       </c>
@@ -27520,20 +27887,30 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
-      <c r="O35" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q35" s="26">
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:17">
+      <c r="Z35" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA35" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:27">
       <c r="A36" s="13">
         <v>32</v>
       </c>
@@ -27563,20 +27940,30 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
-      <c r="O36" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q36" s="26">
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:17">
+      <c r="Z36" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA36" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:27">
       <c r="A37" s="13">
         <v>33</v>
       </c>
@@ -27606,20 +27993,30 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
-      <c r="O37" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q37" s="26">
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:17">
+      <c r="Z37" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA37" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:27">
       <c r="A38" s="13">
         <v>34</v>
       </c>
@@ -27649,20 +28046,30 @@
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
-      <c r="O38" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q38" s="26">
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:17">
+      <c r="Z38" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA38" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:27">
       <c r="A39" s="13">
         <v>35</v>
       </c>
@@ -27692,20 +28099,30 @@
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
-      <c r="O39" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q39" s="26">
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:17">
+      <c r="Z39" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA39" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:27">
       <c r="A40" s="13">
         <v>36</v>
       </c>
@@ -27735,20 +28152,30 @@
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
-      <c r="O40" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q40" s="26">
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:17">
+      <c r="Z40" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA40" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:27">
       <c r="A41" s="13">
         <v>37</v>
       </c>
@@ -27778,20 +28205,30 @@
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
-      <c r="O41" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="25">
-        <f t="shared" si="2"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="25">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Q41" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:17">
+      <c r="AA41" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:27">
       <c r="A42" s="13">
         <v>38</v>
       </c>
@@ -27821,20 +28258,30 @@
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
-      <c r="O42" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q42" s="26">
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:17">
+      <c r="Z42" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA42" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:27">
       <c r="A43" s="13">
         <v>39</v>
       </c>
@@ -27864,20 +28311,30 @@
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
-      <c r="O43" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q43" s="26">
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:17">
+      <c r="Z43" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA43" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:27">
       <c r="A44" s="13">
         <v>40</v>
       </c>
@@ -27907,20 +28364,30 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
-      <c r="O44" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="25">
-        <f t="shared" si="2"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="25">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Q44" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:17">
+      <c r="AA44" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:27">
       <c r="A45" s="13">
         <v>41</v>
       </c>
@@ -27950,20 +28417,30 @@
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
-      <c r="O45" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q45" s="26">
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:17">
+      <c r="Z45" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA45" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:27">
       <c r="A46" s="13">
         <v>42</v>
       </c>
@@ -27993,20 +28470,30 @@
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
-      <c r="O46" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q46" s="26">
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:17">
+      <c r="Z46" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA46" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:27">
       <c r="A47" s="13">
         <v>43</v>
       </c>
@@ -28036,20 +28523,30 @@
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
-      <c r="O47" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q47" s="26">
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:17">
+      <c r="Z47" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA47" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:27">
       <c r="A48" s="13">
         <v>44</v>
       </c>
@@ -28079,20 +28576,30 @@
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
-      <c r="O48" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q48" s="26">
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:17">
+      <c r="Z48" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA48" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:27">
       <c r="A49" s="13">
         <v>45</v>
       </c>
@@ -28122,20 +28629,30 @@
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
-      <c r="O49" s="25">
-        <f t="shared" ref="O49:O83" si="5">SUM(I49:N49)</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="25">
-        <f t="shared" ref="P49:P83" si="6">C49-O49</f>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="25">
+        <f t="shared" ref="Y49:Y83" si="5">SUM(I49:X49)</f>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="25">
+        <f t="shared" ref="Z49:Z83" si="6">C49-Y49</f>
         <v>2</v>
       </c>
-      <c r="Q49" s="26">
-        <f t="shared" ref="Q49:Q83" si="7">IF(SUM(I49:N49)=C49,"完成",SUM(I49:N49))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:17">
+      <c r="AA49" s="26">
+        <f t="shared" ref="AA49:AA83" si="7">IF(SUM(I49:X49)=C49,"完成",SUM(I49:X49))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:27">
       <c r="A50" s="13">
         <v>46</v>
       </c>
@@ -28165,20 +28682,30 @@
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
-      <c r="O50" s="25">
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P50" s="25">
+      <c r="Z50" s="25">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="Q50" s="26">
+      <c r="AA50" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:17">
+    <row r="51" customHeight="1" spans="1:27">
       <c r="A51" s="13">
         <v>47</v>
       </c>
@@ -28208,20 +28735,30 @@
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
-      <c r="O51" s="25">
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P51" s="25">
+      <c r="Z51" s="25">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="Q51" s="26">
+      <c r="AA51" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:17">
+    <row r="52" customHeight="1" spans="1:27">
       <c r="A52" s="13">
         <v>48</v>
       </c>
@@ -28250,21 +28787,33 @@
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="25">
+      <c r="N52" s="13">
+        <v>1</v>
+      </c>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="25">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q52" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:17">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:27">
       <c r="A53" s="13">
         <v>49</v>
       </c>
@@ -28293,21 +28842,33 @@
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="25">
+      <c r="N53" s="13">
+        <v>1</v>
+      </c>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="25">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q53" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:17">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:27">
       <c r="A54" s="13">
         <v>50</v>
       </c>
@@ -28339,20 +28900,30 @@
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
-      <c r="O54" s="25">
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="25">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P54" s="25">
+      <c r="Z54" s="25">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="Q54" s="26">
+      <c r="AA54" s="26">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:17">
+    <row r="55" customHeight="1" spans="1:27">
       <c r="A55" s="13">
         <v>51</v>
       </c>
@@ -28378,26 +28949,36 @@
       </c>
       <c r="I55" s="24"/>
       <c r="J55" s="13"/>
-      <c r="K55" s="13">
-        <v>1</v>
-      </c>
+      <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="25">
+      <c r="N55" s="13">
+        <v>1</v>
+      </c>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="25">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P55" s="25">
+      <c r="Z55" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="26" t="str">
+      <c r="AA55" s="26" t="str">
         <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:17">
+    <row r="56" customHeight="1" spans="1:27">
       <c r="A56" s="13">
         <v>52</v>
       </c>
@@ -28423,26 +29004,36 @@
       </c>
       <c r="I56" s="24"/>
       <c r="J56" s="13"/>
-      <c r="K56" s="13">
-        <v>1</v>
-      </c>
+      <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="25">
+      <c r="N56" s="13">
+        <v>1</v>
+      </c>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="25">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="P56" s="25">
+      <c r="Z56" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="26" t="str">
+      <c r="AA56" s="26" t="str">
         <f t="shared" si="7"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:17">
+    <row r="57" customHeight="1" spans="1:27">
       <c r="A57" s="13">
         <v>53</v>
       </c>
@@ -28472,20 +29063,30 @@
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
-      <c r="O57" s="25">
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P57" s="25">
+      <c r="Z57" s="25">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="Q57" s="26">
+      <c r="AA57" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:17">
+    <row r="58" customHeight="1" spans="1:27">
       <c r="A58" s="13">
         <v>54</v>
       </c>
@@ -28515,20 +29116,30 @@
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
-      <c r="O58" s="25">
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="13"/>
+      <c r="Y58" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P58" s="25">
+      <c r="Z58" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q58" s="26">
+      <c r="AA58" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:17">
+    <row r="59" customHeight="1" spans="1:27">
       <c r="A59" s="13">
         <v>55</v>
       </c>
@@ -28558,20 +29169,30 @@
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
-      <c r="O59" s="25">
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P59" s="25">
+      <c r="Z59" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q59" s="26">
+      <c r="AA59" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:17">
+    <row r="60" customHeight="1" spans="1:27">
       <c r="A60" s="13">
         <v>56</v>
       </c>
@@ -28601,20 +29222,30 @@
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
-      <c r="O60" s="25">
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
+      <c r="Y60" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P60" s="25">
+      <c r="Z60" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q60" s="26">
+      <c r="AA60" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:17">
+    <row r="61" customHeight="1" spans="1:27">
       <c r="A61" s="13">
         <v>57</v>
       </c>
@@ -28644,20 +29275,30 @@
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
-      <c r="O61" s="25">
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P61" s="25">
+      <c r="Z61" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q61" s="26">
+      <c r="AA61" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:17">
+    <row r="62" customHeight="1" spans="1:27">
       <c r="A62" s="13">
         <v>58</v>
       </c>
@@ -28687,20 +29328,30 @@
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
-      <c r="O62" s="25">
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P62" s="25">
+      <c r="Z62" s="25">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="Q62" s="26">
+      <c r="AA62" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:17">
+    <row r="63" customHeight="1" spans="1:27">
       <c r="A63" s="13">
         <v>59</v>
       </c>
@@ -28730,20 +29381,30 @@
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
-      <c r="O63" s="25">
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
+      <c r="X63" s="13"/>
+      <c r="Y63" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P63" s="25">
+      <c r="Z63" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q63" s="26">
+      <c r="AA63" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:17">
+    <row r="64" customHeight="1" spans="1:27">
       <c r="A64" s="13">
         <v>60</v>
       </c>
@@ -28773,20 +29434,30 @@
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
-      <c r="O64" s="25">
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
+      <c r="Y64" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P64" s="25">
+      <c r="Z64" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q64" s="26">
+      <c r="AA64" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:17">
+    <row r="65" customHeight="1" spans="1:27">
       <c r="A65" s="13">
         <v>61</v>
       </c>
@@ -28816,20 +29487,30 @@
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
-      <c r="O65" s="25">
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="13"/>
+      <c r="X65" s="13"/>
+      <c r="Y65" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P65" s="25">
+      <c r="Z65" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q65" s="26">
+      <c r="AA65" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:17">
+    <row r="66" customHeight="1" spans="1:27">
       <c r="A66" s="13">
         <v>62</v>
       </c>
@@ -28859,20 +29540,30 @@
       <c r="L66" s="13"/>
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
-      <c r="O66" s="25">
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="13"/>
+      <c r="X66" s="13"/>
+      <c r="Y66" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P66" s="25">
+      <c r="Z66" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q66" s="26">
+      <c r="AA66" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:17">
+    <row r="67" customHeight="1" spans="1:27">
       <c r="A67" s="13">
         <v>63</v>
       </c>
@@ -28902,20 +29593,30 @@
       <c r="L67" s="13"/>
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
-      <c r="O67" s="25">
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
+      <c r="W67" s="13"/>
+      <c r="X67" s="13"/>
+      <c r="Y67" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P67" s="25">
+      <c r="Z67" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q67" s="26">
+      <c r="AA67" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:17">
+    <row r="68" customHeight="1" spans="1:27">
       <c r="A68" s="13">
         <v>64</v>
       </c>
@@ -28945,20 +29646,30 @@
       <c r="L68" s="13"/>
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
-      <c r="O68" s="25">
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
+      <c r="X68" s="13"/>
+      <c r="Y68" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P68" s="25">
+      <c r="Z68" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q68" s="26">
+      <c r="AA68" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:17">
+    <row r="69" customHeight="1" spans="1:27">
       <c r="A69" s="13">
         <v>65</v>
       </c>
@@ -28988,20 +29699,30 @@
       <c r="L69" s="13"/>
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
-      <c r="O69" s="25">
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
+      <c r="X69" s="13"/>
+      <c r="Y69" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P69" s="25">
+      <c r="Z69" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q69" s="26">
+      <c r="AA69" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:17">
+    <row r="70" customHeight="1" spans="1:27">
       <c r="A70" s="13">
         <v>66</v>
       </c>
@@ -29031,20 +29752,30 @@
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
-      <c r="O70" s="25">
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
+      <c r="X70" s="13"/>
+      <c r="Y70" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P70" s="25">
+      <c r="Z70" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q70" s="26">
+      <c r="AA70" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:17">
+    <row r="71" customHeight="1" spans="1:27">
       <c r="A71" s="13">
         <v>67</v>
       </c>
@@ -29074,20 +29805,30 @@
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
-      <c r="O71" s="25">
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="13"/>
+      <c r="Y71" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P71" s="25">
+      <c r="Z71" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q71" s="26">
+      <c r="AA71" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:17">
+    <row r="72" customHeight="1" spans="1:27">
       <c r="A72" s="13">
         <v>68</v>
       </c>
@@ -29117,20 +29858,30 @@
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
-      <c r="O72" s="25">
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P72" s="25">
+      <c r="Z72" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q72" s="26">
+      <c r="AA72" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:17">
+    <row r="73" customHeight="1" spans="1:27">
       <c r="A73" s="13">
         <v>69</v>
       </c>
@@ -29160,20 +29911,30 @@
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
-      <c r="O73" s="25">
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
+      <c r="X73" s="13"/>
+      <c r="Y73" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P73" s="25">
+      <c r="Z73" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q73" s="26">
+      <c r="AA73" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:17">
+    <row r="74" customHeight="1" spans="1:27">
       <c r="A74" s="13">
         <v>70</v>
       </c>
@@ -29203,20 +29964,30 @@
       <c r="L74" s="13"/>
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
-      <c r="O74" s="25">
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="13"/>
+      <c r="Y74" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P74" s="25">
+      <c r="Z74" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q74" s="26">
+      <c r="AA74" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:17">
+    <row r="75" customHeight="1" spans="1:27">
       <c r="A75" s="13">
         <v>71</v>
       </c>
@@ -29246,20 +30017,30 @@
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
-      <c r="O75" s="25">
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P75" s="25">
+      <c r="Z75" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q75" s="26">
+      <c r="AA75" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:17">
+    <row r="76" customHeight="1" spans="1:27">
       <c r="A76" s="13">
         <v>72</v>
       </c>
@@ -29289,20 +30070,30 @@
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
-      <c r="O76" s="25">
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+      <c r="U76" s="13"/>
+      <c r="V76" s="13"/>
+      <c r="W76" s="13"/>
+      <c r="X76" s="13"/>
+      <c r="Y76" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P76" s="25">
+      <c r="Z76" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q76" s="26">
+      <c r="AA76" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:17">
+    <row r="77" customHeight="1" spans="1:27">
       <c r="A77" s="13">
         <v>73</v>
       </c>
@@ -29332,20 +30123,30 @@
       <c r="L77" s="13"/>
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
-      <c r="O77" s="25">
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="13"/>
+      <c r="W77" s="13"/>
+      <c r="X77" s="13"/>
+      <c r="Y77" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P77" s="25">
+      <c r="Z77" s="25">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="Q77" s="26">
+      <c r="AA77" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:17">
+    <row r="78" customHeight="1" spans="1:27">
       <c r="A78" s="13">
         <v>74</v>
       </c>
@@ -29375,20 +30176,30 @@
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
-      <c r="O78" s="25">
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="13"/>
+      <c r="W78" s="13"/>
+      <c r="X78" s="13"/>
+      <c r="Y78" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P78" s="25">
+      <c r="Z78" s="25">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="Q78" s="26">
+      <c r="AA78" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:17">
+    <row r="79" customHeight="1" spans="1:27">
       <c r="A79" s="13">
         <v>75</v>
       </c>
@@ -29418,20 +30229,30 @@
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
-      <c r="O79" s="25">
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="13"/>
+      <c r="Y79" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P79" s="25">
+      <c r="Z79" s="25">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="Q79" s="26">
+      <c r="AA79" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:17">
+    <row r="80" customHeight="1" spans="1:27">
       <c r="A80" s="13">
         <v>76</v>
       </c>
@@ -29461,20 +30282,30 @@
       <c r="L80" s="13"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
-      <c r="O80" s="25">
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13"/>
+      <c r="V80" s="13"/>
+      <c r="W80" s="13"/>
+      <c r="X80" s="13"/>
+      <c r="Y80" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P80" s="25">
+      <c r="Z80" s="25">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="Q80" s="26">
+      <c r="AA80" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:17">
+    <row r="81" customHeight="1" spans="1:27">
       <c r="A81" s="13">
         <v>77</v>
       </c>
@@ -29504,20 +30335,30 @@
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
-      <c r="O81" s="25">
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="13"/>
+      <c r="X81" s="13"/>
+      <c r="Y81" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P81" s="25">
+      <c r="Z81" s="25">
         <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="Q81" s="26">
+      <c r="AA81" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:17">
+    <row r="82" customHeight="1" spans="1:27">
       <c r="A82" s="13">
         <v>78</v>
       </c>
@@ -29547,20 +30388,30 @@
       <c r="L82" s="13"/>
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
-      <c r="O82" s="25">
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="13"/>
+      <c r="W82" s="13"/>
+      <c r="X82" s="13"/>
+      <c r="Y82" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P82" s="25">
+      <c r="Z82" s="25">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="Q82" s="26">
+      <c r="AA82" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:17">
+    <row r="83" customHeight="1" spans="1:27">
       <c r="A83" s="13">
         <v>79</v>
       </c>
@@ -29590,30 +30441,40 @@
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
-      <c r="O83" s="25">
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+      <c r="U83" s="13"/>
+      <c r="V83" s="13"/>
+      <c r="W83" s="13"/>
+      <c r="X83" s="13"/>
+      <c r="Y83" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P83" s="25">
+      <c r="Z83" s="25">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="Q83" s="26">
+      <c r="AA83" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:R83">
-    <sortState ref="A4:R83">
+  <autoFilter ref="A4:AB83">
+    <sortState ref="A4:AB83">
       <sortCondition ref="I4:I75"/>
     </sortState>
     <extLst/>
   </autoFilter>
   <mergeCells count="12">
-    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B1:AA1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="I3:Z3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -29622,7 +30483,7 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="AA3:AA4"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.27" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
@@ -29637,12 +30498,12 @@
   </sheetPr>
   <dimension ref="A1:AB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>

--- a/油漆统计.xlsx
+++ b/油漆统计.xlsx
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'义乌奥晶办公室食堂 （完成）'!$A$4:$R$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">福州地铁!$A$4:$R$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'广东华丰 '!$A$4:$W$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'广东华丰 '!$A$4:$X$166</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'大东海 '!$A$4:$AB$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'诸暨煤矿机械2#厂房TS'!$A$4:$AB$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'模板 (2)'!$A$4:$R$83</definedName>
@@ -1184,14 +1184,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="27">
@@ -1243,17 +1243,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1266,7 +1319,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1281,106 +1380,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,102 +1413,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1521,7 +1425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,13 +1437,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,19 +1467,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,19 +1587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,41 +1656,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1752,6 +1717,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1760,10 +1760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1772,37 +1772,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1811,97 +1811,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1921,10 +1921,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1939,13 +1939,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1963,34 +1963,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
@@ -2014,10 +2014,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17807,17 +17807,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:W166"/>
+  <dimension ref="A1:X166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C149" sqref="C146:C149"/>
+      <selection pane="bottomRight" activeCell="G101" sqref="G101:G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -17833,16 +17833,16 @@
     <col min="10" max="10" width="10" style="4" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="9.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
     <col min="12" max="13" width="8.75" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="19" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="12.5" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.62962962962963" style="4" customWidth="1"/>
-    <col min="22" max="22" width="20" style="3" customWidth="1"/>
-    <col min="23" max="23" width="12.75" style="6" customWidth="1"/>
-    <col min="24" max="16365" width="9" style="6"/>
-    <col min="16366" max="16384" width="9" style="30"/>
+    <col min="14" max="20" width="6.62962962962963" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="12.5" style="4" customWidth="1"/>
+    <col min="22" max="22" width="9.62962962962963" style="4" customWidth="1"/>
+    <col min="23" max="23" width="20" style="3" customWidth="1"/>
+    <col min="24" max="24" width="12.75" style="6" customWidth="1"/>
+    <col min="25" max="16366" width="9" style="6"/>
+    <col min="16367" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.1" customHeight="1" spans="2:22">
+    <row r="1" ht="26.1" customHeight="1" spans="2:23">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -17866,8 +17866,9 @@
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:22">
+      <c r="W1" s="7"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:23">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -17892,8 +17893,9 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:22">
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:23">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -17933,11 +17935,12 @@
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="19"/>
+      <c r="W3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:22">
+    <row r="4" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:23">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -17976,16 +17979,21 @@
       <c r="R4" s="32">
         <v>2.6</v>
       </c>
-      <c r="S4" s="32"/>
-      <c r="T4" s="23" t="s">
+      <c r="S4" s="32">
+        <v>2.7</v>
+      </c>
+      <c r="T4" s="32">
+        <v>2.8</v>
+      </c>
+      <c r="U4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="23" t="s">
+      <c r="V4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="9"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:22">
+      <c r="W4" s="9"/>
+    </row>
+    <row r="5" hidden="1" customHeight="1" spans="1:23">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -18022,20 +18030,21 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
-      <c r="T5" s="25">
-        <f>SUM(I5:S5)</f>
+      <c r="T5" s="13"/>
+      <c r="U5" s="25">
+        <f>SUM(I5:T5)</f>
         <v>3</v>
       </c>
-      <c r="U5" s="25">
-        <f>C5-T5</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="26" t="str">
-        <f>IF(SUM(I5:S5)=C5,"完成",SUM(I5:S5))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:22">
+      <c r="V5" s="25">
+        <f>C5-U5</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="26" t="str">
+        <f>IF(SUM(I5:T5)=C5,"完成",SUM(I5:S5))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" customHeight="1" spans="1:23">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -18072,20 +18081,21 @@
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
-      <c r="T6" s="25">
-        <f t="shared" ref="T6:T45" si="1">SUM(I6:S6)</f>
-        <v>1</v>
-      </c>
+      <c r="T6" s="13"/>
       <c r="U6" s="25">
-        <f t="shared" ref="U5:U69" si="2">C6-T6</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="26" t="str">
-        <f t="shared" ref="V6:V45" si="3">IF(SUM(I6:S6)=C6,"完成",SUM(I6:S6))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:22">
+        <f t="shared" ref="U6:U37" si="1">SUM(I6:T6)</f>
+        <v>1</v>
+      </c>
+      <c r="V6" s="25">
+        <f t="shared" ref="V5:V69" si="2">C6-U6</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="26" t="str">
+        <f t="shared" ref="W6:W37" si="3">IF(SUM(I6:T6)=C6,"完成",SUM(I6:S6))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" customHeight="1" spans="1:23">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -18122,20 +18132,21 @@
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
-      <c r="T7" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T7" s="13"/>
       <c r="U7" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:22">
+    <row r="8" hidden="1" customHeight="1" spans="1:23">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -18172,20 +18183,21 @@
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
-      <c r="T8" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T8" s="13"/>
       <c r="U8" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:22">
+    <row r="9" hidden="1" customHeight="1" spans="1:23">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -18222,20 +18234,21 @@
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
-      <c r="T9" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T9" s="13"/>
       <c r="U9" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:22">
+    <row r="10" hidden="1" customHeight="1" spans="1:23">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -18272,20 +18285,21 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
-      <c r="T10" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T10" s="13"/>
       <c r="U10" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:22">
+    <row r="11" hidden="1" customHeight="1" spans="1:23">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -18322,20 +18336,21 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
-      <c r="T11" s="25">
+      <c r="T11" s="13"/>
+      <c r="U11" s="25">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U11" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="26" t="str">
+      <c r="V11" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:22">
+    <row r="12" hidden="1" customHeight="1" spans="1:23">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -18374,20 +18389,21 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
-      <c r="T12" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T12" s="13"/>
       <c r="U12" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:22">
+    <row r="13" hidden="1" customHeight="1" spans="1:23">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -18424,20 +18440,21 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
-      <c r="T13" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T13" s="13"/>
       <c r="U13" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:22">
+    <row r="14" hidden="1" customHeight="1" spans="1:23">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -18474,20 +18491,21 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
-      <c r="T14" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T14" s="13"/>
       <c r="U14" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:22">
+    <row r="15" hidden="1" customHeight="1" spans="1:23">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -18524,20 +18542,21 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
-      <c r="T15" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T15" s="13"/>
       <c r="U15" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:22">
+    <row r="16" hidden="1" customHeight="1" spans="1:23">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -18574,20 +18593,21 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
-      <c r="T16" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T16" s="13"/>
       <c r="U16" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V16" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:22">
+    <row r="17" hidden="1" customHeight="1" spans="1:23">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -18624,20 +18644,21 @@
       </c>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="25">
+      <c r="T17" s="13"/>
+      <c r="U17" s="25">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U17" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="26" t="str">
+      <c r="V17" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:22">
+    <row r="18" hidden="1" customHeight="1" spans="1:23">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -18674,20 +18695,21 @@
       </c>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T18" s="13"/>
       <c r="U18" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V18" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:22">
+    <row r="19" hidden="1" customHeight="1" spans="1:23">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -18724,20 +18746,21 @@
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
-      <c r="T19" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T19" s="13"/>
       <c r="U19" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V19" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:22">
+    <row r="20" hidden="1" customHeight="1" spans="1:23">
       <c r="A20" s="13">
         <v>16</v>
       </c>
@@ -18774,20 +18797,21 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
-      <c r="T20" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T20" s="13"/>
       <c r="U20" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V20" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:22">
+    <row r="21" hidden="1" customHeight="1" spans="1:23">
       <c r="A21" s="13">
         <v>17</v>
       </c>
@@ -18824,20 +18848,21 @@
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
-      <c r="T21" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T21" s="13"/>
       <c r="U21" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V21" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:23">
+    <row r="22" hidden="1" customHeight="1" spans="1:24">
       <c r="A22" s="13">
         <v>18</v>
       </c>
@@ -18874,21 +18899,22 @@
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
-      <c r="T22" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T22" s="13"/>
       <c r="U22" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V22" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
-      <c r="W22" s="27"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:22">
+      <c r="X22" s="27"/>
+    </row>
+    <row r="23" hidden="1" customHeight="1" spans="1:23">
       <c r="A23" s="13">
         <v>19</v>
       </c>
@@ -18925,20 +18951,21 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="25">
+      <c r="T23" s="13"/>
+      <c r="U23" s="25">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U23" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="26" t="str">
+      <c r="V23" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:22">
+    <row r="24" hidden="1" customHeight="1" spans="1:23">
       <c r="A24" s="13">
         <v>20</v>
       </c>
@@ -18975,20 +19002,21 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T24" s="13"/>
       <c r="U24" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V24" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:22">
+    <row r="25" hidden="1" customHeight="1" spans="1:23">
       <c r="A25" s="13">
         <v>21</v>
       </c>
@@ -19025,20 +19053,21 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
-      <c r="T25" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T25" s="13"/>
       <c r="U25" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V25" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:22">
+    <row r="26" hidden="1" customHeight="1" spans="1:23">
       <c r="A26" s="13">
         <v>22</v>
       </c>
@@ -19075,20 +19104,21 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T26" s="13"/>
       <c r="U26" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V26" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:22">
+    <row r="27" hidden="1" customHeight="1" spans="1:23">
       <c r="A27" s="13">
         <v>23</v>
       </c>
@@ -19125,20 +19155,21 @@
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
-      <c r="T27" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T27" s="13"/>
       <c r="U27" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V27" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:22">
+    <row r="28" hidden="1" customHeight="1" spans="1:23">
       <c r="A28" s="13">
         <v>24</v>
       </c>
@@ -19175,20 +19206,21 @@
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T28" s="13"/>
       <c r="U28" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V28" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:22">
+    <row r="29" hidden="1" customHeight="1" spans="1:23">
       <c r="A29" s="13">
         <v>25</v>
       </c>
@@ -19225,20 +19257,21 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
-      <c r="T29" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T29" s="13"/>
       <c r="U29" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V29" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:22">
+    <row r="30" hidden="1" customHeight="1" spans="1:23">
       <c r="A30" s="13">
         <v>26</v>
       </c>
@@ -19277,20 +19310,21 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
-      <c r="T30" s="25">
+      <c r="T30" s="13"/>
+      <c r="U30" s="25">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U30" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="26" t="str">
+      <c r="V30" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:22">
+    <row r="31" hidden="1" customHeight="1" spans="1:23">
       <c r="A31" s="13">
         <v>27</v>
       </c>
@@ -19327,20 +19361,21 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T31" s="13"/>
       <c r="U31" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V31" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:22">
+    <row r="32" hidden="1" customHeight="1" spans="1:23">
       <c r="A32" s="13">
         <v>28</v>
       </c>
@@ -19377,20 +19412,21 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T32" s="13"/>
       <c r="U32" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V32" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:22">
+    <row r="33" hidden="1" customHeight="1" spans="1:23">
       <c r="A33" s="13">
         <v>29</v>
       </c>
@@ -19427,20 +19463,21 @@
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T33" s="13"/>
       <c r="U33" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V33" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:22">
+    <row r="34" hidden="1" customHeight="1" spans="1:23">
       <c r="A34" s="13">
         <v>30</v>
       </c>
@@ -19477,20 +19514,21 @@
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
-      <c r="T34" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T34" s="13"/>
       <c r="U34" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V34" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:22">
+    <row r="35" hidden="1" customHeight="1" spans="1:23">
       <c r="A35" s="13">
         <v>31</v>
       </c>
@@ -19527,20 +19565,21 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
-      <c r="T35" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T35" s="13"/>
       <c r="U35" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V35" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:22">
+    <row r="36" hidden="1" customHeight="1" spans="1:23">
       <c r="A36" s="13">
         <v>32</v>
       </c>
@@ -19577,20 +19616,21 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T36" s="13"/>
       <c r="U36" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V36" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:22">
+    <row r="37" hidden="1" customHeight="1" spans="1:23">
       <c r="A37" s="13">
         <v>33</v>
       </c>
@@ -19629,20 +19669,21 @@
       </c>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
-      <c r="T37" s="25">
+      <c r="T37" s="13"/>
+      <c r="U37" s="25">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="U37" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="26" t="str">
+      <c r="V37" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="26" t="str">
         <f t="shared" si="3"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:22">
+    <row r="38" hidden="1" customHeight="1" spans="1:23">
       <c r="A38" s="13">
         <v>34</v>
       </c>
@@ -19679,20 +19720,21 @@
         <v>1</v>
       </c>
       <c r="S38" s="13"/>
-      <c r="T38" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T38" s="13"/>
       <c r="U38" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:22">
+        <f t="shared" ref="U38:U69" si="4">SUM(I38:T38)</f>
+        <v>1</v>
+      </c>
+      <c r="V38" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="26" t="str">
+        <f t="shared" ref="W38:W69" si="5">IF(SUM(I38:T38)=C38,"完成",SUM(I38:S38))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" customHeight="1" spans="1:23">
       <c r="A39" s="13">
         <v>35</v>
       </c>
@@ -19729,20 +19771,21 @@
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
-      <c r="T39" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T39" s="13"/>
       <c r="U39" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V39" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" customHeight="1" spans="1:23">
       <c r="A40" s="13">
         <v>36</v>
       </c>
@@ -19779,20 +19822,21 @@
       </c>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
-      <c r="T40" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T40" s="13"/>
       <c r="U40" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V40" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" customHeight="1" spans="1:23">
       <c r="A41" s="13">
         <v>37</v>
       </c>
@@ -19829,20 +19873,21 @@
       </c>
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
-      <c r="T41" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T41" s="13"/>
       <c r="U41" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V41" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" customHeight="1" spans="1:23">
       <c r="A42" s="13">
         <v>38</v>
       </c>
@@ -19879,20 +19924,21 @@
       </c>
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
-      <c r="T42" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T42" s="13"/>
       <c r="U42" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V42" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" customHeight="1" spans="1:23">
       <c r="A43" s="13">
         <v>39</v>
       </c>
@@ -19929,20 +19975,21 @@
       </c>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
-      <c r="T43" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T43" s="13"/>
       <c r="U43" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V43" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" customHeight="1" spans="1:23">
       <c r="A44" s="13">
         <v>40</v>
       </c>
@@ -19979,20 +20026,21 @@
         <v>1</v>
       </c>
       <c r="S44" s="13"/>
-      <c r="T44" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T44" s="13"/>
       <c r="U44" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V44" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="45" hidden="1" customHeight="1" spans="1:23">
       <c r="A45" s="13">
         <v>41</v>
       </c>
@@ -20029,20 +20077,21 @@
       </c>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
-      <c r="T45" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="T45" s="13"/>
       <c r="U45" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V45" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V45" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="46" hidden="1" customHeight="1" spans="1:23">
       <c r="A46" s="13">
         <v>42</v>
       </c>
@@ -20079,20 +20128,21 @@
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
-      <c r="T46" s="25">
-        <f t="shared" ref="T46:T71" si="4">SUM(I46:S46)</f>
+      <c r="T46" s="13"/>
+      <c r="U46" s="25">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="U46" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="26" t="str">
-        <f t="shared" ref="V46:V71" si="5">IF(SUM(I46:S46)=C46,"完成",SUM(I46:S46))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:22">
+      <c r="V46" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" customHeight="1" spans="1:23">
       <c r="A47" s="13">
         <v>43</v>
       </c>
@@ -20129,20 +20179,21 @@
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
-      <c r="T47" s="25">
+      <c r="T47" s="13"/>
+      <c r="U47" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U47" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V47" s="26" t="str">
+      <c r="V47" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:22">
+    <row r="48" hidden="1" customHeight="1" spans="1:23">
       <c r="A48" s="13">
         <v>44</v>
       </c>
@@ -20179,20 +20230,21 @@
       <c r="Q48" s="13"/>
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
-      <c r="T48" s="25">
+      <c r="T48" s="13"/>
+      <c r="U48" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U48" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="26" t="str">
+      <c r="V48" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:22">
+    <row r="49" hidden="1" customHeight="1" spans="1:23">
       <c r="A49" s="13">
         <v>45</v>
       </c>
@@ -20229,20 +20281,21 @@
       <c r="Q49" s="13"/>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
-      <c r="T49" s="25">
+      <c r="T49" s="13"/>
+      <c r="U49" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U49" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V49" s="26" t="str">
+      <c r="V49" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:22">
+    <row r="50" hidden="1" customHeight="1" spans="1:23">
       <c r="A50" s="13">
         <v>46</v>
       </c>
@@ -20279,20 +20332,21 @@
         <v>1</v>
       </c>
       <c r="S50" s="13"/>
-      <c r="T50" s="25">
+      <c r="T50" s="13"/>
+      <c r="U50" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U50" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V50" s="26" t="str">
+      <c r="V50" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:22">
+    <row r="51" hidden="1" customHeight="1" spans="1:23">
       <c r="A51" s="13">
         <v>47</v>
       </c>
@@ -20329,20 +20383,21 @@
       </c>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
-      <c r="T51" s="25">
+      <c r="T51" s="13"/>
+      <c r="U51" s="25">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="U51" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V51" s="26" t="str">
+      <c r="V51" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:22">
+    <row r="52" hidden="1" customHeight="1" spans="1:23">
       <c r="A52" s="13">
         <v>48</v>
       </c>
@@ -20379,20 +20434,21 @@
       </c>
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
-      <c r="T52" s="25">
+      <c r="T52" s="13"/>
+      <c r="U52" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U52" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V52" s="26" t="str">
+      <c r="V52" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:22">
+    <row r="53" hidden="1" customHeight="1" spans="1:23">
       <c r="A53" s="13">
         <v>49</v>
       </c>
@@ -20429,20 +20485,21 @@
       </c>
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
-      <c r="T53" s="25">
+      <c r="T53" s="13"/>
+      <c r="U53" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U53" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V53" s="26" t="str">
+      <c r="V53" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:22">
+    <row r="54" hidden="1" customHeight="1" spans="1:23">
       <c r="A54" s="13">
         <v>50</v>
       </c>
@@ -20479,20 +20536,21 @@
       </c>
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
-      <c r="T54" s="25">
+      <c r="T54" s="13"/>
+      <c r="U54" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U54" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V54" s="26" t="str">
+      <c r="V54" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:22">
+    <row r="55" hidden="1" customHeight="1" spans="1:23">
       <c r="A55" s="13">
         <v>51</v>
       </c>
@@ -20529,20 +20587,21 @@
       </c>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
-      <c r="T55" s="25">
+      <c r="T55" s="13"/>
+      <c r="U55" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U55" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V55" s="26" t="str">
+      <c r="V55" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:22">
+    <row r="56" hidden="1" customHeight="1" spans="1:23">
       <c r="A56" s="13">
         <v>52</v>
       </c>
@@ -20578,21 +20637,24 @@
       <c r="R56" s="13">
         <v>3</v>
       </c>
-      <c r="S56" s="13"/>
-      <c r="T56" s="25">
+      <c r="S56" s="13">
+        <v>1</v>
+      </c>
+      <c r="T56" s="13"/>
+      <c r="U56" s="25">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="U56" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V56" s="26">
+        <v>4</v>
+      </c>
+      <c r="V56" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="57" hidden="1" customHeight="1" spans="1:23">
       <c r="A57" s="13">
         <v>53</v>
       </c>
@@ -20626,21 +20688,24 @@
       <c r="P57" s="13"/>
       <c r="Q57" s="13"/>
       <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="25">
+      <c r="S57" s="13">
+        <v>1</v>
+      </c>
+      <c r="T57" s="13"/>
+      <c r="U57" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V57" s="26">
+        <v>1</v>
+      </c>
+      <c r="V57" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="58" hidden="1" customHeight="1" spans="1:23">
       <c r="A58" s="13">
         <v>54</v>
       </c>
@@ -20677,20 +20742,21 @@
         <v>1</v>
       </c>
       <c r="S58" s="13"/>
-      <c r="T58" s="25">
+      <c r="T58" s="13"/>
+      <c r="U58" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U58" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V58" s="26" t="str">
+      <c r="V58" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:22">
+    <row r="59" hidden="1" customHeight="1" spans="1:23">
       <c r="A59" s="13">
         <v>55</v>
       </c>
@@ -20727,20 +20793,21 @@
         <v>1</v>
       </c>
       <c r="S59" s="13"/>
-      <c r="T59" s="25">
+      <c r="T59" s="13"/>
+      <c r="U59" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U59" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V59" s="26" t="str">
+      <c r="V59" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:22">
+    <row r="60" hidden="1" customHeight="1" spans="1:23">
       <c r="A60" s="13">
         <v>56</v>
       </c>
@@ -20774,21 +20841,24 @@
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="25">
+      <c r="S60" s="13">
+        <v>1</v>
+      </c>
+      <c r="T60" s="13"/>
+      <c r="U60" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U60" s="25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V60" s="26">
+        <v>1</v>
+      </c>
+      <c r="V60" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="26" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="61" hidden="1" customHeight="1" spans="1:23">
       <c r="A61" s="13">
         <v>57</v>
       </c>
@@ -20825,20 +20895,21 @@
       <c r="Q61" s="13"/>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
-      <c r="T61" s="25">
+      <c r="T61" s="13"/>
+      <c r="U61" s="25">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="U61" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V61" s="26" t="str">
+      <c r="V61" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:22">
+    <row r="62" hidden="1" customHeight="1" spans="1:23">
       <c r="A62" s="13">
         <v>58</v>
       </c>
@@ -20875,20 +20946,21 @@
       <c r="Q62" s="13"/>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
-      <c r="T62" s="25">
+      <c r="T62" s="13"/>
+      <c r="U62" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U62" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V62" s="26" t="str">
+      <c r="V62" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:22">
+    <row r="63" hidden="1" customHeight="1" spans="1:23">
       <c r="A63" s="13">
         <v>59</v>
       </c>
@@ -20925,20 +20997,21 @@
       <c r="Q63" s="13"/>
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
-      <c r="T63" s="25">
+      <c r="T63" s="13"/>
+      <c r="U63" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U63" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V63" s="26" t="str">
+      <c r="V63" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:22">
+    <row r="64" hidden="1" customHeight="1" spans="1:23">
       <c r="A64" s="13">
         <v>60</v>
       </c>
@@ -20975,20 +21048,21 @@
       <c r="Q64" s="13"/>
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
-      <c r="T64" s="25">
+      <c r="T64" s="13"/>
+      <c r="U64" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U64" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V64" s="26" t="str">
+      <c r="V64" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:22">
+    <row r="65" hidden="1" customHeight="1" spans="1:23">
       <c r="A65" s="13">
         <v>61</v>
       </c>
@@ -21025,20 +21099,21 @@
       <c r="Q65" s="13"/>
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
-      <c r="T65" s="25">
+      <c r="T65" s="13"/>
+      <c r="U65" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U65" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V65" s="26" t="str">
+      <c r="V65" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:22">
+    <row r="66" hidden="1" customHeight="1" spans="1:23">
       <c r="A66" s="13">
         <v>62</v>
       </c>
@@ -21075,20 +21150,21 @@
       </c>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
-      <c r="T66" s="25">
+      <c r="T66" s="13"/>
+      <c r="U66" s="25">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="U66" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V66" s="26" t="str">
+      <c r="V66" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:22">
+    <row r="67" hidden="1" customHeight="1" spans="1:23">
       <c r="A67" s="13">
         <v>63</v>
       </c>
@@ -21125,20 +21201,21 @@
       </c>
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
-      <c r="T67" s="25">
+      <c r="T67" s="13"/>
+      <c r="U67" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U67" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V67" s="26" t="str">
+      <c r="V67" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:22">
+    <row r="68" hidden="1" customHeight="1" spans="1:23">
       <c r="A68" s="13">
         <v>64</v>
       </c>
@@ -21175,20 +21252,21 @@
       </c>
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
-      <c r="T68" s="25">
+      <c r="T68" s="13"/>
+      <c r="U68" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U68" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V68" s="26" t="str">
+      <c r="V68" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W68" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:22">
+    <row r="69" hidden="1" customHeight="1" spans="1:23">
       <c r="A69" s="13">
         <v>65</v>
       </c>
@@ -21225,20 +21303,21 @@
       </c>
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
-      <c r="T69" s="25">
+      <c r="T69" s="13"/>
+      <c r="U69" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U69" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="26" t="str">
+      <c r="V69" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W69" s="26" t="str">
         <f t="shared" si="5"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:22">
+    <row r="70" hidden="1" customHeight="1" spans="1:23">
       <c r="A70" s="13">
         <v>66</v>
       </c>
@@ -21275,20 +21354,21 @@
       </c>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
-      <c r="T70" s="25">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="T70" s="13"/>
       <c r="U70" s="25">
-        <f>C70-T70</f>
-        <v>0</v>
-      </c>
-      <c r="V70" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:22">
+        <f t="shared" ref="U70:U101" si="6">SUM(I70:T70)</f>
+        <v>1</v>
+      </c>
+      <c r="V70" s="25">
+        <f>C70-U70</f>
+        <v>0</v>
+      </c>
+      <c r="W70" s="26" t="str">
+        <f t="shared" ref="W70:W101" si="7">IF(SUM(I70:T70)=C70,"完成",SUM(I70:S70))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="71" hidden="1" customHeight="1" spans="1:23">
       <c r="A71" s="13">
         <v>67</v>
       </c>
@@ -21309,7 +21389,7 @@
         <v>898.9</v>
       </c>
       <c r="H71" s="13">
-        <f t="shared" ref="H71:H134" si="6">G71*C71</f>
+        <f t="shared" ref="H71:H134" si="8">G71*C71</f>
         <v>3595.6</v>
       </c>
       <c r="I71" s="33"/>
@@ -21324,21 +21404,24 @@
       <c r="R71" s="13">
         <v>1</v>
       </c>
-      <c r="S71" s="13"/>
-      <c r="T71" s="25">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="S71" s="13">
+        <v>3</v>
+      </c>
+      <c r="T71" s="13"/>
       <c r="U71" s="25">
-        <f t="shared" ref="U71:U91" si="7">C71-T71</f>
-        <v>3</v>
-      </c>
-      <c r="V71" s="26">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:22">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="V71" s="25">
+        <f t="shared" ref="V71:V91" si="9">C71-U71</f>
+        <v>0</v>
+      </c>
+      <c r="W71" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="72" hidden="1" customHeight="1" spans="1:23">
       <c r="A72" s="13">
         <v>68</v>
       </c>
@@ -21359,7 +21442,7 @@
         <v>907.4</v>
       </c>
       <c r="H72" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>907.4</v>
       </c>
       <c r="I72" s="33"/>
@@ -21372,21 +21455,24 @@
       <c r="P72" s="13"/>
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="25">
-        <f t="shared" ref="T72:T103" si="8">SUM(I72:S72)</f>
-        <v>0</v>
-      </c>
+      <c r="S72" s="13">
+        <v>1</v>
+      </c>
+      <c r="T72" s="13"/>
       <c r="U72" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V72" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W72" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V72" s="26">
-        <f t="shared" ref="V72:V103" si="9">IF(SUM(I72:S72)=C72,"完成",SUM(I72:S72))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="73" hidden="1" customHeight="1" spans="1:23">
       <c r="A73" s="13">
         <v>69</v>
       </c>
@@ -21407,7 +21493,7 @@
         <v>907.4</v>
       </c>
       <c r="H73" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>907.4</v>
       </c>
       <c r="I73" s="33"/>
@@ -21423,20 +21509,21 @@
         <v>1</v>
       </c>
       <c r="S73" s="13"/>
-      <c r="T73" s="25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="T73" s="13"/>
       <c r="U73" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V73" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W73" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V73" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="74" hidden="1" customHeight="1" spans="1:23">
       <c r="A74" s="13">
         <v>70</v>
       </c>
@@ -21457,7 +21544,7 @@
         <v>908.5</v>
       </c>
       <c r="H74" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>908.5</v>
       </c>
       <c r="I74" s="33"/>
@@ -21473,20 +21560,21 @@
         <v>1</v>
       </c>
       <c r="S74" s="13"/>
-      <c r="T74" s="25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="T74" s="13"/>
       <c r="U74" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V74" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="75" hidden="1" customHeight="1" spans="1:23">
       <c r="A75" s="13">
         <v>71</v>
       </c>
@@ -21507,7 +21595,7 @@
         <v>906.5</v>
       </c>
       <c r="H75" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>906.5</v>
       </c>
       <c r="I75" s="33"/>
@@ -21523,20 +21611,21 @@
         <v>1</v>
       </c>
       <c r="S75" s="13"/>
-      <c r="T75" s="25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="T75" s="13"/>
       <c r="U75" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V75" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V75" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="76" hidden="1" customHeight="1" spans="1:23">
       <c r="A76" s="13">
         <v>72</v>
       </c>
@@ -21557,7 +21646,7 @@
         <v>899.5</v>
       </c>
       <c r="H76" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1799</v>
       </c>
       <c r="I76" s="33"/>
@@ -21575,20 +21664,21 @@
       <c r="Q76" s="13"/>
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
-      <c r="T76" s="25">
-        <f t="shared" si="8"/>
+      <c r="T76" s="13"/>
+      <c r="U76" s="25">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="U76" s="25">
+      <c r="V76" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W76" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V76" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="77" hidden="1" customHeight="1" spans="1:23">
       <c r="A77" s="13">
         <v>73</v>
       </c>
@@ -21609,7 +21699,7 @@
         <v>908</v>
       </c>
       <c r="H77" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>908</v>
       </c>
       <c r="I77" s="33"/>
@@ -21625,20 +21715,21 @@
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
-      <c r="T77" s="25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="T77" s="13"/>
       <c r="U77" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V77" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V77" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="78" hidden="1" customHeight="1" spans="1:23">
       <c r="A78" s="13">
         <v>74</v>
       </c>
@@ -21659,7 +21750,7 @@
         <v>908</v>
       </c>
       <c r="H78" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>908</v>
       </c>
       <c r="I78" s="33"/>
@@ -21675,20 +21766,21 @@
       <c r="Q78" s="13"/>
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
-      <c r="T78" s="25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="T78" s="13"/>
       <c r="U78" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V78" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W78" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V78" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="79" hidden="1" customHeight="1" spans="1:23">
       <c r="A79" s="13">
         <v>75</v>
       </c>
@@ -21709,7 +21801,7 @@
         <v>909.1</v>
       </c>
       <c r="H79" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>909.1</v>
       </c>
       <c r="I79" s="33"/>
@@ -21725,20 +21817,21 @@
         <v>1</v>
       </c>
       <c r="S79" s="13"/>
-      <c r="T79" s="25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="T79" s="13"/>
       <c r="U79" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V79" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W79" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V79" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" customHeight="1" spans="1:23">
       <c r="A80" s="13">
         <v>76</v>
       </c>
@@ -21759,7 +21852,7 @@
         <v>906.8</v>
       </c>
       <c r="H80" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>906.8</v>
       </c>
       <c r="I80" s="33"/>
@@ -21775,20 +21868,21 @@
         <v>1</v>
       </c>
       <c r="S80" s="13"/>
-      <c r="T80" s="25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="T80" s="13"/>
       <c r="U80" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V80" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W80" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V80" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="81" hidden="1" customHeight="1" spans="1:23">
       <c r="A81" s="13">
         <v>77</v>
       </c>
@@ -21809,7 +21903,7 @@
         <v>1099</v>
       </c>
       <c r="H81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2198</v>
       </c>
       <c r="I81" s="33"/>
@@ -21822,21 +21916,24 @@
       <c r="P81" s="13"/>
       <c r="Q81" s="13"/>
       <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="S81" s="13">
+        <v>2</v>
+      </c>
+      <c r="T81" s="13"/>
       <c r="U81" s="25">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="V81" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W81" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="V81" s="26">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" customHeight="1" spans="1:23">
       <c r="A82" s="13">
         <v>78</v>
       </c>
@@ -21857,7 +21954,7 @@
         <v>1103.7</v>
       </c>
       <c r="H82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1103.7</v>
       </c>
       <c r="I82" s="33"/>
@@ -21870,21 +21967,24 @@
       <c r="P82" s="13"/>
       <c r="Q82" s="13"/>
       <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="S82" s="13">
+        <v>1</v>
+      </c>
+      <c r="T82" s="13"/>
       <c r="U82" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V82" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W82" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V82" s="26">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="83" hidden="1" customHeight="1" spans="1:23">
       <c r="A83" s="13">
         <v>79</v>
       </c>
@@ -21905,7 +22005,7 @@
         <v>1103.7</v>
       </c>
       <c r="H83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1103.7</v>
       </c>
       <c r="I83" s="33"/>
@@ -21918,21 +22018,24 @@
       <c r="P83" s="13"/>
       <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
-      <c r="T83" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="S83" s="13">
+        <v>1</v>
+      </c>
+      <c r="T83" s="13"/>
       <c r="U83" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V83" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W83" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V83" s="26">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="84" hidden="1" customHeight="1" spans="1:23">
       <c r="A84" s="13">
         <v>80</v>
       </c>
@@ -21953,7 +22056,7 @@
         <v>1102.8</v>
       </c>
       <c r="H84" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1102.8</v>
       </c>
       <c r="I84" s="33"/>
@@ -21966,21 +22069,24 @@
       <c r="P84" s="13"/>
       <c r="Q84" s="13"/>
       <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="S84" s="13">
+        <v>1</v>
+      </c>
+      <c r="T84" s="13"/>
       <c r="U84" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V84" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W84" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V84" s="26">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="85" hidden="1" customHeight="1" spans="1:23">
       <c r="A85" s="13">
         <v>81</v>
       </c>
@@ -22001,7 +22107,7 @@
         <v>1100.8</v>
       </c>
       <c r="H85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1100.8</v>
       </c>
       <c r="I85" s="33"/>
@@ -22014,21 +22120,24 @@
       <c r="P85" s="13"/>
       <c r="Q85" s="13"/>
       <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
-      <c r="T85" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="S85" s="13">
+        <v>1</v>
+      </c>
+      <c r="T85" s="13"/>
       <c r="U85" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V85" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W85" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V85" s="26">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="86" hidden="1" customHeight="1" spans="1:23">
       <c r="A86" s="13">
         <v>82</v>
       </c>
@@ -22049,7 +22158,7 @@
         <v>898.9</v>
       </c>
       <c r="H86" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1797.8</v>
       </c>
       <c r="I86" s="33"/>
@@ -22065,20 +22174,21 @@
         <v>2</v>
       </c>
       <c r="S86" s="13"/>
-      <c r="T86" s="25">
-        <f t="shared" si="8"/>
+      <c r="T86" s="13"/>
+      <c r="U86" s="25">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="U86" s="25">
+      <c r="V86" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W86" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V86" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="87" hidden="1" customHeight="1" spans="1:23">
       <c r="A87" s="13">
         <v>83</v>
       </c>
@@ -22099,7 +22209,7 @@
         <v>907.4</v>
       </c>
       <c r="H87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>907.4</v>
       </c>
       <c r="I87" s="33"/>
@@ -22115,20 +22225,21 @@
         <v>1</v>
       </c>
       <c r="S87" s="13"/>
-      <c r="T87" s="25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="T87" s="13"/>
       <c r="U87" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V87" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W87" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V87" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="88" hidden="1" customHeight="1" spans="1:23">
       <c r="A88" s="13">
         <v>84</v>
       </c>
@@ -22149,7 +22260,7 @@
         <v>907.4</v>
       </c>
       <c r="H88" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>907.4</v>
       </c>
       <c r="I88" s="33"/>
@@ -22162,21 +22273,24 @@
       <c r="P88" s="13"/>
       <c r="Q88" s="13"/>
       <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
-      <c r="T88" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="S88" s="13">
+        <v>1</v>
+      </c>
+      <c r="T88" s="13"/>
       <c r="U88" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V88" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W88" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V88" s="26">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="89" hidden="1" customHeight="1" spans="1:23">
       <c r="A89" s="13">
         <v>85</v>
       </c>
@@ -22197,7 +22311,7 @@
         <v>909</v>
       </c>
       <c r="H89" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>909</v>
       </c>
       <c r="I89" s="33"/>
@@ -22210,21 +22324,24 @@
       <c r="P89" s="13"/>
       <c r="Q89" s="13"/>
       <c r="R89" s="13"/>
-      <c r="S89" s="13"/>
-      <c r="T89" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="S89" s="13">
+        <v>1</v>
+      </c>
+      <c r="T89" s="13"/>
       <c r="U89" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V89" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W89" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V89" s="26">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="90" hidden="1" customHeight="1" spans="1:23">
       <c r="A90" s="13">
         <v>86</v>
       </c>
@@ -22245,7 +22362,7 @@
         <v>906.7</v>
       </c>
       <c r="H90" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>906.7</v>
       </c>
       <c r="I90" s="33"/>
@@ -22258,21 +22375,24 @@
       <c r="P90" s="13"/>
       <c r="Q90" s="13"/>
       <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="S90" s="13">
+        <v>1</v>
+      </c>
+      <c r="T90" s="13"/>
       <c r="U90" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V90" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W90" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V90" s="26">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="91" hidden="1" customHeight="1" spans="1:23">
       <c r="A91" s="13">
         <v>87</v>
       </c>
@@ -22293,7 +22413,7 @@
         <v>2027.1</v>
       </c>
       <c r="H91" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2027.1</v>
       </c>
       <c r="I91" s="33"/>
@@ -22309,20 +22429,21 @@
         <v>1</v>
       </c>
       <c r="S91" s="13"/>
-      <c r="T91" s="25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="T91" s="13"/>
       <c r="U91" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V91" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W91" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V91" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="92" hidden="1" customHeight="1" spans="1:23">
       <c r="A92" s="13">
         <v>88</v>
       </c>
@@ -22343,7 +22464,7 @@
         <v>1651.1</v>
       </c>
       <c r="H92" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>33022</v>
       </c>
       <c r="I92" s="33"/>
@@ -22363,20 +22484,21 @@
       <c r="Q92" s="13"/>
       <c r="R92" s="13"/>
       <c r="S92" s="13"/>
-      <c r="T92" s="25">
-        <f t="shared" si="8"/>
+      <c r="T92" s="13"/>
+      <c r="U92" s="25">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="U92" s="25">
-        <f t="shared" ref="U92:U123" si="10">C92-T92</f>
-        <v>0</v>
-      </c>
-      <c r="V92" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:22">
+      <c r="V92" s="25">
+        <f t="shared" ref="V92:V123" si="10">C92-U92</f>
+        <v>0</v>
+      </c>
+      <c r="W92" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="93" hidden="1" customHeight="1" spans="1:23">
       <c r="A93" s="13">
         <v>89</v>
       </c>
@@ -22397,7 +22519,7 @@
         <v>1651.1</v>
       </c>
       <c r="H93" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11557.7</v>
       </c>
       <c r="I93" s="33"/>
@@ -22415,20 +22537,21 @@
       <c r="Q93" s="13"/>
       <c r="R93" s="13"/>
       <c r="S93" s="13"/>
-      <c r="T93" s="25">
-        <f t="shared" si="8"/>
+      <c r="T93" s="13"/>
+      <c r="U93" s="25">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="U93" s="25">
+      <c r="V93" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V93" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:22">
+      <c r="W93" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="94" hidden="1" customHeight="1" spans="1:23">
       <c r="A94" s="13">
         <v>90</v>
       </c>
@@ -22449,7 +22572,7 @@
         <v>1673.2</v>
       </c>
       <c r="H94" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1673.2</v>
       </c>
       <c r="I94" s="33"/>
@@ -22465,20 +22588,21 @@
       <c r="Q94" s="13"/>
       <c r="R94" s="13"/>
       <c r="S94" s="13"/>
-      <c r="T94" s="25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="T94" s="13"/>
       <c r="U94" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V94" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V94" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="1:22">
+      <c r="W94" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="95" hidden="1" customHeight="1" spans="1:23">
       <c r="A95" s="13">
         <v>91</v>
       </c>
@@ -22499,7 +22623,7 @@
         <v>1141.6</v>
       </c>
       <c r="H95" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2283.2</v>
       </c>
       <c r="I95" s="33"/>
@@ -22517,20 +22641,21 @@
       <c r="Q95" s="13"/>
       <c r="R95" s="13"/>
       <c r="S95" s="13"/>
-      <c r="T95" s="25">
-        <f t="shared" si="8"/>
+      <c r="T95" s="13"/>
+      <c r="U95" s="25">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="U95" s="25">
+      <c r="V95" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V95" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="1:22">
+      <c r="W95" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="96" hidden="1" customHeight="1" spans="1:23">
       <c r="A96" s="13">
         <v>92</v>
       </c>
@@ -22551,7 +22676,7 @@
         <v>1141.6</v>
       </c>
       <c r="H96" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2283.2</v>
       </c>
       <c r="I96" s="33"/>
@@ -22567,20 +22692,21 @@
       <c r="Q96" s="13"/>
       <c r="R96" s="13"/>
       <c r="S96" s="13"/>
-      <c r="T96" s="25">
-        <f t="shared" si="8"/>
+      <c r="T96" s="13"/>
+      <c r="U96" s="25">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="U96" s="25">
+      <c r="V96" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V96" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:22">
+      <c r="W96" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="97" hidden="1" customHeight="1" spans="1:23">
       <c r="A97" s="13">
         <v>93</v>
       </c>
@@ -22601,7 +22727,7 @@
         <v>1607.9</v>
       </c>
       <c r="H97" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1607.9</v>
       </c>
       <c r="I97" s="33"/>
@@ -22617,20 +22743,21 @@
       <c r="Q97" s="13"/>
       <c r="R97" s="13"/>
       <c r="S97" s="13"/>
-      <c r="T97" s="25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="T97" s="13"/>
       <c r="U97" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V97" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V97" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:22">
+      <c r="W97" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="98" hidden="1" customHeight="1" spans="1:23">
       <c r="A98" s="13">
         <v>94</v>
       </c>
@@ -22651,7 +22778,7 @@
         <v>1607.9</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3215.8</v>
       </c>
       <c r="I98" s="33"/>
@@ -22667,20 +22794,21 @@
       <c r="Q98" s="13"/>
       <c r="R98" s="13"/>
       <c r="S98" s="13"/>
-      <c r="T98" s="25">
-        <f t="shared" si="8"/>
+      <c r="T98" s="13"/>
+      <c r="U98" s="25">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="U98" s="25">
+      <c r="V98" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V98" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:22">
+      <c r="W98" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="99" hidden="1" customHeight="1" spans="1:23">
       <c r="A99" s="13">
         <v>95</v>
       </c>
@@ -22701,7 +22829,7 @@
         <v>1607.9</v>
       </c>
       <c r="H99" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1607.9</v>
       </c>
       <c r="I99" s="33"/>
@@ -22717,20 +22845,21 @@
       <c r="Q99" s="13"/>
       <c r="R99" s="13"/>
       <c r="S99" s="13"/>
-      <c r="T99" s="25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="T99" s="13"/>
       <c r="U99" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V99" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V99" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="1:22">
+      <c r="W99" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="100" hidden="1" customHeight="1" spans="1:23">
       <c r="A100" s="13">
         <v>96</v>
       </c>
@@ -22751,7 +22880,7 @@
         <v>1507.2</v>
       </c>
       <c r="H100" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1507.2</v>
       </c>
       <c r="I100" s="33"/>
@@ -22767,20 +22896,21 @@
       <c r="Q100" s="13"/>
       <c r="R100" s="13"/>
       <c r="S100" s="13"/>
-      <c r="T100" s="25">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="T100" s="13"/>
       <c r="U100" s="25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V100" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V100" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:22">
+      <c r="W100" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:23">
       <c r="A101" s="13">
         <v>97</v>
       </c>
@@ -22801,7 +22931,7 @@
         <v>238.2</v>
       </c>
       <c r="H101" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3573</v>
       </c>
       <c r="I101" s="33"/>
@@ -22817,20 +22947,23 @@
       </c>
       <c r="R101" s="13"/>
       <c r="S101" s="13"/>
-      <c r="T101" s="25">
-        <f t="shared" si="8"/>
-        <v>7</v>
+      <c r="T101" s="13">
+        <v>8</v>
       </c>
       <c r="U101" s="25">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="V101" s="25">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="V101" s="26">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:22">
+        <v>0</v>
+      </c>
+      <c r="W101" s="26" t="str">
+        <f t="shared" si="7"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="102" hidden="1" customHeight="1" spans="1:23">
       <c r="A102" s="13">
         <v>98</v>
       </c>
@@ -22851,7 +22984,7 @@
         <v>156</v>
       </c>
       <c r="H102" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>624</v>
       </c>
       <c r="I102" s="33"/>
@@ -22867,20 +23000,21 @@
       </c>
       <c r="R102" s="13"/>
       <c r="S102" s="13"/>
-      <c r="T102" s="25">
-        <f t="shared" si="8"/>
+      <c r="T102" s="13"/>
+      <c r="U102" s="25">
+        <f t="shared" ref="U102:U133" si="11">SUM(I102:T102)</f>
         <v>4</v>
       </c>
-      <c r="U102" s="25">
+      <c r="V102" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V102" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="1:22">
+      <c r="W102" s="26" t="str">
+        <f t="shared" ref="W102:W133" si="12">IF(SUM(I102:T102)=C102,"完成",SUM(I102:S102))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="103" hidden="1" customHeight="1" spans="1:23">
       <c r="A103" s="13">
         <v>99</v>
       </c>
@@ -22901,7 +23035,7 @@
         <v>227.2</v>
       </c>
       <c r="H103" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>454.4</v>
       </c>
       <c r="I103" s="33"/>
@@ -22917,20 +23051,21 @@
       </c>
       <c r="R103" s="13"/>
       <c r="S103" s="13"/>
-      <c r="T103" s="25">
-        <f t="shared" si="8"/>
+      <c r="T103" s="13"/>
+      <c r="U103" s="25">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="U103" s="25">
+      <c r="V103" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V103" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="104" customHeight="1" spans="1:22">
+      <c r="W103" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:23">
       <c r="A104" s="13">
         <v>100</v>
       </c>
@@ -22951,7 +23086,7 @@
         <v>229.1</v>
       </c>
       <c r="H104" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>916.4</v>
       </c>
       <c r="I104" s="33"/>
@@ -22967,20 +23102,23 @@
       </c>
       <c r="R104" s="13"/>
       <c r="S104" s="13"/>
-      <c r="T104" s="25">
-        <f t="shared" ref="T104:T135" si="11">SUM(I104:S104)</f>
-        <v>3</v>
+      <c r="T104" s="13">
+        <v>1</v>
       </c>
       <c r="U104" s="25">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="V104" s="25">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V104" s="26">
-        <f t="shared" ref="V104:V135" si="12">IF(SUM(I104:S104)=C104,"完成",SUM(I104:S104))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="1:22">
+        <v>0</v>
+      </c>
+      <c r="W104" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:23">
       <c r="A105" s="13">
         <v>101</v>
       </c>
@@ -23001,7 +23139,7 @@
         <v>204.5</v>
       </c>
       <c r="H105" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>204.5</v>
       </c>
       <c r="I105" s="33"/>
@@ -23015,20 +23153,23 @@
       <c r="Q105" s="13"/>
       <c r="R105" s="13"/>
       <c r="S105" s="13"/>
-      <c r="T105" s="25">
+      <c r="T105" s="13">
+        <v>1</v>
+      </c>
+      <c r="U105" s="25">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U105" s="25">
+        <v>1</v>
+      </c>
+      <c r="V105" s="25">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="V105" s="26">
+        <v>0</v>
+      </c>
+      <c r="W105" s="26" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:23">
       <c r="A106" s="13">
         <v>102</v>
       </c>
@@ -23049,7 +23190,7 @@
         <v>5.2</v>
       </c>
       <c r="H106" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1154.4</v>
       </c>
       <c r="I106" s="33"/>
@@ -23063,20 +23204,23 @@
       <c r="Q106" s="13"/>
       <c r="R106" s="13"/>
       <c r="S106" s="13"/>
-      <c r="T106" s="25">
+      <c r="T106" s="13">
+        <v>222</v>
+      </c>
+      <c r="U106" s="25">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U106" s="25">
+        <v>222</v>
+      </c>
+      <c r="V106" s="25">
         <f t="shared" si="10"/>
-        <v>222</v>
-      </c>
-      <c r="V106" s="26">
+        <v>0</v>
+      </c>
+      <c r="W106" s="26" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:23">
       <c r="A107" s="13">
         <v>103</v>
       </c>
@@ -23097,7 +23241,7 @@
         <v>7.8</v>
       </c>
       <c r="H107" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>413.4</v>
       </c>
       <c r="I107" s="33"/>
@@ -23111,20 +23255,23 @@
       <c r="Q107" s="13"/>
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
-      <c r="T107" s="25">
+      <c r="T107" s="13">
+        <v>53</v>
+      </c>
+      <c r="U107" s="25">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U107" s="25">
+        <v>53</v>
+      </c>
+      <c r="V107" s="25">
         <f t="shared" si="10"/>
-        <v>53</v>
-      </c>
-      <c r="V107" s="26">
+        <v>0</v>
+      </c>
+      <c r="W107" s="26" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:23">
       <c r="A108" s="13">
         <v>104</v>
       </c>
@@ -23145,7 +23292,7 @@
         <v>3.1</v>
       </c>
       <c r="H108" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>164.3</v>
       </c>
       <c r="I108" s="33"/>
@@ -23159,20 +23306,23 @@
       <c r="Q108" s="13"/>
       <c r="R108" s="13"/>
       <c r="S108" s="13"/>
-      <c r="T108" s="25">
+      <c r="T108" s="13">
+        <v>53</v>
+      </c>
+      <c r="U108" s="25">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U108" s="25">
+        <v>53</v>
+      </c>
+      <c r="V108" s="25">
         <f t="shared" si="10"/>
-        <v>53</v>
-      </c>
-      <c r="V108" s="26">
+        <v>0</v>
+      </c>
+      <c r="W108" s="26" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:23">
       <c r="A109" s="13">
         <v>105</v>
       </c>
@@ -23193,7 +23343,7 @@
         <v>6.2</v>
       </c>
       <c r="H109" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1264.8</v>
       </c>
       <c r="I109" s="33"/>
@@ -23207,20 +23357,23 @@
       <c r="Q109" s="13"/>
       <c r="R109" s="13"/>
       <c r="S109" s="13"/>
-      <c r="T109" s="25">
+      <c r="T109" s="13">
+        <v>204</v>
+      </c>
+      <c r="U109" s="25">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U109" s="25">
+        <v>204</v>
+      </c>
+      <c r="V109" s="25">
         <f t="shared" si="10"/>
-        <v>204</v>
-      </c>
-      <c r="V109" s="26">
+        <v>0</v>
+      </c>
+      <c r="W109" s="26" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:23">
       <c r="A110" s="13">
         <v>106</v>
       </c>
@@ -23241,7 +23394,7 @@
         <v>8.4</v>
       </c>
       <c r="H110" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>420</v>
       </c>
       <c r="I110" s="33"/>
@@ -23255,20 +23408,23 @@
       <c r="Q110" s="13"/>
       <c r="R110" s="13"/>
       <c r="S110" s="13"/>
-      <c r="T110" s="25">
+      <c r="T110" s="13">
+        <v>50</v>
+      </c>
+      <c r="U110" s="25">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U110" s="25">
+        <v>50</v>
+      </c>
+      <c r="V110" s="25">
         <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="V110" s="26">
+        <v>0</v>
+      </c>
+      <c r="W110" s="26" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:23">
       <c r="A111" s="13">
         <v>107</v>
       </c>
@@ -23289,7 +23445,7 @@
         <v>4.3</v>
       </c>
       <c r="H111" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>206.4</v>
       </c>
       <c r="I111" s="33"/>
@@ -23303,20 +23459,23 @@
       <c r="Q111" s="13"/>
       <c r="R111" s="13"/>
       <c r="S111" s="13"/>
-      <c r="T111" s="25">
+      <c r="T111" s="13">
+        <v>48</v>
+      </c>
+      <c r="U111" s="25">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U111" s="25">
+        <v>48</v>
+      </c>
+      <c r="V111" s="25">
         <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-      <c r="V111" s="26">
+        <v>0</v>
+      </c>
+      <c r="W111" s="26" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="112" hidden="1" customHeight="1" spans="1:23">
       <c r="A112" s="13">
         <v>108</v>
       </c>
@@ -23337,7 +23496,7 @@
         <v>125.1</v>
       </c>
       <c r="H112" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1626.3</v>
       </c>
       <c r="I112" s="33"/>
@@ -23355,20 +23514,21 @@
       </c>
       <c r="R112" s="13"/>
       <c r="S112" s="13"/>
-      <c r="T112" s="25">
+      <c r="T112" s="13"/>
+      <c r="U112" s="25">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="U112" s="25">
+      <c r="V112" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V112" s="26" t="str">
+      <c r="W112" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:22">
+    <row r="113" hidden="1" customHeight="1" spans="1:23">
       <c r="A113" s="13">
         <v>109</v>
       </c>
@@ -23389,7 +23549,7 @@
         <v>84.8</v>
       </c>
       <c r="H113" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>508.8</v>
       </c>
       <c r="I113" s="33"/>
@@ -23405,20 +23565,21 @@
       <c r="Q113" s="13"/>
       <c r="R113" s="13"/>
       <c r="S113" s="13"/>
-      <c r="T113" s="25">
+      <c r="T113" s="13"/>
+      <c r="U113" s="25">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="U113" s="25">
+      <c r="V113" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V113" s="26" t="str">
+      <c r="W113" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:22">
+    <row r="114" hidden="1" customHeight="1" spans="1:23">
       <c r="A114" s="13">
         <v>110</v>
       </c>
@@ -23439,7 +23600,7 @@
         <v>119.7</v>
       </c>
       <c r="H114" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>718.2</v>
       </c>
       <c r="I114" s="33"/>
@@ -23455,20 +23616,21 @@
       </c>
       <c r="R114" s="13"/>
       <c r="S114" s="13"/>
-      <c r="T114" s="25">
+      <c r="T114" s="13"/>
+      <c r="U114" s="25">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="U114" s="25">
+      <c r="V114" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V114" s="26" t="str">
+      <c r="W114" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:22">
+    <row r="115" hidden="1" customHeight="1" spans="1:23">
       <c r="A115" s="13">
         <v>111</v>
       </c>
@@ -23489,7 +23651,7 @@
         <v>120.9</v>
       </c>
       <c r="H115" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>120.9</v>
       </c>
       <c r="I115" s="33"/>
@@ -23505,20 +23667,21 @@
       <c r="Q115" s="13"/>
       <c r="R115" s="13"/>
       <c r="S115" s="13"/>
-      <c r="T115" s="25">
+      <c r="T115" s="13"/>
+      <c r="U115" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U115" s="25">
+      <c r="V115" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V115" s="26" t="str">
+      <c r="W115" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:22">
+    <row r="116" hidden="1" customHeight="1" spans="1:23">
       <c r="A116" s="13">
         <v>112</v>
       </c>
@@ -23539,7 +23702,7 @@
         <v>122.3</v>
       </c>
       <c r="H116" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>122.3</v>
       </c>
       <c r="I116" s="33"/>
@@ -23555,20 +23718,21 @@
       <c r="Q116" s="13"/>
       <c r="R116" s="13"/>
       <c r="S116" s="13"/>
-      <c r="T116" s="25">
+      <c r="T116" s="13"/>
+      <c r="U116" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U116" s="25">
+      <c r="V116" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V116" s="26" t="str">
+      <c r="W116" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:22">
+    <row r="117" hidden="1" customHeight="1" spans="1:23">
       <c r="A117" s="13">
         <v>113</v>
       </c>
@@ -23589,7 +23753,7 @@
         <v>123.7</v>
       </c>
       <c r="H117" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>123.7</v>
       </c>
       <c r="I117" s="33"/>
@@ -23605,20 +23769,21 @@
       <c r="Q117" s="13"/>
       <c r="R117" s="13"/>
       <c r="S117" s="13"/>
-      <c r="T117" s="25">
+      <c r="T117" s="13"/>
+      <c r="U117" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U117" s="25">
+      <c r="V117" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V117" s="26" t="str">
+      <c r="W117" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:22">
+    <row r="118" hidden="1" customHeight="1" spans="1:23">
       <c r="A118" s="13">
         <v>114</v>
       </c>
@@ -23639,7 +23804,7 @@
         <v>122</v>
       </c>
       <c r="H118" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>122</v>
       </c>
       <c r="I118" s="33"/>
@@ -23655,20 +23820,21 @@
       <c r="Q118" s="13"/>
       <c r="R118" s="13"/>
       <c r="S118" s="13"/>
-      <c r="T118" s="25">
+      <c r="T118" s="13"/>
+      <c r="U118" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U118" s="25">
+      <c r="V118" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V118" s="26" t="str">
+      <c r="W118" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:22">
+    <row r="119" hidden="1" customHeight="1" spans="1:23">
       <c r="A119" s="13">
         <v>115</v>
       </c>
@@ -23689,7 +23855,7 @@
         <v>118.6</v>
       </c>
       <c r="H119" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>118.6</v>
       </c>
       <c r="I119" s="33"/>
@@ -23705,20 +23871,21 @@
       </c>
       <c r="R119" s="13"/>
       <c r="S119" s="13"/>
-      <c r="T119" s="25">
+      <c r="T119" s="13"/>
+      <c r="U119" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U119" s="25">
+      <c r="V119" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V119" s="26" t="str">
+      <c r="W119" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:22">
+    <row r="120" hidden="1" customHeight="1" spans="1:23">
       <c r="A120" s="13">
         <v>116</v>
       </c>
@@ -23739,7 +23906,7 @@
         <v>115.2</v>
       </c>
       <c r="H120" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>115.2</v>
       </c>
       <c r="I120" s="33"/>
@@ -23755,20 +23922,21 @@
       </c>
       <c r="R120" s="13"/>
       <c r="S120" s="13"/>
-      <c r="T120" s="25">
+      <c r="T120" s="13"/>
+      <c r="U120" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U120" s="25">
+      <c r="V120" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V120" s="26" t="str">
+      <c r="W120" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="1:22">
+    <row r="121" hidden="1" customHeight="1" spans="1:23">
       <c r="A121" s="13">
         <v>117</v>
       </c>
@@ -23789,7 +23957,7 @@
         <v>124</v>
       </c>
       <c r="H121" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5580</v>
       </c>
       <c r="I121" s="33"/>
@@ -23807,20 +23975,21 @@
       </c>
       <c r="R121" s="13"/>
       <c r="S121" s="13"/>
-      <c r="T121" s="25">
+      <c r="T121" s="13"/>
+      <c r="U121" s="25">
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
-      <c r="U121" s="25">
+      <c r="V121" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V121" s="26" t="str">
+      <c r="W121" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:22">
+    <row r="122" hidden="1" customHeight="1" spans="1:23">
       <c r="A122" s="13">
         <v>118</v>
       </c>
@@ -23841,7 +24010,7 @@
         <v>83.7</v>
       </c>
       <c r="H122" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>753.3</v>
       </c>
       <c r="I122" s="33"/>
@@ -23857,20 +24026,21 @@
       <c r="Q122" s="13"/>
       <c r="R122" s="13"/>
       <c r="S122" s="13"/>
-      <c r="T122" s="25">
+      <c r="T122" s="13"/>
+      <c r="U122" s="25">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="U122" s="25">
+      <c r="V122" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V122" s="26" t="str">
+      <c r="W122" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:22">
+    <row r="123" hidden="1" customHeight="1" spans="1:23">
       <c r="A123" s="13">
         <v>119</v>
       </c>
@@ -23891,7 +24061,7 @@
         <v>118.6</v>
       </c>
       <c r="H123" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>711.6</v>
       </c>
       <c r="I123" s="33"/>
@@ -23907,20 +24077,21 @@
       </c>
       <c r="R123" s="13"/>
       <c r="S123" s="13"/>
-      <c r="T123" s="25">
+      <c r="T123" s="13"/>
+      <c r="U123" s="25">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="U123" s="25">
+      <c r="V123" s="25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V123" s="26" t="str">
+      <c r="W123" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:22">
+    <row r="124" hidden="1" customHeight="1" spans="1:23">
       <c r="A124" s="13">
         <v>120</v>
       </c>
@@ -23941,7 +24112,7 @@
         <v>73.2</v>
       </c>
       <c r="H124" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292.8</v>
       </c>
       <c r="I124" s="33"/>
@@ -23957,20 +24128,21 @@
       <c r="Q124" s="13"/>
       <c r="R124" s="13"/>
       <c r="S124" s="13"/>
-      <c r="T124" s="25">
+      <c r="T124" s="13"/>
+      <c r="U124" s="25">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="U124" s="25">
-        <f t="shared" ref="U124:U166" si="13">C124-T124</f>
-        <v>0</v>
-      </c>
-      <c r="V124" s="26" t="str">
+      <c r="V124" s="25">
+        <f t="shared" ref="V124:V166" si="13">C124-U124</f>
+        <v>0</v>
+      </c>
+      <c r="W124" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="1:22">
+    <row r="125" hidden="1" customHeight="1" spans="1:23">
       <c r="A125" s="13">
         <v>121</v>
       </c>
@@ -23991,7 +24163,7 @@
         <v>75.8</v>
       </c>
       <c r="H125" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>606.4</v>
       </c>
       <c r="I125" s="33"/>
@@ -24007,20 +24179,21 @@
       </c>
       <c r="R125" s="13"/>
       <c r="S125" s="13"/>
-      <c r="T125" s="25">
+      <c r="T125" s="13"/>
+      <c r="U125" s="25">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="U125" s="25">
+      <c r="V125" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V125" s="26" t="str">
+      <c r="W125" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="1:22">
+    <row r="126" hidden="1" customHeight="1" spans="1:23">
       <c r="A126" s="13">
         <v>122</v>
       </c>
@@ -24041,7 +24214,7 @@
         <v>73.1</v>
       </c>
       <c r="H126" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292.4</v>
       </c>
       <c r="I126" s="33"/>
@@ -24057,20 +24230,21 @@
       <c r="Q126" s="13"/>
       <c r="R126" s="13"/>
       <c r="S126" s="13"/>
-      <c r="T126" s="25">
+      <c r="T126" s="13"/>
+      <c r="U126" s="25">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="U126" s="25">
+      <c r="V126" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V126" s="26" t="str">
+      <c r="W126" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:22">
+    <row r="127" hidden="1" customHeight="1" spans="1:23">
       <c r="A127" s="13">
         <v>123</v>
       </c>
@@ -24091,7 +24265,7 @@
         <v>89.2</v>
       </c>
       <c r="H127" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>356.8</v>
       </c>
       <c r="I127" s="33"/>
@@ -24107,20 +24281,21 @@
       </c>
       <c r="R127" s="13"/>
       <c r="S127" s="13"/>
-      <c r="T127" s="25">
+      <c r="T127" s="13"/>
+      <c r="U127" s="25">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="U127" s="25">
+      <c r="V127" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V127" s="26" t="str">
+      <c r="W127" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:22">
+    <row r="128" hidden="1" customHeight="1" spans="1:23">
       <c r="A128" s="13">
         <v>124</v>
       </c>
@@ -24141,7 +24316,7 @@
         <v>91.3</v>
       </c>
       <c r="H128" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>730.4</v>
       </c>
       <c r="I128" s="33"/>
@@ -24157,20 +24332,21 @@
       </c>
       <c r="R128" s="13"/>
       <c r="S128" s="13"/>
-      <c r="T128" s="25">
+      <c r="T128" s="13"/>
+      <c r="U128" s="25">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="U128" s="25">
+      <c r="V128" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V128" s="26" t="str">
+      <c r="W128" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:22">
+    <row r="129" hidden="1" customHeight="1" spans="1:23">
       <c r="A129" s="13">
         <v>125</v>
       </c>
@@ -24191,7 +24367,7 @@
         <v>89.1</v>
       </c>
       <c r="H129" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>356.4</v>
       </c>
       <c r="I129" s="33"/>
@@ -24207,20 +24383,21 @@
       </c>
       <c r="R129" s="13"/>
       <c r="S129" s="13"/>
-      <c r="T129" s="25">
+      <c r="T129" s="13"/>
+      <c r="U129" s="25">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="U129" s="25">
+      <c r="V129" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V129" s="26" t="str">
+      <c r="W129" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:22">
+    <row r="130" hidden="1" customHeight="1" spans="1:23">
       <c r="A130" s="13">
         <v>126</v>
       </c>
@@ -24241,7 +24418,7 @@
         <v>88.9</v>
       </c>
       <c r="H130" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>88.9</v>
       </c>
       <c r="I130" s="33"/>
@@ -24257,20 +24434,21 @@
       </c>
       <c r="R130" s="13"/>
       <c r="S130" s="13"/>
-      <c r="T130" s="25">
+      <c r="T130" s="13"/>
+      <c r="U130" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U130" s="25">
+      <c r="V130" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V130" s="26" t="str">
+      <c r="W130" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="1:22">
+    <row r="131" hidden="1" customHeight="1" spans="1:23">
       <c r="A131" s="13">
         <v>127</v>
       </c>
@@ -24291,7 +24469,7 @@
         <v>90.3</v>
       </c>
       <c r="H131" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90.3</v>
       </c>
       <c r="I131" s="33"/>
@@ -24307,20 +24485,21 @@
       </c>
       <c r="R131" s="13"/>
       <c r="S131" s="13"/>
-      <c r="T131" s="25">
+      <c r="T131" s="13"/>
+      <c r="U131" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U131" s="25">
+      <c r="V131" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V131" s="26" t="str">
+      <c r="W131" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:22">
+    <row r="132" hidden="1" customHeight="1" spans="1:23">
       <c r="A132" s="13">
         <v>128</v>
       </c>
@@ -24341,7 +24520,7 @@
         <v>90.9</v>
       </c>
       <c r="H132" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90.9</v>
       </c>
       <c r="I132" s="33"/>
@@ -24357,20 +24536,21 @@
       </c>
       <c r="R132" s="13"/>
       <c r="S132" s="13"/>
-      <c r="T132" s="25">
+      <c r="T132" s="13"/>
+      <c r="U132" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U132" s="25">
+      <c r="V132" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V132" s="26" t="str">
+      <c r="W132" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:22">
+    <row r="133" hidden="1" customHeight="1" spans="1:23">
       <c r="A133" s="13">
         <v>129</v>
       </c>
@@ -24391,7 +24571,7 @@
         <v>92.4</v>
       </c>
       <c r="H133" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>92.4</v>
       </c>
       <c r="I133" s="33"/>
@@ -24407,20 +24587,21 @@
       </c>
       <c r="R133" s="13"/>
       <c r="S133" s="13"/>
-      <c r="T133" s="25">
+      <c r="T133" s="13"/>
+      <c r="U133" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="U133" s="25">
+      <c r="V133" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V133" s="26" t="str">
+      <c r="W133" s="26" t="str">
         <f t="shared" si="12"/>
         <v>完成</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="1:22">
+    <row r="134" hidden="1" customHeight="1" spans="1:23">
       <c r="A134" s="13">
         <v>130</v>
       </c>
@@ -24441,7 +24622,7 @@
         <v>89.2</v>
       </c>
       <c r="H134" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>89.2</v>
       </c>
       <c r="I134" s="33"/>
@@ -24457,20 +24638,21 @@
       </c>
       <c r="R134" s="13"/>
       <c r="S134" s="13"/>
-      <c r="T134" s="25">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="T134" s="13"/>
       <c r="U134" s="25">
+        <f t="shared" ref="U134:U165" si="14">SUM(I134:T134)</f>
+        <v>1</v>
+      </c>
+      <c r="V134" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V134" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="135" customHeight="1" spans="1:22">
+      <c r="W134" s="26" t="str">
+        <f t="shared" ref="W134:W165" si="15">IF(SUM(I134:T134)=C134,"完成",SUM(I134:S134))</f>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="135" hidden="1" customHeight="1" spans="1:23">
       <c r="A135" s="13">
         <v>131</v>
       </c>
@@ -24491,7 +24673,7 @@
         <v>90.7</v>
       </c>
       <c r="H135" s="13">
-        <f t="shared" ref="H135:H166" si="14">G135*C135</f>
+        <f t="shared" ref="H135:H166" si="16">G135*C135</f>
         <v>90.7</v>
       </c>
       <c r="I135" s="33"/>
@@ -24507,20 +24689,21 @@
       </c>
       <c r="R135" s="13"/>
       <c r="S135" s="13"/>
-      <c r="T135" s="25">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+      <c r="T135" s="13"/>
       <c r="U135" s="25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="V135" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V135" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="136" customHeight="1" spans="1:22">
+      <c r="W135" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="136" hidden="1" customHeight="1" spans="1:23">
       <c r="A136" s="13">
         <v>132</v>
       </c>
@@ -24541,7 +24724,7 @@
         <v>87.4</v>
       </c>
       <c r="H136" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>87.4</v>
       </c>
       <c r="I136" s="33"/>
@@ -24557,20 +24740,21 @@
       </c>
       <c r="R136" s="13"/>
       <c r="S136" s="13"/>
-      <c r="T136" s="25">
-        <f t="shared" ref="T136:T166" si="15">SUM(I136:S136)</f>
-        <v>1</v>
-      </c>
+      <c r="T136" s="13"/>
       <c r="U136" s="25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="V136" s="25">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V136" s="26" t="str">
-        <f t="shared" ref="V136:V166" si="16">IF(SUM(I136:S136)=C136,"完成",SUM(I136:S136))</f>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="137" customHeight="1" spans="1:22">
+      <c r="W136" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="137" hidden="1" customHeight="1" spans="1:23">
       <c r="A137" s="13">
         <v>133</v>
       </c>
@@ -24591,7 +24775,7 @@
         <v>88.8</v>
       </c>
       <c r="H137" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>88.8</v>
       </c>
       <c r="I137" s="33"/>
@@ -24607,20 +24791,21 @@
       </c>
       <c r="R137" s="13"/>
       <c r="S137" s="13"/>
-      <c r="T137" s="25">
+      <c r="T137" s="13"/>
+      <c r="U137" s="25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="V137" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W137" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U137" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V137" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="138" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="138" hidden="1" customHeight="1" spans="1:23">
       <c r="A138" s="13">
         <v>134</v>
       </c>
@@ -24641,7 +24826,7 @@
         <v>87.7</v>
       </c>
       <c r="H138" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>87.7</v>
       </c>
       <c r="I138" s="33"/>
@@ -24657,20 +24842,21 @@
       </c>
       <c r="R138" s="13"/>
       <c r="S138" s="13"/>
-      <c r="T138" s="25">
+      <c r="T138" s="13"/>
+      <c r="U138" s="25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="V138" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W138" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U138" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V138" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="139" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="139" hidden="1" customHeight="1" spans="1:23">
       <c r="A139" s="13">
         <v>135</v>
       </c>
@@ -24691,7 +24877,7 @@
         <v>88.3</v>
       </c>
       <c r="H139" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>88.3</v>
       </c>
       <c r="I139" s="33"/>
@@ -24707,20 +24893,21 @@
       </c>
       <c r="R139" s="13"/>
       <c r="S139" s="13"/>
-      <c r="T139" s="25">
+      <c r="T139" s="13"/>
+      <c r="U139" s="25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="V139" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W139" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U139" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V139" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="140" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="140" hidden="1" customHeight="1" spans="1:23">
       <c r="A140" s="13">
         <v>136</v>
       </c>
@@ -24741,7 +24928,7 @@
         <v>92</v>
       </c>
       <c r="H140" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>92</v>
       </c>
       <c r="I140" s="33"/>
@@ -24757,20 +24944,21 @@
       </c>
       <c r="R140" s="13"/>
       <c r="S140" s="13"/>
-      <c r="T140" s="25">
+      <c r="T140" s="13"/>
+      <c r="U140" s="25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="V140" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W140" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U140" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V140" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="141" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="141" hidden="1" customHeight="1" spans="1:23">
       <c r="A141" s="13">
         <v>137</v>
       </c>
@@ -24791,7 +24979,7 @@
         <v>92.6</v>
       </c>
       <c r="H141" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>92.6</v>
       </c>
       <c r="I141" s="33"/>
@@ -24807,20 +24995,21 @@
       </c>
       <c r="R141" s="13"/>
       <c r="S141" s="13"/>
-      <c r="T141" s="25">
+      <c r="T141" s="13"/>
+      <c r="U141" s="25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="V141" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W141" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U141" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V141" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="142" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="142" hidden="1" customHeight="1" spans="1:23">
       <c r="A142" s="13">
         <v>138</v>
       </c>
@@ -24841,7 +25030,7 @@
         <v>92.6</v>
       </c>
       <c r="H142" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>92.6</v>
       </c>
       <c r="I142" s="33"/>
@@ -24857,20 +25046,21 @@
       </c>
       <c r="R142" s="13"/>
       <c r="S142" s="13"/>
-      <c r="T142" s="25">
+      <c r="T142" s="13"/>
+      <c r="U142" s="25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="V142" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W142" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U142" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V142" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="143" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="143" hidden="1" customHeight="1" spans="1:23">
       <c r="A143" s="13">
         <v>139</v>
       </c>
@@ -24891,7 +25081,7 @@
         <v>93.3</v>
       </c>
       <c r="H143" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>93.3</v>
       </c>
       <c r="I143" s="33"/>
@@ -24907,20 +25097,21 @@
       </c>
       <c r="R143" s="13"/>
       <c r="S143" s="13"/>
-      <c r="T143" s="25">
+      <c r="T143" s="13"/>
+      <c r="U143" s="25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="V143" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W143" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U143" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V143" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="144" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="144" hidden="1" customHeight="1" spans="1:23">
       <c r="A144" s="13">
         <v>140</v>
       </c>
@@ -24941,7 +25132,7 @@
         <v>93</v>
       </c>
       <c r="H144" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>93</v>
       </c>
       <c r="I144" s="33"/>
@@ -24957,20 +25148,21 @@
       </c>
       <c r="R144" s="13"/>
       <c r="S144" s="13"/>
-      <c r="T144" s="25">
+      <c r="T144" s="13"/>
+      <c r="U144" s="25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="V144" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W144" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U144" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V144" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="145" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="145" hidden="1" customHeight="1" spans="1:23">
       <c r="A145" s="13">
         <v>141</v>
       </c>
@@ -24991,7 +25183,7 @@
         <v>93.6</v>
       </c>
       <c r="H145" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>93.6</v>
       </c>
       <c r="I145" s="33"/>
@@ -25007,20 +25199,21 @@
       </c>
       <c r="R145" s="13"/>
       <c r="S145" s="13"/>
-      <c r="T145" s="25">
+      <c r="T145" s="13"/>
+      <c r="U145" s="25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="V145" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W145" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="U145" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V145" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="146" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="146" hidden="1" customHeight="1" spans="1:23">
       <c r="A146" s="13">
         <v>142</v>
       </c>
@@ -25041,7 +25234,7 @@
         <v>411.8</v>
       </c>
       <c r="H146" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2470.8</v>
       </c>
       <c r="I146" s="33"/>
@@ -25054,21 +25247,24 @@
       <c r="P146" s="13"/>
       <c r="Q146" s="13"/>
       <c r="R146" s="13"/>
-      <c r="S146" s="13"/>
-      <c r="T146" s="25">
+      <c r="S146" s="13">
+        <v>6</v>
+      </c>
+      <c r="T146" s="13"/>
+      <c r="U146" s="25">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="V146" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W146" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U146" s="25">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="V146" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:23">
       <c r="A147" s="13">
         <v>143</v>
       </c>
@@ -25089,7 +25285,7 @@
         <v>187.3</v>
       </c>
       <c r="H147" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2247.6</v>
       </c>
       <c r="I147" s="33"/>
@@ -25103,20 +25299,23 @@
       <c r="Q147" s="13"/>
       <c r="R147" s="13"/>
       <c r="S147" s="13"/>
-      <c r="T147" s="25">
+      <c r="T147" s="13">
+        <v>12</v>
+      </c>
+      <c r="U147" s="25">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="V147" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W147" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U147" s="25">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="V147" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="148" hidden="1" customHeight="1" spans="1:23">
       <c r="A148" s="13">
         <v>144</v>
       </c>
@@ -25137,7 +25336,7 @@
         <v>518</v>
       </c>
       <c r="H148" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3108</v>
       </c>
       <c r="I148" s="33"/>
@@ -25150,21 +25349,24 @@
       <c r="P148" s="13"/>
       <c r="Q148" s="13"/>
       <c r="R148" s="13"/>
-      <c r="S148" s="13"/>
-      <c r="T148" s="25">
+      <c r="S148" s="13">
+        <v>6</v>
+      </c>
+      <c r="T148" s="13"/>
+      <c r="U148" s="25">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="V148" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W148" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U148" s="25">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="V148" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:23">
       <c r="A149" s="13">
         <v>145</v>
       </c>
@@ -25185,7 +25387,7 @@
         <v>235.6</v>
       </c>
       <c r="H149" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2827.2</v>
       </c>
       <c r="I149" s="33"/>
@@ -25199,20 +25401,23 @@
       <c r="Q149" s="13"/>
       <c r="R149" s="13"/>
       <c r="S149" s="13"/>
-      <c r="T149" s="25">
+      <c r="T149" s="13">
+        <v>12</v>
+      </c>
+      <c r="U149" s="25">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="V149" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W149" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U149" s="25">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="V149" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:23">
       <c r="A150" s="13">
         <v>146</v>
       </c>
@@ -25233,7 +25438,7 @@
         <v>102.2</v>
       </c>
       <c r="H150" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>204.4</v>
       </c>
       <c r="I150" s="33"/>
@@ -25247,20 +25452,23 @@
       <c r="Q150" s="13"/>
       <c r="R150" s="13"/>
       <c r="S150" s="13"/>
-      <c r="T150" s="25">
+      <c r="T150" s="13">
+        <v>2</v>
+      </c>
+      <c r="U150" s="25">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="V150" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W150" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U150" s="25">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="V150" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:23">
       <c r="A151" s="13">
         <v>147</v>
       </c>
@@ -25281,7 +25489,7 @@
         <v>120.3</v>
       </c>
       <c r="H151" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>240.6</v>
       </c>
       <c r="I151" s="33"/>
@@ -25295,20 +25503,23 @@
       <c r="Q151" s="13"/>
       <c r="R151" s="13"/>
       <c r="S151" s="13"/>
-      <c r="T151" s="25">
+      <c r="T151" s="13">
+        <v>2</v>
+      </c>
+      <c r="U151" s="25">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="V151" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W151" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U151" s="25">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="V151" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="152" hidden="1" customHeight="1" spans="1:23">
       <c r="A152" s="13">
         <v>148</v>
       </c>
@@ -25329,7 +25540,7 @@
         <v>153.5</v>
       </c>
       <c r="H152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>307</v>
       </c>
       <c r="I152" s="33"/>
@@ -25345,20 +25556,21 @@
       </c>
       <c r="R152" s="13"/>
       <c r="S152" s="13"/>
-      <c r="T152" s="25">
+      <c r="T152" s="13"/>
+      <c r="U152" s="25">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="V152" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W152" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="U152" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V152" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="153" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="153" hidden="1" customHeight="1" spans="1:23">
       <c r="A153" s="13">
         <v>149</v>
       </c>
@@ -25379,7 +25591,7 @@
         <v>143.6</v>
       </c>
       <c r="H153" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>287.2</v>
       </c>
       <c r="I153" s="33"/>
@@ -25395,20 +25607,21 @@
       </c>
       <c r="R153" s="13"/>
       <c r="S153" s="13"/>
-      <c r="T153" s="25">
+      <c r="T153" s="13"/>
+      <c r="U153" s="25">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="V153" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W153" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="U153" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V153" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="154" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="154" hidden="1" customHeight="1" spans="1:23">
       <c r="A154" s="13">
         <v>150</v>
       </c>
@@ -25429,7 +25642,7 @@
         <v>157.3</v>
       </c>
       <c r="H154" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>314.6</v>
       </c>
       <c r="I154" s="33"/>
@@ -25445,20 +25658,21 @@
       </c>
       <c r="R154" s="13"/>
       <c r="S154" s="13"/>
-      <c r="T154" s="25">
+      <c r="T154" s="13"/>
+      <c r="U154" s="25">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="V154" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W154" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="U154" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V154" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="155" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="155" hidden="1" customHeight="1" spans="1:23">
       <c r="A155" s="13">
         <v>151</v>
       </c>
@@ -25479,7 +25693,7 @@
         <v>184.5</v>
       </c>
       <c r="H155" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>369</v>
       </c>
       <c r="I155" s="33"/>
@@ -25495,20 +25709,21 @@
       </c>
       <c r="R155" s="13"/>
       <c r="S155" s="13"/>
-      <c r="T155" s="25">
+      <c r="T155" s="13"/>
+      <c r="U155" s="25">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="V155" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W155" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="U155" s="25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V155" s="26" t="str">
-        <f t="shared" si="16"/>
-        <v>完成</v>
-      </c>
-    </row>
-    <row r="156" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:23">
       <c r="A156" s="13">
         <v>152</v>
       </c>
@@ -25529,7 +25744,7 @@
         <v>3.1</v>
       </c>
       <c r="H156" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>24.8</v>
       </c>
       <c r="I156" s="33"/>
@@ -25543,20 +25758,23 @@
       <c r="Q156" s="13"/>
       <c r="R156" s="13"/>
       <c r="S156" s="13"/>
-      <c r="T156" s="25">
+      <c r="T156" s="13">
+        <v>8</v>
+      </c>
+      <c r="U156" s="25">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="V156" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W156" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U156" s="25">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="V156" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:23">
       <c r="A157" s="13">
         <v>153</v>
       </c>
@@ -25577,7 +25795,7 @@
         <v>2.9</v>
       </c>
       <c r="H157" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>23.2</v>
       </c>
       <c r="I157" s="33"/>
@@ -25591,20 +25809,23 @@
       <c r="Q157" s="13"/>
       <c r="R157" s="13"/>
       <c r="S157" s="13"/>
-      <c r="T157" s="25">
+      <c r="T157" s="13">
+        <v>8</v>
+      </c>
+      <c r="U157" s="25">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="V157" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W157" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U157" s="25">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="V157" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:23">
       <c r="A158" s="13">
         <v>154</v>
       </c>
@@ -25625,7 +25846,7 @@
         <v>2.6</v>
       </c>
       <c r="H158" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20.8</v>
       </c>
       <c r="I158" s="33"/>
@@ -25639,20 +25860,23 @@
       <c r="Q158" s="13"/>
       <c r="R158" s="13"/>
       <c r="S158" s="13"/>
-      <c r="T158" s="25">
+      <c r="T158" s="13">
+        <v>8</v>
+      </c>
+      <c r="U158" s="25">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="V158" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W158" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U158" s="25">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="V158" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:23">
       <c r="A159" s="13">
         <v>155</v>
       </c>
@@ -25673,7 +25897,7 @@
         <v>2.4</v>
       </c>
       <c r="H159" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>432</v>
       </c>
       <c r="I159" s="33"/>
@@ -25687,20 +25911,23 @@
       <c r="Q159" s="13"/>
       <c r="R159" s="13"/>
       <c r="S159" s="13"/>
-      <c r="T159" s="25">
+      <c r="T159" s="13">
+        <v>180</v>
+      </c>
+      <c r="U159" s="25">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+      <c r="V159" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W159" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U159" s="25">
-        <f t="shared" si="13"/>
-        <v>180</v>
-      </c>
-      <c r="V159" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:23">
       <c r="A160" s="13">
         <v>156</v>
       </c>
@@ -25721,7 +25948,7 @@
         <v>2.5</v>
       </c>
       <c r="H160" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="I160" s="33"/>
@@ -25735,20 +25962,23 @@
       <c r="Q160" s="13"/>
       <c r="R160" s="13"/>
       <c r="S160" s="13"/>
-      <c r="T160" s="25">
+      <c r="T160" s="13">
+        <v>36</v>
+      </c>
+      <c r="U160" s="25">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="V160" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W160" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U160" s="25">
-        <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="V160" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:23">
       <c r="A161" s="13">
         <v>157</v>
       </c>
@@ -25769,7 +25999,7 @@
         <v>2.7</v>
       </c>
       <c r="H161" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>97.2</v>
       </c>
       <c r="I161" s="33"/>
@@ -25783,20 +26013,23 @@
       <c r="Q161" s="13"/>
       <c r="R161" s="13"/>
       <c r="S161" s="13"/>
-      <c r="T161" s="25">
+      <c r="T161" s="13">
+        <v>36</v>
+      </c>
+      <c r="U161" s="25">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="V161" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W161" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U161" s="25">
-        <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="V161" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:23">
       <c r="A162" s="13">
         <v>158</v>
       </c>
@@ -25817,7 +26050,7 @@
         <v>3</v>
       </c>
       <c r="H162" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>108</v>
       </c>
       <c r="I162" s="33"/>
@@ -25831,20 +26064,23 @@
       <c r="Q162" s="13"/>
       <c r="R162" s="13"/>
       <c r="S162" s="13"/>
-      <c r="T162" s="25">
+      <c r="T162" s="13">
+        <v>36</v>
+      </c>
+      <c r="U162" s="25">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="V162" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W162" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U162" s="25">
-        <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="V162" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="1:23">
       <c r="A163" s="13">
         <v>159</v>
       </c>
@@ -25865,7 +26101,7 @@
         <v>3.2</v>
       </c>
       <c r="H163" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>115.2</v>
       </c>
       <c r="I163" s="33"/>
@@ -25879,20 +26115,23 @@
       <c r="Q163" s="13"/>
       <c r="R163" s="13"/>
       <c r="S163" s="13"/>
-      <c r="T163" s="25">
+      <c r="T163" s="13">
+        <v>36</v>
+      </c>
+      <c r="U163" s="25">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="V163" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W163" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U163" s="25">
-        <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="V163" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:23">
       <c r="A164" s="13">
         <v>160</v>
       </c>
@@ -25913,7 +26152,7 @@
         <v>3.1</v>
       </c>
       <c r="H164" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>86.8</v>
       </c>
       <c r="I164" s="33"/>
@@ -25927,20 +26166,23 @@
       <c r="Q164" s="13"/>
       <c r="R164" s="13"/>
       <c r="S164" s="13"/>
-      <c r="T164" s="25">
+      <c r="T164" s="13">
+        <v>28</v>
+      </c>
+      <c r="U164" s="25">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="V164" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W164" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U164" s="25">
-        <f t="shared" si="13"/>
-        <v>28</v>
-      </c>
-      <c r="V164" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:23">
       <c r="A165" s="13">
         <v>161</v>
       </c>
@@ -25961,7 +26203,7 @@
         <v>2.9</v>
       </c>
       <c r="H165" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>81.2</v>
       </c>
       <c r="I165" s="33"/>
@@ -25975,20 +26217,23 @@
       <c r="Q165" s="13"/>
       <c r="R165" s="13"/>
       <c r="S165" s="13"/>
-      <c r="T165" s="25">
+      <c r="T165" s="13">
+        <v>28</v>
+      </c>
+      <c r="U165" s="25">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="V165" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W165" s="26" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U165" s="25">
-        <f t="shared" si="13"/>
-        <v>28</v>
-      </c>
-      <c r="V165" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" customHeight="1" spans="1:22">
+        <v>完成</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:23">
       <c r="A166" s="13">
         <v>162</v>
       </c>
@@ -26009,7 +26254,7 @@
         <v>2.6</v>
       </c>
       <c r="H166" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>72.8</v>
       </c>
       <c r="I166" s="33"/>
@@ -26023,30 +26268,49 @@
       <c r="Q166" s="13"/>
       <c r="R166" s="13"/>
       <c r="S166" s="13"/>
-      <c r="T166" s="25">
-        <f t="shared" si="15"/>
-        <v>0</v>
+      <c r="T166" s="13">
+        <v>28</v>
       </c>
       <c r="U166" s="25">
+        <f>SUM(I166:T166)</f>
+        <v>28</v>
+      </c>
+      <c r="V166" s="25">
         <f t="shared" si="13"/>
-        <v>28</v>
-      </c>
-      <c r="V166" s="26">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="W166" s="26" t="str">
+        <f>IF(SUM(I166:T166)=C166,"完成",SUM(I166:S166))</f>
+        <v>完成</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:W166">
-    <sortState ref="A4:W166">
+  <autoFilter ref="A4:X166">
+    <filterColumn colId="19">
+      <filters>
+        <filter val="50"/>
+        <filter val="180"/>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="12"/>
+        <filter val="222"/>
+        <filter val="53"/>
+        <filter val="204"/>
+        <filter val="36"/>
+        <filter val="8"/>
+        <filter val="28"/>
+        <filter val="48"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A4:X166">
       <sortCondition ref="I4:I89"/>
     </sortState>
     <extLst/>
   </autoFilter>
   <mergeCells count="12">
-    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="B1:W1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="I3:U3"/>
+    <mergeCell ref="I3:V3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -26055,7 +26319,7 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.27" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
@@ -30499,11 +30763,11 @@
   <dimension ref="A1:AB83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -30735,7 +30999,6 @@
         <v>364</v>
       </c>
       <c r="E6" s="29"/>
-      <c r="F6" s="28"/>
       <c r="G6" s="28">
         <v>1101.6</v>
       </c>
